--- a/2025 FIVB Women's Volleyball World Championship.xlsx
+++ b/2025 FIVB Women's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F82631A1-243B-468D-9246-64112CFFC559}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1390BB76-1C6E-4A89-821D-31A313915318}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -866,28 +866,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -915,22 +909,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3016,15 +3016,15 @@
       </c>
       <c r="D3" s="1">
         <f>SUM(H3*3,I3*3,J3*2,K3)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <f>F3+G3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C3)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C3)</f>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="I3" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C3,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C3,Preliminary!AK:AK)</f>
@@ -3056,27 +3056,27 @@
       </c>
       <c r="N3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
         <f>IFERROR((N3/O3)*1000,"MAX")</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="Q3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="R3" s="1">
         <f>SUMIF(Preliminary!AE:AE,C3,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C3,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="str">
+        <v>66</v>
+      </c>
+      <c r="S3" s="4">
         <f t="shared" ref="S3:S20" si="0">IFERROR((Q3/R3)*1000,"MAX")</f>
-        <v>MAX</v>
+        <v>1484.8484848484848</v>
       </c>
       <c r="T3" s="1">
         <f>SUMPRODUCT(($F$3:$F$6=F3)*($D$3:$D$6&gt;D3))</f>
@@ -3109,15 +3109,15 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ref="D4:D20" si="1">SUM(H4*3,I4*3,J4*2,K4)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
         <f t="shared" ref="E4:E20" si="2">F4+G4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C4)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C4)</f>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="J4" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C4,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C4,Preliminary!AS:AS)</f>
@@ -3149,31 +3149,31 @@
       </c>
       <c r="N4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P4" s="4" t="str">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
         <f t="shared" ref="P4:P20" si="3">IFERROR((N4/O4)*1000,"MAX")</f>
-        <v>MAX</v>
+        <v>1500</v>
       </c>
       <c r="Q4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="R4" s="1">
         <f>SUMIF(Preliminary!AE:AE,C4,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C4,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="str">
+        <v>93</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1193.5483870967741</v>
       </c>
       <c r="T4" s="1">
         <f t="shared" ref="T4:T6" si="4">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6&gt;D4))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4" s="1">
         <f t="shared" ref="U4:U6" si="5">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6=D4)*($P$3:$P$6&gt;P4))</f>
@@ -3185,7 +3185,7 @@
       </c>
       <c r="W4" s="1">
         <f t="shared" ref="W4:W6" si="7">SUMPRODUCT(($F$3:$F$6=F4)*($D$3:$D$6=D4)*($P$3:$P$6=P4)*($S$3:$S$6=S4)*($X$3:$X$6&lt;X4))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4" s="1">
         <v>1</v>
@@ -3202,11 +3202,11 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C5)</f>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="G5" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C5)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C5,Preliminary!AI:AI)</f>
@@ -3230,7 +3230,7 @@
       </c>
       <c r="K5" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C5,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C5,Preliminary!AT:AT)</f>
@@ -3242,27 +3242,27 @@
       </c>
       <c r="N5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P5" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="Q5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="R5" s="1">
         <f>SUMIF(Preliminary!AE:AE,C5,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C5,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="str">
+        <v>111</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>837.83783783783781</v>
       </c>
       <c r="T5" s="1">
         <f t="shared" si="4"/>
@@ -3278,7 +3278,7 @@
       </c>
       <c r="W5" s="1">
         <f t="shared" si="7"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="1">
         <v>2</v>
@@ -3299,7 +3299,7 @@
       </c>
       <c r="E6" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C6)</f>
@@ -3307,7 +3307,7 @@
       </c>
       <c r="G6" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C6)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C6,Preliminary!AI:AI)</f>
@@ -3327,7 +3327,7 @@
       </c>
       <c r="L6" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C6,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C6,Preliminary!AU:AU)</f>
@@ -3335,31 +3335,31 @@
       </c>
       <c r="N6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P6" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="Q6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="R6" s="1">
         <f>SUMIF(Preliminary!AE:AE,C6,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C6,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="str">
+        <v>98</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>673.46938775510205</v>
       </c>
       <c r="T6" s="1">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6" s="1">
         <f t="shared" si="5"/>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="W6" s="1">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X6" s="1">
         <v>3</v>
@@ -3383,22 +3383,22 @@
       </c>
       <c r="B7" s="1">
         <f>RANK(F7,$F$7:$F$10)+SUM(T7:W7)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="s">
         <v>76</v>
       </c>
       <c r="D7" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C7)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C7)</f>
@@ -3406,7 +3406,7 @@
       </c>
       <c r="H7" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C7,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C7,Preliminary!AJ:AJ)</f>
@@ -3430,7 +3430,7 @@
       </c>
       <c r="N7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AR:AR)</f>
@@ -3442,15 +3442,15 @@
       </c>
       <c r="Q7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R7" s="1">
         <f>SUMIF(Preliminary!AE:AE,C7,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C7,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="str">
+        <v>49</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1530.612244897959</v>
       </c>
       <c r="T7" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F7)*($D$7:$D$10&gt;D7))</f>
@@ -3462,7 +3462,7 @@
       </c>
       <c r="V7" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F7)*($D$7:$D$10=D7)*($P$7:$P$10=P7)*($S$7:$S$10&gt;S7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F7)*($D$7:$D$10=D7)*($P$7:$P$10=P7)*($S$7:$S$10=S7)*($X$7:$X$10&lt;X7))</f>
@@ -3476,22 +3476,22 @@
       <c r="A8" s="55"/>
       <c r="B8" s="1">
         <f t="shared" ref="B8:B10" si="8">RANK(F8,$F$7:$F$10)+SUM(T8:W8)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>59</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C8)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C8)</f>
@@ -3499,7 +3499,7 @@
       </c>
       <c r="H8" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C8,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C8,Preliminary!AJ:AJ)</f>
@@ -3523,7 +3523,7 @@
       </c>
       <c r="N8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AR:AR)</f>
@@ -3535,15 +3535,15 @@
       </c>
       <c r="Q8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R8" s="1">
         <f>SUMIF(Preliminary!AE:AE,C8,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C8,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S8" s="4" t="str">
+        <v>48</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1562.5</v>
       </c>
       <c r="T8" s="1">
         <f t="shared" ref="T8:T9" si="9">SUMPRODUCT(($F$7:$F$10=F8)*($D$7:$D$10&gt;D8))</f>
@@ -3559,7 +3559,7 @@
       </c>
       <c r="W8" s="1">
         <f t="shared" ref="W8:W9" si="12">SUMPRODUCT(($F$7:$F$10=F8)*($D$7:$D$10=D8)*($P$7:$P$10=P8)*($S$7:$S$10=S8)*($X$7:$X$10&lt;X8))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8" s="1">
         <v>1</v>
@@ -3569,7 +3569,7 @@
       <c r="A9" s="55"/>
       <c r="B9" s="1">
         <f t="shared" si="8"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
         <v>64</v>
@@ -3580,7 +3580,7 @@
       </c>
       <c r="E9" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C9)</f>
@@ -3588,7 +3588,7 @@
       </c>
       <c r="G9" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C9)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C9,Preliminary!AI:AI)</f>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="M9" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C9,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AQ:AQ)</f>
@@ -3620,23 +3620,23 @@
       </c>
       <c r="O9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P9" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="R9" s="1">
         <f>SUMIF(Preliminary!AE:AE,C9,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C9,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="str">
+        <v>75</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>640</v>
       </c>
       <c r="T9" s="1">
         <f t="shared" si="9"/>
@@ -3648,11 +3648,11 @@
       </c>
       <c r="V9" s="1">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" si="12"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9" s="1">
         <v>2</v>
@@ -3662,7 +3662,7 @@
       <c r="A10" s="55"/>
       <c r="B10" s="1">
         <f t="shared" si="8"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>68</v>
@@ -3673,7 +3673,7 @@
       </c>
       <c r="E10" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C10)</f>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="G10" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C10)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C10,Preliminary!AI:AI)</f>
@@ -3705,7 +3705,7 @@
       </c>
       <c r="M10" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C10,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AQ:AQ)</f>
@@ -3713,23 +3713,23 @@
       </c>
       <c r="O10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P10" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="R10" s="1">
         <f>SUMIF(Preliminary!AE:AE,C10,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C10,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S10" s="4" t="str">
+        <v>75</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>653.33333333333337</v>
       </c>
       <c r="T10" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F10)*($D$7:$D$10&gt;D10))</f>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="W10" s="1">
         <f>SUMPRODUCT(($F$7:$F$10=F10)*($D$7:$D$10=D10)*($P$7:$P$10=P10)*($S$7:$S$10=S10)*($X$7:$X$10&lt;X10))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X10" s="1">
         <v>3</v>
@@ -3764,15 +3764,15 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C11)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G11" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C11)</f>
@@ -3780,7 +3780,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C11,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C11,Preliminary!AJ:AJ)</f>
@@ -3804,7 +3804,7 @@
       </c>
       <c r="N11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AR:AR)</f>
@@ -3816,15 +3816,15 @@
       </c>
       <c r="Q11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="R11" s="1">
         <f>SUMIF(Preliminary!AE:AE,C11,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C11,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S11" s="4" t="str">
+        <v>50</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1500</v>
       </c>
       <c r="T11" s="1">
         <f>SUMPRODUCT(($F$11:$F$14=F11)*($D$11:$D$14&gt;D11))</f>
@@ -3850,7 +3850,7 @@
       <c r="A12" s="55"/>
       <c r="B12" s="1">
         <f t="shared" ref="B12:B14" si="13">RANK(F12,$F$11:$F$14)+SUM(T12:W12)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
         <v>60</v>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="E12" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C12)</f>
@@ -3869,7 +3869,7 @@
       </c>
       <c r="G12" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C12)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C12,Preliminary!AI:AI)</f>
@@ -3889,7 +3889,7 @@
       </c>
       <c r="L12" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C12,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C12,Preliminary!AU:AU)</f>
@@ -3897,27 +3897,27 @@
       </c>
       <c r="N12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P12" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="Q12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="R12" s="1">
         <f>SUMIF(Preliminary!AE:AE,C12,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C12,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="4" t="str">
+        <v>96</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>822.91666666666663</v>
       </c>
       <c r="T12" s="1">
         <f t="shared" ref="T12:T14" si="14">SUMPRODUCT(($F$11:$F$14=F12)*($D$11:$D$14&gt;D12))</f>
@@ -3933,7 +3933,7 @@
       </c>
       <c r="W12" s="1">
         <f>SUMPRODUCT(($F$11:$F$14=F12)*($D$11:$D$14=D12)*($P$11:$P$14=P12)*($S$11:$S$14=S12)*($X$11:$X$14&lt;X12))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X12" s="1">
         <v>1</v>
@@ -3943,22 +3943,22 @@
       <c r="A13" s="55"/>
       <c r="B13" s="1">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C13" t="s">
         <v>62</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C13)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C13)</f>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="I13" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C13,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C13,Preliminary!AK:AK)</f>
@@ -3990,27 +3990,27 @@
       </c>
       <c r="N13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="P13" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="Q13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="R13" s="1">
         <f>SUMIF(Preliminary!AE:AE,C13,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C13,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S13" s="4" t="str">
+        <v>79</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1215.1898734177216</v>
       </c>
       <c r="T13" s="1">
         <f t="shared" si="14"/>
@@ -4018,7 +4018,7 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="16"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="W13" s="1">
         <f>SUMPRODUCT(($F$11:$F$14=F13)*($D$11:$D$14=D13)*($P$11:$P$14=P13)*($S$11:$S$14=S13)*($X$11:$X$14&lt;X13))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X13" s="1">
         <v>2</v>
@@ -4047,7 +4047,7 @@
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C14)</f>
@@ -4055,7 +4055,7 @@
       </c>
       <c r="G14" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C14)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C14,Preliminary!AI:AI)</f>
@@ -4079,7 +4079,7 @@
       </c>
       <c r="M14" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C14,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AQ:AQ)</f>
@@ -4087,23 +4087,23 @@
       </c>
       <c r="O14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P14" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="R14" s="1">
         <f>SUMIF(Preliminary!AE:AE,C14,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C14,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S14" s="4" t="str">
+        <v>75</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="T14" s="1">
         <f t="shared" si="14"/>
@@ -4111,7 +4111,7 @@
       </c>
       <c r="U14" s="1">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="1">
         <f t="shared" si="16"/>
@@ -4119,7 +4119,7 @@
       </c>
       <c r="W14" s="1">
         <f>SUMPRODUCT(($F$11:$F$14=F14)*($D$11:$D$14=D14)*($P$11:$P$14=P14)*($S$11:$S$14=S14)*($X$11:$X$14&lt;X14))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X14" s="1">
         <v>3</v>
@@ -4138,15 +4138,15 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C15)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G15" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C15)</f>
@@ -4158,7 +4158,7 @@
       </c>
       <c r="I15" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C15,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C15,Preliminary!AK:AK)</f>
@@ -4178,27 +4178,27 @@
       </c>
       <c r="N15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="P15" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="Q15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="R15" s="1">
         <f>SUMIF(Preliminary!AE:AE,C15,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C15,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S15" s="4" t="str">
+        <v>84</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1095.2380952380954</v>
       </c>
       <c r="T15" s="1">
         <f>SUMPRODUCT(($F$15:$F$18=F15)*($D$15:$D$18&gt;D15))</f>
@@ -4224,7 +4224,7 @@
       <c r="A16" s="55"/>
       <c r="B16" s="1">
         <f t="shared" ref="B16:B18" si="17">RANK(F16,$F$15:$F$18)+SUM(T16:W16)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
         <v>77</v>
@@ -4235,7 +4235,7 @@
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C16)</f>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="G16" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C16)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C16,Preliminary!AI:AI)</f>
@@ -4263,7 +4263,7 @@
       </c>
       <c r="L16" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C16,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C16,Preliminary!AU:AU)</f>
@@ -4271,27 +4271,27 @@
       </c>
       <c r="N16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P16" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="Q16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="R16" s="1">
         <f>SUMIF(Preliminary!AE:AE,C16,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C16,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S16" s="4" t="str">
+        <v>94</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>946.80851063829789</v>
       </c>
       <c r="T16" s="1">
         <f t="shared" ref="T16:T18" si="18">SUMPRODUCT(($F$15:$F$18=F16)*($D$15:$D$18&gt;D16))</f>
@@ -4307,7 +4307,7 @@
       </c>
       <c r="W16" s="1">
         <f>SUMPRODUCT(($F$15:$F$18=F16)*($D$15:$D$18=D16)*($P$15:$P$18=P16)*($S$15:$S$18=S16)*($X$15:$X$18&lt;X16))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X16" s="1">
         <v>1</v>
@@ -4317,22 +4317,22 @@
       <c r="A17" s="55"/>
       <c r="B17" s="1">
         <f t="shared" si="17"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17" t="s">
         <v>47</v>
       </c>
       <c r="D17" s="1">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C17)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C17)</f>
@@ -4344,7 +4344,7 @@
       </c>
       <c r="I17" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C17,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C17,Preliminary!AK:AK)</f>
@@ -4364,27 +4364,27 @@
       </c>
       <c r="N17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="4" t="str">
+        <v>1</v>
+      </c>
+      <c r="P17" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="Q17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="R17" s="1">
         <f>SUMIF(Preliminary!AE:AE,C17,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C17,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="4" t="str">
+        <v>89</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>1056.1797752808989</v>
       </c>
       <c r="T17" s="1">
         <f t="shared" si="18"/>
@@ -4396,11 +4396,11 @@
       </c>
       <c r="V17" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="1">
         <f>SUMPRODUCT(($F$15:$F$18=F17)*($D$15:$D$18=D17)*($P$15:$P$18=P17)*($S$15:$S$18=S17)*($X$15:$X$18&lt;X17))</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X17" s="1">
         <v>2</v>
@@ -4421,7 +4421,7 @@
       </c>
       <c r="E18" s="1">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C18)</f>
@@ -4429,7 +4429,7 @@
       </c>
       <c r="G18" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C18)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C18,Preliminary!AI:AI)</f>
@@ -4449,7 +4449,7 @@
       </c>
       <c r="L18" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C18,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C18,Preliminary!AU:AU)</f>
@@ -4457,27 +4457,27 @@
       </c>
       <c r="N18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AQ:AQ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P18" s="4">
         <f t="shared" si="3"/>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="Q18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AV:AV)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="R18" s="1">
         <f>SUMIF(Preliminary!AE:AE,C18,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C18,Preliminary!AW:AW)</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="4" t="str">
+        <v>92</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="0"/>
-        <v>MAX</v>
+        <v>913.04347826086951</v>
       </c>
       <c r="T18" s="1">
         <f t="shared" si="18"/>
@@ -4489,11 +4489,11 @@
       </c>
       <c r="V18" s="1">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="1">
         <f>SUMPRODUCT(($F$15:$F$18=F18)*($D$15:$D$18=D18)*($P$15:$P$18=P18)*($S$15:$S$18=S18)*($X$15:$X$18&lt;X18))</f>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X18" s="1">
         <v>3</v>
@@ -5997,11 +5997,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -6010,6 +6005,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6019,8 +6019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A5577-D33C-4D22-A376-2229D9D229A5}">
   <dimension ref="B2:BR67"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -6082,74 +6082,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -6172,116 +6172,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -6339,34 +6339,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="61" t="s">
+      <c r="AX5" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="61" t="s">
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="61" t="s">
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="61" t="s">
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="61" t="s">
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="63"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="74"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -6376,50 +6376,74 @@
         <f>AB7</f>
         <v> Netherlands</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="48">
+        <v>3</v>
+      </c>
       <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="47">
+        <v>2</v>
+      </c>
       <c r="G6" s="25" t="str">
         <f>AB8</f>
         <v> Sweden</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="28">
+        <v>25</v>
+      </c>
       <c r="I6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="30">
+        <v>27</v>
+      </c>
+      <c r="K6" s="28">
+        <v>25</v>
+      </c>
       <c r="L6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="28"/>
+      <c r="M6" s="30">
+        <v>11</v>
+      </c>
+      <c r="N6" s="28">
+        <v>25</v>
+      </c>
       <c r="O6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>21</v>
+      </c>
       <c r="R6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="28"/>
+      <c r="S6" s="30">
+        <v>25</v>
+      </c>
+      <c r="T6" s="28">
+        <v>15</v>
+      </c>
       <c r="U6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="30"/>
+      <c r="V6" s="30">
+        <v>9</v>
+      </c>
       <c r="W6" s="31">
         <f>SUM(H6,K6,N6,Q6,T6)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="X6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y6" s="32">
         <f>SUM(J6,M6,P6,S6,V6)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AA6" s="12">
         <v>1</v>
@@ -6429,23 +6453,23 @@
       </c>
       <c r="AD6" s="12">
         <f>AG6+AH6</f>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE6" s="12" t="str">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,C6,G6))</f>
-        <v>0</v>
+        <v> Netherlands</v>
       </c>
       <c r="AF6" s="12">
         <f>IF(OR(D6="",F6=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,D6,F6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,F6,D6))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI6" s="12">
         <f>IF(AND(AG6=3,AH6=0),1,0)</f>
@@ -6457,35 +6481,35 @@
       </c>
       <c r="AK6" s="12">
         <f>IF(AND(AG6=3,AH6=2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6" s="12">
         <f>IF(D6&gt;F6,SUM(H6,K6,N6,Q6,T6,),SUM(J6,M6,P6,S6,V6))</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AM6" s="12">
         <f>IF(D6&gt;F6,SUM(J6,M6,P6,S6,V6),SUM(H6,K6,N6,Q6,T6))</f>
-        <v>0</v>
-      </c>
-      <c r="AO6" s="12">
+        <v>93</v>
+      </c>
+      <c r="AO6" s="12" t="str">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,C6,G6))</f>
-        <v>0</v>
+        <v> Sweden</v>
       </c>
       <c r="AP6" s="12">
         <f>IF(OR(D6="",F6=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,D6,F6))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,F6,D6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS6" s="12">
         <f>IF(AND(AQ6=2,AR6=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="12">
         <f>IF(AND(AQ6=1,AR6=3),1,0)</f>
@@ -6497,11 +6521,11 @@
       </c>
       <c r="AV6" s="12">
         <f>IF(D6&lt;F6,SUM(H6,K6,N6,Q6,T6,),SUM(J6,M6,P6,S6,V6))</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AW6" s="12">
         <f>IF(D6&lt;F6,SUM(J6,M6,P6,S6,V6),SUM(H6,K6,N6,Q6,T6))</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="AX6" s="27" t="s">
         <v>24</v>
@@ -6566,35 +6590,55 @@
         <f>AB6</f>
         <v> Thailand</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="48">
+        <v>3</v>
+      </c>
       <c r="E7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="47">
+        <v>1</v>
+      </c>
       <c r="G7" s="25" t="str">
         <f>AB9</f>
         <v> Egypt</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="28">
+        <v>25</v>
+      </c>
       <c r="I7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="30">
+        <v>15</v>
+      </c>
+      <c r="K7" s="28">
+        <v>23</v>
+      </c>
       <c r="L7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28"/>
+      <c r="M7" s="30">
+        <v>25</v>
+      </c>
+      <c r="N7" s="28">
+        <v>25</v>
+      </c>
       <c r="O7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="30"/>
-      <c r="Q7" s="28"/>
+      <c r="P7" s="30">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>25</v>
+      </c>
       <c r="R7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S7" s="30"/>
+      <c r="S7" s="30">
+        <v>11</v>
+      </c>
       <c r="T7" s="28"/>
       <c r="U7" s="29" t="s">
         <v>0</v>
@@ -6602,14 +6646,14 @@
       <c r="V7" s="30"/>
       <c r="W7" s="31">
         <f t="shared" ref="W7:W11" si="0">SUM(H7,K7,N7,Q7,T7)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y7" s="32">
         <f t="shared" ref="Y7:Y11" si="1">SUM(J7,M7,P7,S7,V7)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AA7" s="12">
         <v>2</v>
@@ -6619,23 +6663,23 @@
       </c>
       <c r="AD7" s="12">
         <f t="shared" ref="AD7:AD11" si="2">AG7+AH7</f>
-        <v>0</v>
-      </c>
-      <c r="AE7" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE7" s="12" t="str">
         <f t="shared" ref="AE7:AE11" si="3">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,C7,G7))</f>
-        <v>0</v>
+        <v> Thailand</v>
       </c>
       <c r="AF7" s="12">
         <f t="shared" ref="AF7:AF11" si="4">IF(OR(D7="",F7=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" ref="AG7:AG11" si="5">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,D7,F7))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH7" s="12">
         <f t="shared" ref="AH7:AH11" si="6">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,F7,D7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" s="12">
         <f t="shared" ref="AI7:AI11" si="7">IF(AND(AG7=3,AH7=0),1,0)</f>
@@ -6643,7 +6687,7 @@
       </c>
       <c r="AJ7" s="12">
         <f t="shared" ref="AJ7:AJ11" si="8">IF(AND(AG7=3,AH7=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7" s="12">
         <f t="shared" ref="AK7:AK11" si="9">IF(AND(AG7=3,AH7=2),1,0)</f>
@@ -6651,27 +6695,27 @@
       </c>
       <c r="AL7" s="12">
         <f t="shared" ref="AL7:AL11" si="10">IF(D7&gt;F7,SUM(H7,K7,N7,Q7,T7,),SUM(J7,M7,P7,S7,V7))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AM7" s="12">
         <f t="shared" ref="AM7:AM11" si="11">IF(D7&gt;F7,SUM(J7,M7,P7,S7,V7),SUM(H7,K7,N7,Q7,T7))</f>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="12">
+        <v>66</v>
+      </c>
+      <c r="AO7" s="12" t="str">
         <f t="shared" ref="AO7:AO11" si="12">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,C7,G7))</f>
-        <v>0</v>
+        <v> Egypt</v>
       </c>
       <c r="AP7" s="12">
         <f t="shared" ref="AP7:AP11" si="13">IF(OR(D7="",F7=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7" s="12">
         <f t="shared" ref="AQ7:AQ11" si="14">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,D7,F7))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7" s="12">
         <f t="shared" ref="AR7:AR11" si="15">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,F7,D7))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS7" s="12">
         <f t="shared" ref="AS7:AS11" si="16">IF(AND(AQ7=2,AR7=3),1,0)</f>
@@ -6679,7 +6723,7 @@
       </c>
       <c r="AT7" s="12">
         <f t="shared" ref="AT7:AT11" si="17">IF(AND(AQ7=1,AR7=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7" s="12">
         <f t="shared" ref="AU7:AU11" si="18">IF(AND(AQ7=0,AR7=3),1,0)</f>
@@ -6687,11 +6731,11 @@
       </c>
       <c r="AV7" s="12">
         <f t="shared" ref="AV7:AV11" si="19">IF(D7&lt;F7,SUM(H7,K7,N7,Q7,T7,),SUM(J7,M7,P7,S7,V7))</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AW7" s="12">
         <f t="shared" ref="AW7:AW11" si="20">IF(D7&lt;F7,SUM(J7,M7,P7,S7,V7),SUM(H7,K7,N7,Q7,T7))</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="AX7" s="50">
         <v>1</v>
@@ -6702,15 +6746,15 @@
       </c>
       <c r="AZ7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,6,FALSE)</f>
@@ -6722,7 +6766,7 @@
       </c>
       <c r="BE7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,9,FALSE)</f>
@@ -6742,27 +6786,27 @@
       </c>
       <c r="BJ7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL7" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL7" s="52">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="BM7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>0</v>
+        <v>98</v>
       </c>
       <c r="BN7" s="50">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO7" s="52" t="str">
+        <v>66</v>
+      </c>
+      <c r="BO7" s="52">
         <f>VLOOKUP($AX7,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1484.8484848484848</v>
       </c>
     </row>
     <row r="8" spans="2:67" x14ac:dyDescent="0.25">
@@ -6909,15 +6953,15 @@
       </c>
       <c r="AZ8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,6,FALSE)</f>
@@ -6933,7 +6977,7 @@
       </c>
       <c r="BF8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,10,FALSE)</f>
@@ -6949,27 +6993,27 @@
       </c>
       <c r="BJ8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL8" s="52" t="str">
+        <v>2</v>
+      </c>
+      <c r="BL8" s="52">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>MAX</v>
+        <v>1500</v>
       </c>
       <c r="BM8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="BN8" s="50">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO8" s="52" t="str">
+        <v>93</v>
+      </c>
+      <c r="BO8" s="52">
         <f>VLOOKUP($AX8,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1193.5483870967741</v>
       </c>
     </row>
     <row r="9" spans="2:67" x14ac:dyDescent="0.25">
@@ -7116,11 +7160,11 @@
       </c>
       <c r="AZ9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,5,FALSE)</f>
@@ -7128,7 +7172,7 @@
       </c>
       <c r="BC9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,7,FALSE)</f>
@@ -7144,7 +7188,7 @@
       </c>
       <c r="BG9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,11,FALSE)</f>
@@ -7156,27 +7200,27 @@
       </c>
       <c r="BJ9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BK9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL9" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL9" s="52">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>MAX</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BM9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="BN9" s="50">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO9" s="52" t="str">
+        <v>111</v>
+      </c>
+      <c r="BO9" s="52">
         <f>VLOOKUP($AX9,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>MAX</v>
+        <v>837.83783783783781</v>
       </c>
     </row>
     <row r="10" spans="2:67" x14ac:dyDescent="0.25">
@@ -7321,7 +7365,7 @@
       </c>
       <c r="BA10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,5,FALSE)</f>
@@ -7329,7 +7373,7 @@
       </c>
       <c r="BC10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,7,FALSE)</f>
@@ -7349,7 +7393,7 @@
       </c>
       <c r="BH10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,12,FALSE)</f>
@@ -7357,27 +7401,27 @@
       </c>
       <c r="BJ10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL10" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL10" s="52">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,15,FALSE)</f>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BM10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,16,FALSE)</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="BN10" s="50">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO10" s="52" t="str">
+        <v>98</v>
+      </c>
+      <c r="BO10" s="52">
         <f>VLOOKUP($AX10,Dummy!$B$3:$S$6,18,FALSE)</f>
-        <v>MAX</v>
+        <v>673.46938775510205</v>
       </c>
     </row>
     <row r="11" spans="2:67" x14ac:dyDescent="0.25">
@@ -7511,120 +7555,120 @@
       </c>
       <c r="BA11" s="26">
         <f>SUM(BA7:BA10)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="76"/>
+      <c r="BL12" s="76"/>
+      <c r="BM12" s="76"/>
+      <c r="BN12" s="76"/>
+      <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72" t="s">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="72" t="s">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="72" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="72" t="s">
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73" t="s">
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7682,34 +7726,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="58" t="s">
+      <c r="AX13" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="58" t="s">
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="58" t="s">
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="58" t="s">
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="58" t="s">
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="60"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="71"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -7719,30 +7763,46 @@
         <f>AB15</f>
         <v> Belgium</v>
       </c>
-      <c r="D14" s="48"/>
+      <c r="D14" s="48">
+        <v>3</v>
+      </c>
       <c r="E14" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F14" s="47"/>
+      <c r="F14" s="47">
+        <v>0</v>
+      </c>
       <c r="G14" s="5" t="str">
         <f>AB16</f>
         <v> Cuba</v>
       </c>
-      <c r="H14" s="28"/>
+      <c r="H14" s="28">
+        <v>25</v>
+      </c>
       <c r="I14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J14" s="30"/>
-      <c r="K14" s="28"/>
+      <c r="J14" s="30">
+        <v>23</v>
+      </c>
+      <c r="K14" s="28">
+        <v>25</v>
+      </c>
       <c r="L14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M14" s="30"/>
-      <c r="N14" s="28"/>
+      <c r="M14" s="30">
+        <v>14</v>
+      </c>
+      <c r="N14" s="28">
+        <v>25</v>
+      </c>
       <c r="O14" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="30"/>
+      <c r="P14" s="30">
+        <v>11</v>
+      </c>
       <c r="Q14" s="28"/>
       <c r="R14" s="29" t="s">
         <v>0</v>
@@ -7755,14 +7815,14 @@
       <c r="V14" s="30"/>
       <c r="W14" s="31">
         <f>SUM(H14,K14,N14,Q14,T14)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X14" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y14" s="32">
         <f>SUM(J14,M14,P14,S14,V14)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AA14" s="12">
         <v>1</v>
@@ -7772,19 +7832,19 @@
       </c>
       <c r="AD14" s="12">
         <f t="shared" ref="AD14:AD27" si="21">AG14+AH14</f>
-        <v>0</v>
-      </c>
-      <c r="AE14" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE14" s="12" t="str">
         <f t="shared" ref="AE14:AE19" si="22">IF(OR(D14="",F14=""),0,IF(D14&gt;F14,C14,G14))</f>
-        <v>0</v>
+        <v> Belgium</v>
       </c>
       <c r="AF14" s="12">
         <f t="shared" ref="AF14:AF19" si="23">IF(OR(D14="",F14=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14" s="12">
         <f t="shared" ref="AG14:AG19" si="24">IF(OR(D14="",F14=""),0,IF(D14&gt;F14,D14,F14))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="12">
         <f t="shared" ref="AH14:AH19" si="25">IF(OR(D14="",F14=""),0,IF(D14&gt;F14,F14,D14))</f>
@@ -7792,7 +7852,7 @@
       </c>
       <c r="AI14" s="12">
         <f t="shared" ref="AI14:AI19" si="26">IF(AND(AG14=3,AH14=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14" s="12">
         <f t="shared" ref="AJ14:AJ19" si="27">IF(AND(AG14=3,AH14=1),1,0)</f>
@@ -7804,19 +7864,19 @@
       </c>
       <c r="AL14" s="12">
         <f t="shared" ref="AL14:AL19" si="29">IF(D14&gt;F14,SUM(H14,K14,N14,Q14,T14,),SUM(J14,M14,P14,S14,V14))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM14" s="12">
         <f t="shared" ref="AM14:AM19" si="30">IF(D14&gt;F14,SUM(J14,M14,P14,S14,V14),SUM(H14,K14,N14,Q14,T14))</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="12">
+        <v>48</v>
+      </c>
+      <c r="AO14" s="12" t="str">
         <f t="shared" ref="AO14:AO19" si="31">IF(OR(D14="",F14=""),0,IF(D14&lt;F14,C14,G14))</f>
-        <v>0</v>
+        <v> Cuba</v>
       </c>
       <c r="AP14" s="12">
         <f t="shared" ref="AP14:AP19" si="32">IF(OR(D14="",F14=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14" s="12">
         <f t="shared" ref="AQ14:AQ19" si="33">IF(OR(D14="",F14=""),0,IF(D14&lt;F14,D14,F14))</f>
@@ -7824,7 +7884,7 @@
       </c>
       <c r="AR14" s="12">
         <f t="shared" ref="AR14:AR19" si="34">IF(OR(D14="",F14=""),0,IF(D14&lt;F14,F14,D14))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS14" s="12">
         <f t="shared" ref="AS14:AS19" si="35">IF(AND(AQ14=2,AR14=3),1,0)</f>
@@ -7836,15 +7896,15 @@
       </c>
       <c r="AU14" s="12">
         <f t="shared" ref="AU14:AU19" si="37">IF(AND(AQ14=0,AR14=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="12">
         <f t="shared" ref="AV14:AV19" si="38">IF(D14&lt;F14,SUM(H14,K14,N14,Q14,T14,),SUM(J14,M14,P14,S14,V14))</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="AW14" s="12">
         <f t="shared" ref="AW14:AW19" si="39">IF(D14&lt;F14,SUM(J14,M14,P14,S14,V14),SUM(H14,K14,N14,Q14,T14))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX14" s="27" t="s">
         <v>24</v>
@@ -7909,30 +7969,46 @@
         <f>AB14</f>
         <v> Italy</v>
       </c>
-      <c r="D15" s="48"/>
+      <c r="D15" s="48">
+        <v>3</v>
+      </c>
       <c r="E15" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F15" s="47"/>
+      <c r="F15" s="47">
+        <v>0</v>
+      </c>
       <c r="G15" s="5" t="str">
         <f>AB17</f>
         <v> Slovakia</v>
       </c>
-      <c r="H15" s="28"/>
+      <c r="H15" s="28">
+        <v>25</v>
+      </c>
       <c r="I15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J15" s="30"/>
-      <c r="K15" s="28"/>
+      <c r="J15" s="30">
+        <v>20</v>
+      </c>
+      <c r="K15" s="28">
+        <v>25</v>
+      </c>
       <c r="L15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M15" s="30"/>
-      <c r="N15" s="28"/>
+      <c r="M15" s="30">
+        <v>14</v>
+      </c>
+      <c r="N15" s="28">
+        <v>25</v>
+      </c>
       <c r="O15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="30"/>
+      <c r="P15" s="30">
+        <v>15</v>
+      </c>
       <c r="Q15" s="28"/>
       <c r="R15" s="29" t="s">
         <v>0</v>
@@ -7945,14 +8021,14 @@
       <c r="V15" s="30"/>
       <c r="W15" s="31">
         <f t="shared" ref="W15:W19" si="40">SUM(H15,K15,N15,Q15,T15)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X15" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y15" s="32">
         <f t="shared" ref="Y15:Y19" si="41">SUM(J15,M15,P15,S15,V15)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AA15" s="12">
         <v>2</v>
@@ -7962,19 +8038,19 @@
       </c>
       <c r="AD15" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE15" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE15" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v> Italy</v>
       </c>
       <c r="AF15" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH15" s="12">
         <f t="shared" si="25"/>
@@ -7982,7 +8058,7 @@
       </c>
       <c r="AI15" s="12">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15" s="12">
         <f t="shared" si="27"/>
@@ -7994,19 +8070,19 @@
       </c>
       <c r="AL15" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM15" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AO15" s="12">
+        <v>49</v>
+      </c>
+      <c r="AO15" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v> Slovakia</v>
       </c>
       <c r="AP15" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15" s="12">
         <f t="shared" si="33"/>
@@ -8014,7 +8090,7 @@
       </c>
       <c r="AR15" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS15" s="12">
         <f t="shared" si="35"/>
@@ -8026,34 +8102,34 @@
       </c>
       <c r="AU15" s="12">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="AW15" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX15" s="50">
         <v>1</v>
       </c>
       <c r="AY15" s="51" t="str">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,2,FALSE)</f>
-        <v> Italy</v>
+        <v> Belgium</v>
       </c>
       <c r="AZ15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,6,FALSE)</f>
@@ -8061,7 +8137,7 @@
       </c>
       <c r="BD15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,8,FALSE)</f>
@@ -8085,7 +8161,7 @@
       </c>
       <c r="BJ15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,14,FALSE)</f>
@@ -8097,15 +8173,15 @@
       </c>
       <c r="BM15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BN15" s="50">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO15" s="52" t="str">
+        <v>48</v>
+      </c>
+      <c r="BO15" s="52">
         <f>VLOOKUP($AX15,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1562.5</v>
       </c>
     </row>
     <row r="16" spans="2:67" x14ac:dyDescent="0.25">
@@ -8248,19 +8324,19 @@
       </c>
       <c r="AY16" s="51" t="str">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,2,FALSE)</f>
-        <v> Belgium</v>
+        <v> Italy</v>
       </c>
       <c r="AZ16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,6,FALSE)</f>
@@ -8268,7 +8344,7 @@
       </c>
       <c r="BD16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,8,FALSE)</f>
@@ -8292,7 +8368,7 @@
       </c>
       <c r="BJ16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,14,FALSE)</f>
@@ -8304,15 +8380,15 @@
       </c>
       <c r="BM16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BN16" s="50">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO16" s="52" t="str">
+        <v>49</v>
+      </c>
+      <c r="BO16" s="52">
         <f>VLOOKUP($AX16,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1530.612244897959</v>
       </c>
     </row>
     <row r="17" spans="2:67" x14ac:dyDescent="0.25">
@@ -8455,7 +8531,7 @@
       </c>
       <c r="AY17" s="51" t="str">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,2,FALSE)</f>
-        <v> Cuba</v>
+        <v> Slovakia</v>
       </c>
       <c r="AZ17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,3,FALSE)</f>
@@ -8463,7 +8539,7 @@
       </c>
       <c r="BA17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,5,FALSE)</f>
@@ -8471,7 +8547,7 @@
       </c>
       <c r="BC17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,7,FALSE)</f>
@@ -8495,7 +8571,7 @@
       </c>
       <c r="BI17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,13,FALSE)</f>
@@ -8503,23 +8579,23 @@
       </c>
       <c r="BK17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL17" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL17" s="52">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,15,FALSE)</f>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="BM17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="BN17" s="50">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO17" s="52" t="str">
+        <v>75</v>
+      </c>
+      <c r="BO17" s="52">
         <f>VLOOKUP($AX17,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>MAX</v>
+        <v>653.33333333333337</v>
       </c>
     </row>
     <row r="18" spans="2:67" x14ac:dyDescent="0.25">
@@ -8656,7 +8732,7 @@
       </c>
       <c r="AY18" s="51" t="str">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,2,FALSE)</f>
-        <v> Slovakia</v>
+        <v> Cuba</v>
       </c>
       <c r="AZ18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,3,FALSE)</f>
@@ -8664,7 +8740,7 @@
       </c>
       <c r="BA18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,5,FALSE)</f>
@@ -8672,7 +8748,7 @@
       </c>
       <c r="BC18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,7,FALSE)</f>
@@ -8696,7 +8772,7 @@
       </c>
       <c r="BI18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,13,FALSE)</f>
@@ -8704,23 +8780,23 @@
       </c>
       <c r="BK18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL18" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL18" s="52">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,15,FALSE)</f>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="BM18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,16,FALSE)</f>
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="BN18" s="50">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO18" s="52" t="str">
+        <v>75</v>
+      </c>
+      <c r="BO18" s="52">
         <f>VLOOKUP($AX18,Dummy!$B$7:$S$10,18,FALSE)</f>
-        <v>MAX</v>
+        <v>640</v>
       </c>
     </row>
     <row r="19" spans="2:67" x14ac:dyDescent="0.25">
@@ -8854,120 +8930,120 @@
       </c>
       <c r="BA19" s="26">
         <f>SUM(BA15:BA18)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="57"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="76"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="76"/>
+      <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="72" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="72" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72" t="s">
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73" t="s">
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -9025,34 +9101,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="58" t="s">
+      <c r="AX21" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="58" t="s">
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="58" t="s">
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="58" t="s">
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="60"/>
-      <c r="BM21" s="58" t="s">
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="71"/>
+      <c r="BM21" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="60"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="71"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9062,35 +9138,55 @@
         <f>AB23</f>
         <v> Puerto Rico</v>
       </c>
-      <c r="D22" s="48"/>
+      <c r="D22" s="48">
+        <v>1</v>
+      </c>
       <c r="E22" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F22" s="47"/>
+      <c r="F22" s="47">
+        <v>3</v>
+      </c>
       <c r="G22" s="25" t="str">
         <f>AB24</f>
         <v> France</v>
       </c>
-      <c r="H22" s="28"/>
+      <c r="H22" s="28">
+        <v>22</v>
+      </c>
       <c r="I22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J22" s="30"/>
-      <c r="K22" s="28"/>
+      <c r="J22" s="30">
+        <v>25</v>
+      </c>
+      <c r="K22" s="28">
+        <v>18</v>
+      </c>
       <c r="L22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="30"/>
-      <c r="N22" s="28"/>
+      <c r="M22" s="30">
+        <v>25</v>
+      </c>
+      <c r="N22" s="28">
+        <v>25</v>
+      </c>
       <c r="O22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="28"/>
+      <c r="P22" s="30">
+        <v>21</v>
+      </c>
+      <c r="Q22" s="28">
+        <v>14</v>
+      </c>
       <c r="R22" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S22" s="30"/>
+      <c r="S22" s="30">
+        <v>25</v>
+      </c>
       <c r="T22" s="28"/>
       <c r="U22" s="29" t="s">
         <v>0</v>
@@ -9098,14 +9194,14 @@
       <c r="V22" s="30"/>
       <c r="W22" s="31">
         <f>SUM(H22,K22,N22,Q22,T22)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="X22" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y22" s="32">
         <f>SUM(J22,M22,P22,S22,V22)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AA22" s="12">
         <v>1</v>
@@ -9115,23 +9211,23 @@
       </c>
       <c r="AD22" s="12">
         <f t="shared" ref="AD22" si="42">AG22+AH22</f>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE22" s="12" t="str">
         <f t="shared" ref="AE22:AE27" si="43">IF(OR(D22="",F22=""),0,IF(D22&gt;F22,C22,G22))</f>
-        <v>0</v>
+        <v> France</v>
       </c>
       <c r="AF22" s="12">
         <f t="shared" ref="AF22:AF27" si="44">IF(OR(D22="",F22=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG22" s="12">
         <f t="shared" ref="AG22:AG27" si="45">IF(OR(D22="",F22=""),0,IF(D22&gt;F22,D22,F22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH22" s="12">
         <f t="shared" ref="AH22:AH27" si="46">IF(OR(D22="",F22=""),0,IF(D22&gt;F22,F22,D22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI22" s="12">
         <f t="shared" ref="AI22:AI27" si="47">IF(AND(AG22=3,AH22=0),1,0)</f>
@@ -9139,7 +9235,7 @@
       </c>
       <c r="AJ22" s="12">
         <f t="shared" ref="AJ22:AJ27" si="48">IF(AND(AG22=3,AH22=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK22" s="12">
         <f t="shared" ref="AK22:AK27" si="49">IF(AND(AG22=3,AH22=2),1,0)</f>
@@ -9147,27 +9243,27 @@
       </c>
       <c r="AL22" s="12">
         <f t="shared" ref="AL22:AL27" si="50">IF(D22&gt;F22,SUM(H22,K22,N22,Q22,T22,),SUM(J22,M22,P22,S22,V22))</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AM22" s="12">
         <f t="shared" ref="AM22:AM27" si="51">IF(D22&gt;F22,SUM(J22,M22,P22,S22,V22),SUM(H22,K22,N22,Q22,T22))</f>
-        <v>0</v>
-      </c>
-      <c r="AO22" s="12">
+        <v>79</v>
+      </c>
+      <c r="AO22" s="12" t="str">
         <f t="shared" ref="AO22:AO27" si="52">IF(OR(D22="",F22=""),0,IF(D22&lt;F22,C22,G22))</f>
-        <v>0</v>
+        <v> Puerto Rico</v>
       </c>
       <c r="AP22" s="12">
         <f t="shared" ref="AP22:AP27" si="53">IF(OR(D22="",F22=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ22" s="12">
         <f t="shared" ref="AQ22:AQ27" si="54">IF(OR(D22="",F22=""),0,IF(D22&lt;F22,D22,F22))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR22" s="12">
         <f t="shared" ref="AR22:AR27" si="55">IF(OR(D22="",F22=""),0,IF(D22&lt;F22,F22,D22))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS22" s="12">
         <f t="shared" ref="AS22:AS27" si="56">IF(AND(AQ22=2,AR22=3),1,0)</f>
@@ -9175,7 +9271,7 @@
       </c>
       <c r="AT22" s="12">
         <f t="shared" ref="AT22:AT27" si="57">IF(AND(AQ22=1,AR22=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22" s="12">
         <f t="shared" ref="AU22:AU27" si="58">IF(AND(AQ22=0,AR22=3),1,0)</f>
@@ -9183,11 +9279,11 @@
       </c>
       <c r="AV22" s="12">
         <f t="shared" ref="AV22:AV27" si="59">IF(D22&lt;F22,SUM(H22,K22,N22,Q22,T22,),SUM(J22,M22,P22,S22,V22))</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AW22" s="12">
         <f t="shared" ref="AW22:AW27" si="60">IF(D22&lt;F22,SUM(J22,M22,P22,S22,V22),SUM(H22,K22,N22,Q22,T22))</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="AX22" s="27" t="s">
         <v>24</v>
@@ -9252,30 +9348,46 @@
         <f>AB22</f>
         <v> Brazil</v>
       </c>
-      <c r="D23" s="48"/>
+      <c r="D23" s="48">
+        <v>3</v>
+      </c>
       <c r="E23" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F23" s="47"/>
+      <c r="F23" s="47">
+        <v>0</v>
+      </c>
       <c r="G23" s="25" t="str">
         <f>AB25</f>
         <v> Greece</v>
       </c>
-      <c r="H23" s="28"/>
+      <c r="H23" s="28">
+        <v>25</v>
+      </c>
       <c r="I23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J23" s="30"/>
-      <c r="K23" s="28"/>
+      <c r="J23" s="30">
+        <v>18</v>
+      </c>
+      <c r="K23" s="28">
+        <v>25</v>
+      </c>
       <c r="L23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M23" s="30"/>
-      <c r="N23" s="28"/>
+      <c r="M23" s="30">
+        <v>16</v>
+      </c>
+      <c r="N23" s="28">
+        <v>25</v>
+      </c>
       <c r="O23" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P23" s="30"/>
+      <c r="P23" s="30">
+        <v>16</v>
+      </c>
       <c r="Q23" s="28"/>
       <c r="R23" s="29" t="s">
         <v>0</v>
@@ -9288,14 +9400,14 @@
       <c r="V23" s="30"/>
       <c r="W23" s="31">
         <f t="shared" ref="W23:W27" si="61">SUM(H23,K23,N23,Q23,T23)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X23" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y23" s="32">
         <f t="shared" ref="Y23:Y27" si="62">SUM(J23,M23,P23,S23,V23)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AA23" s="12">
         <v>2</v>
@@ -9305,19 +9417,19 @@
       </c>
       <c r="AD23" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE23" s="12" t="str">
         <f t="shared" si="43"/>
-        <v>0</v>
+        <v> Brazil</v>
       </c>
       <c r="AF23" s="12">
         <f t="shared" si="44"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG23" s="12">
         <f t="shared" si="45"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH23" s="12">
         <f t="shared" si="46"/>
@@ -9325,7 +9437,7 @@
       </c>
       <c r="AI23" s="12">
         <f t="shared" si="47"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ23" s="12">
         <f t="shared" si="48"/>
@@ -9337,19 +9449,19 @@
       </c>
       <c r="AL23" s="12">
         <f t="shared" si="50"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM23" s="12">
         <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AO23" s="12">
+        <v>50</v>
+      </c>
+      <c r="AO23" s="12" t="str">
         <f t="shared" si="52"/>
-        <v>0</v>
+        <v> Greece</v>
       </c>
       <c r="AP23" s="12">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ23" s="12">
         <f t="shared" si="54"/>
@@ -9357,7 +9469,7 @@
       </c>
       <c r="AR23" s="12">
         <f t="shared" si="55"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS23" s="12">
         <f t="shared" si="56"/>
@@ -9369,15 +9481,15 @@
       </c>
       <c r="AU23" s="12">
         <f t="shared" si="58"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV23" s="12">
         <f t="shared" si="59"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW23" s="12">
         <f t="shared" si="60"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX23" s="50">
         <v>1</v>
@@ -9388,15 +9500,15 @@
       </c>
       <c r="AZ23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,6,FALSE)</f>
@@ -9404,7 +9516,7 @@
       </c>
       <c r="BD23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,8,FALSE)</f>
@@ -9428,7 +9540,7 @@
       </c>
       <c r="BJ23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,14,FALSE)</f>
@@ -9440,15 +9552,15 @@
       </c>
       <c r="BM23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BN23" s="50">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO23" s="52" t="str">
+        <v>50</v>
+      </c>
+      <c r="BO23" s="52">
         <f>VLOOKUP($AX23,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="24" spans="2:67" x14ac:dyDescent="0.25">
@@ -9591,19 +9703,19 @@
       </c>
       <c r="AY24" s="51" t="str">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,2,FALSE)</f>
-        <v> Puerto Rico</v>
+        <v> France</v>
       </c>
       <c r="AZ24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,6,FALSE)</f>
@@ -9615,7 +9727,7 @@
       </c>
       <c r="BE24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,9,FALSE)</f>
@@ -9635,27 +9747,27 @@
       </c>
       <c r="BJ24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL24" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL24" s="52">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="BM24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>0</v>
+        <v>96</v>
       </c>
       <c r="BN24" s="50">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO24" s="52" t="str">
+        <v>79</v>
+      </c>
+      <c r="BO24" s="52">
         <f>VLOOKUP($AX24,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1215.1898734177216</v>
       </c>
     </row>
     <row r="25" spans="2:67" x14ac:dyDescent="0.25">
@@ -9798,7 +9910,7 @@
       </c>
       <c r="AY25" s="51" t="str">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,2,FALSE)</f>
-        <v> France</v>
+        <v> Puerto Rico</v>
       </c>
       <c r="AZ25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,3,FALSE)</f>
@@ -9806,7 +9918,7 @@
       </c>
       <c r="BA25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,5,FALSE)</f>
@@ -9814,7 +9926,7 @@
       </c>
       <c r="BC25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,7,FALSE)</f>
@@ -9834,7 +9946,7 @@
       </c>
       <c r="BH25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,12,FALSE)</f>
@@ -9842,27 +9954,27 @@
       </c>
       <c r="BJ25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL25" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL25" s="52">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BM25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="BN25" s="50">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO25" s="52" t="str">
+        <v>96</v>
+      </c>
+      <c r="BO25" s="52">
         <f>VLOOKUP($AX25,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>MAX</v>
+        <v>822.91666666666663</v>
       </c>
     </row>
     <row r="26" spans="2:67" x14ac:dyDescent="0.25">
@@ -10007,7 +10119,7 @@
       </c>
       <c r="BA26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,5,FALSE)</f>
@@ -10015,7 +10127,7 @@
       </c>
       <c r="BC26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,7,FALSE)</f>
@@ -10039,7 +10151,7 @@
       </c>
       <c r="BI26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,13,FALSE)</f>
@@ -10047,23 +10159,23 @@
       </c>
       <c r="BK26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL26" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL26" s="52">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,15,FALSE)</f>
-        <v>MAX</v>
+        <v>0</v>
       </c>
       <c r="BM26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,16,FALSE)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="BN26" s="50">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO26" s="52" t="str">
+        <v>75</v>
+      </c>
+      <c r="BO26" s="52">
         <f>VLOOKUP($AX26,Dummy!$B$11:$S$14,18,FALSE)</f>
-        <v>MAX</v>
+        <v>666.66666666666663</v>
       </c>
     </row>
     <row r="27" spans="2:67" x14ac:dyDescent="0.25">
@@ -10197,120 +10309,120 @@
       </c>
       <c r="BA27" s="26">
         <f>SUM(BA23:BA26)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="72" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="72" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="72" t="s">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73" t="s">
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10368,34 +10480,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="58" t="s">
+      <c r="AX29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="58" t="s">
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="58" t="s">
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="58" t="s">
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="71"/>
+      <c r="BJ29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="58" t="s">
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="60"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="71"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -10405,35 +10517,55 @@
         <f>AB31</f>
         <v> Czech Republic</v>
       </c>
-      <c r="D30" s="48"/>
+      <c r="D30" s="48">
+        <v>1</v>
+      </c>
       <c r="E30" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F30" s="47"/>
+      <c r="F30" s="47">
+        <v>3</v>
+      </c>
       <c r="G30" s="5" t="str">
         <f>AB32</f>
         <v> Argentina</v>
       </c>
-      <c r="H30" s="28"/>
+      <c r="H30" s="28">
+        <v>25</v>
+      </c>
       <c r="I30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J30" s="30"/>
-      <c r="K30" s="28"/>
+      <c r="J30" s="30">
+        <v>18</v>
+      </c>
+      <c r="K30" s="28">
+        <v>23</v>
+      </c>
       <c r="L30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M30" s="30"/>
-      <c r="N30" s="28"/>
+      <c r="M30" s="30">
+        <v>25</v>
+      </c>
+      <c r="N30" s="28">
+        <v>17</v>
+      </c>
       <c r="O30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P30" s="30"/>
-      <c r="Q30" s="28"/>
+      <c r="P30" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q30" s="28">
+        <v>24</v>
+      </c>
       <c r="R30" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S30" s="30"/>
+      <c r="S30" s="30">
+        <v>26</v>
+      </c>
       <c r="T30" s="28"/>
       <c r="U30" s="29" t="s">
         <v>0</v>
@@ -10441,14 +10573,14 @@
       <c r="V30" s="30"/>
       <c r="W30" s="31">
         <f>SUM(H30,K30,N30,Q30,T30)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="X30" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y30" s="32">
         <f>SUM(J30,M30,P30,S30,V30)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AA30" s="12">
         <v>1</v>
@@ -10458,23 +10590,23 @@
       </c>
       <c r="AD30" s="12">
         <f>AG30+AH30</f>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE30" s="12" t="str">
         <f>IF(OR(D30="",F30=""),0,IF(D30&gt;F30,C30,G30))</f>
-        <v>0</v>
+        <v> Argentina</v>
       </c>
       <c r="AF30" s="12">
         <f>IF(OR(D30="",F30=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&gt;F30,D30,F30))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&gt;F30,F30,D30))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI30" s="12">
         <f>IF(AND(AG30=3,AH30=0),1,0)</f>
@@ -10482,7 +10614,7 @@
       </c>
       <c r="AJ30" s="12">
         <f>IF(AND(AG30=3,AH30=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK30" s="12">
         <f>IF(AND(AG30=3,AH30=2),1,0)</f>
@@ -10490,27 +10622,27 @@
       </c>
       <c r="AL30" s="12">
         <f>IF(D30&gt;F30,SUM(H30,K30,N30,Q30,T30,),SUM(J30,M30,P30,S30,V30))</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AM30" s="12">
         <f>IF(D30&gt;F30,SUM(J30,M30,P30,S30,V30),SUM(H30,K30,N30,Q30,T30))</f>
-        <v>0</v>
-      </c>
-      <c r="AO30" s="12">
+        <v>89</v>
+      </c>
+      <c r="AO30" s="12" t="str">
         <f>IF(OR(D30="",F30=""),0,IF(D30&lt;F30,C30,G30))</f>
-        <v>0</v>
+        <v> Czech Republic</v>
       </c>
       <c r="AP30" s="12">
         <f>IF(OR(D30="",F30=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&lt;F30,D30,F30))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR30" s="12">
         <f>IF(OR(D30="",F30=""),0,IF(D30&lt;F30,F30,D30))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS30" s="12">
         <f>IF(AND(AQ30=2,AR30=3),1,0)</f>
@@ -10518,7 +10650,7 @@
       </c>
       <c r="AT30" s="12">
         <f>IF(AND(AQ30=1,AR30=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU30" s="12">
         <f>IF(AND(AQ30=0,AR30=3),1,0)</f>
@@ -10526,11 +10658,11 @@
       </c>
       <c r="AV30" s="12">
         <f>IF(D30&lt;F30,SUM(H30,K30,N30,Q30,T30,),SUM(J30,M30,P30,S30,V30))</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="AW30" s="12">
         <f>IF(D30&lt;F30,SUM(J30,M30,P30,S30,V30),SUM(H30,K30,N30,Q30,T30))</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AX30" s="27" t="s">
         <v>24</v>
@@ -10595,35 +10727,55 @@
         <f>AB30</f>
         <v> United States</v>
       </c>
-      <c r="D31" s="48"/>
+      <c r="D31" s="48">
+        <v>3</v>
+      </c>
       <c r="E31" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F31" s="47"/>
+      <c r="F31" s="47">
+        <v>1</v>
+      </c>
       <c r="G31" s="5" t="str">
         <f>AB33</f>
         <v> Slovenia</v>
       </c>
-      <c r="H31" s="28"/>
+      <c r="H31" s="28">
+        <v>25</v>
+      </c>
       <c r="I31" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J31" s="30"/>
-      <c r="K31" s="28"/>
+      <c r="J31" s="30">
+        <v>23</v>
+      </c>
+      <c r="K31" s="28">
+        <v>17</v>
+      </c>
       <c r="L31" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="30"/>
-      <c r="N31" s="28"/>
+      <c r="M31" s="30">
+        <v>25</v>
+      </c>
+      <c r="N31" s="28">
+        <v>25</v>
+      </c>
       <c r="O31" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="28"/>
+      <c r="P31" s="30">
+        <v>22</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>25</v>
+      </c>
       <c r="R31" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S31" s="30"/>
+      <c r="S31" s="30">
+        <v>14</v>
+      </c>
       <c r="T31" s="28"/>
       <c r="U31" s="29" t="s">
         <v>0</v>
@@ -10631,14 +10783,14 @@
       <c r="V31" s="30"/>
       <c r="W31" s="31">
         <f t="shared" ref="W31:W35" si="63">SUM(H31,K31,N31,Q31,T31)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="X31" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y31" s="32">
         <f t="shared" ref="Y31:Y35" si="64">SUM(J31,M31,P31,S31,V31)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AA31" s="12">
         <v>2</v>
@@ -10648,23 +10800,23 @@
       </c>
       <c r="AD31" s="12">
         <f t="shared" ref="AD31:AD35" si="65">AG31+AH31</f>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE31" s="12" t="str">
         <f t="shared" ref="AE31:AE35" si="66">IF(OR(D31="",F31=""),0,IF(D31&gt;F31,C31,G31))</f>
-        <v>0</v>
+        <v> United States</v>
       </c>
       <c r="AF31" s="12">
         <f t="shared" ref="AF31:AF35" si="67">IF(OR(D31="",F31=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG31" s="12">
         <f t="shared" ref="AG31:AG35" si="68">IF(OR(D31="",F31=""),0,IF(D31&gt;F31,D31,F31))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH31" s="12">
         <f t="shared" ref="AH31:AH35" si="69">IF(OR(D31="",F31=""),0,IF(D31&gt;F31,F31,D31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" s="12">
         <f t="shared" ref="AI31:AI35" si="70">IF(AND(AG31=3,AH31=0),1,0)</f>
@@ -10672,7 +10824,7 @@
       </c>
       <c r="AJ31" s="12">
         <f t="shared" ref="AJ31:AJ35" si="71">IF(AND(AG31=3,AH31=1),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK31" s="12">
         <f t="shared" ref="AK31:AK35" si="72">IF(AND(AG31=3,AH31=2),1,0)</f>
@@ -10680,27 +10832,27 @@
       </c>
       <c r="AL31" s="12">
         <f t="shared" ref="AL31:AL35" si="73">IF(D31&gt;F31,SUM(H31,K31,N31,Q31,T31,),SUM(J31,M31,P31,S31,V31))</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AM31" s="12">
         <f t="shared" ref="AM31:AM35" si="74">IF(D31&gt;F31,SUM(J31,M31,P31,S31,V31),SUM(H31,K31,N31,Q31,T31))</f>
-        <v>0</v>
-      </c>
-      <c r="AO31" s="12">
+        <v>84</v>
+      </c>
+      <c r="AO31" s="12" t="str">
         <f t="shared" ref="AO31:AO35" si="75">IF(OR(D31="",F31=""),0,IF(D31&lt;F31,C31,G31))</f>
-        <v>0</v>
+        <v> Slovenia</v>
       </c>
       <c r="AP31" s="12">
         <f t="shared" ref="AP31:AP35" si="76">IF(OR(D31="",F31=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ31" s="12">
         <f t="shared" ref="AQ31:AQ35" si="77">IF(OR(D31="",F31=""),0,IF(D31&lt;F31,D31,F31))</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR31" s="12">
         <f t="shared" ref="AR31:AR35" si="78">IF(OR(D31="",F31=""),0,IF(D31&lt;F31,F31,D31))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS31" s="12">
         <f t="shared" ref="AS31:AS35" si="79">IF(AND(AQ31=2,AR31=3),1,0)</f>
@@ -10708,7 +10860,7 @@
       </c>
       <c r="AT31" s="12">
         <f t="shared" ref="AT31:AT35" si="80">IF(AND(AQ31=1,AR31=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU31" s="12">
         <f t="shared" ref="AU31:AU35" si="81">IF(AND(AQ31=0,AR31=3),1,0)</f>
@@ -10716,30 +10868,30 @@
       </c>
       <c r="AV31" s="12">
         <f t="shared" ref="AV31:AV35" si="82">IF(D31&lt;F31,SUM(H31,K31,N31,Q31,T31,),SUM(J31,M31,P31,S31,V31))</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AW31" s="12">
         <f t="shared" ref="AW31:AW35" si="83">IF(D31&lt;F31,SUM(J31,M31,P31,S31,V31),SUM(H31,K31,N31,Q31,T31))</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="AX31" s="50">
         <v>1</v>
       </c>
       <c r="AY31" s="51" t="str">
-        <f>VLOOKUP($AX31,Dummy!$B$15:$S$16,2,FALSE)</f>
+        <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,2,FALSE)</f>
         <v> United States</v>
       </c>
       <c r="AZ31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,6,FALSE)</f>
@@ -10751,7 +10903,7 @@
       </c>
       <c r="BE31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,9,FALSE)</f>
@@ -10771,27 +10923,27 @@
       </c>
       <c r="BJ31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL31" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL31" s="52">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="BM31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="BN31" s="50">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO31" s="52" t="str">
+        <v>84</v>
+      </c>
+      <c r="BO31" s="52">
         <f>VLOOKUP($AX31,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1095.2380952380954</v>
       </c>
     </row>
     <row r="32" spans="2:67" x14ac:dyDescent="0.25">
@@ -10934,19 +11086,19 @@
       </c>
       <c r="AY32" s="51" t="str">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,2,FALSE)</f>
-        <v> Czech Republic</v>
+        <v> Argentina</v>
       </c>
       <c r="AZ32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,6,FALSE)</f>
@@ -10958,7 +11110,7 @@
       </c>
       <c r="BE32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,9,FALSE)</f>
@@ -10978,27 +11130,27 @@
       </c>
       <c r="BJ32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BK32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL32" s="52" t="str">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="52">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="BM32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="BN32" s="50">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO32" s="52" t="str">
+        <v>89</v>
+      </c>
+      <c r="BO32" s="52">
         <f>VLOOKUP($AX32,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>MAX</v>
+        <v>1056.1797752808989</v>
       </c>
     </row>
     <row r="33" spans="2:70" x14ac:dyDescent="0.25">
@@ -11141,7 +11293,7 @@
       </c>
       <c r="AY33" s="51" t="str">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,2,FALSE)</f>
-        <v> Argentina</v>
+        <v> Czech Republic</v>
       </c>
       <c r="AZ33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,3,FALSE)</f>
@@ -11149,7 +11301,7 @@
       </c>
       <c r="BA33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,5,FALSE)</f>
@@ -11157,7 +11309,7 @@
       </c>
       <c r="BC33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,7,FALSE)</f>
@@ -11177,7 +11329,7 @@
       </c>
       <c r="BH33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,12,FALSE)</f>
@@ -11185,27 +11337,27 @@
       </c>
       <c r="BJ33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL33" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL33" s="52">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BM33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="BN33" s="50">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO33" s="52" t="str">
+        <v>94</v>
+      </c>
+      <c r="BO33" s="52">
         <f>VLOOKUP($AX33,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>MAX</v>
+        <v>946.80851063829789</v>
       </c>
     </row>
     <row r="34" spans="2:70" x14ac:dyDescent="0.25">
@@ -11350,7 +11502,7 @@
       </c>
       <c r="BA34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,4,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,5,FALSE)</f>
@@ -11358,7 +11510,7 @@
       </c>
       <c r="BC34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,7,FALSE)</f>
@@ -11378,7 +11530,7 @@
       </c>
       <c r="BH34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,12,FALSE)</f>
@@ -11386,27 +11538,27 @@
       </c>
       <c r="BJ34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,13,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL34" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL34" s="52">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,15,FALSE)</f>
-        <v>MAX</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BM34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,16,FALSE)</f>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="BN34" s="50">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,17,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BO34" s="52" t="str">
+        <v>92</v>
+      </c>
+      <c r="BO34" s="52">
         <f>VLOOKUP($AX34,Dummy!$B$15:$S$18,18,FALSE)</f>
-        <v>MAX</v>
+        <v>913.04347826086951</v>
       </c>
     </row>
     <row r="35" spans="2:70" x14ac:dyDescent="0.25">
@@ -11540,124 +11692,124 @@
       </c>
       <c r="BA35" s="26">
         <f>SUM(BA31:BA34)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BA36" s="57"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="57"/>
-      <c r="BF36" s="57"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BQ36" s="64" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="76"/>
+      <c r="BF36" s="76"/>
+      <c r="BG36" s="76"/>
+      <c r="BH36" s="76"/>
+      <c r="BI36" s="76"/>
+      <c r="BJ36" s="76"/>
+      <c r="BK36" s="76"/>
+      <c r="BL36" s="76"/>
+      <c r="BM36" s="76"/>
+      <c r="BN36" s="76"/>
+      <c r="BO36" s="76"/>
+      <c r="BQ36" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="BR36" s="64"/>
+      <c r="BR36" s="62"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="72" t="s">
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="72" t="s">
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="72" t="s">
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73" t="s">
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11715,38 +11867,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="58" t="s">
+      <c r="AX37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="60"/>
-      <c r="BA37" s="58" t="s">
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="71"/>
+      <c r="BA37" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="60"/>
-      <c r="BD37" s="58" t="s">
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="60"/>
-      <c r="BJ37" s="58" t="s">
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="71"/>
+      <c r="BJ37" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="60"/>
-      <c r="BM37" s="58" t="s">
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="71"/>
+      <c r="BM37" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="60"/>
-      <c r="BQ37" s="65" t="s">
+      <c r="BN37" s="70"/>
+      <c r="BO37" s="71"/>
+      <c r="BQ37" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="66"/>
+      <c r="BR37" s="64"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11937,10 +12089,10 @@
       <c r="BO38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="BQ38" s="67" t="s">
+      <c r="BQ38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="68"/>
+      <c r="BR38" s="66"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -12148,10 +12300,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>MAX</v>
       </c>
-      <c r="BQ39" s="67" t="s">
+      <c r="BQ39" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="68"/>
+      <c r="BR39" s="66"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12359,10 +12511,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>MAX</v>
       </c>
-      <c r="BQ40" s="67" t="s">
+      <c r="BQ40" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="68"/>
+      <c r="BR40" s="66"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12570,10 +12722,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>MAX</v>
       </c>
-      <c r="BQ41" s="69" t="s">
+      <c r="BQ41" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="70"/>
+      <c r="BR41" s="68"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12911,116 +13063,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="57"/>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="57"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="57"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="57"/>
-      <c r="AT44" s="57"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="57"/>
-      <c r="AW44" s="57"/>
-      <c r="AX44" s="57"/>
-      <c r="AY44" s="57"/>
-      <c r="AZ44" s="57"/>
-      <c r="BA44" s="57"/>
-      <c r="BB44" s="57"/>
-      <c r="BC44" s="57"/>
-      <c r="BD44" s="57"/>
-      <c r="BE44" s="57"/>
-      <c r="BF44" s="57"/>
-      <c r="BG44" s="57"/>
-      <c r="BH44" s="57"/>
-      <c r="BI44" s="57"/>
-      <c r="BJ44" s="57"/>
-      <c r="BK44" s="57"/>
-      <c r="BL44" s="57"/>
-      <c r="BM44" s="57"/>
-      <c r="BN44" s="57"/>
-      <c r="BO44" s="57"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="76"/>
+      <c r="BH44" s="76"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="76"/>
+      <c r="BL44" s="76"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="76"/>
+      <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72" t="s">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="72" t="s">
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="72" t="s">
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="72" t="s">
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73" t="s">
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13078,34 +13230,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="58" t="s">
+      <c r="AX45" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY45" s="59"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="58" t="s">
+      <c r="AY45" s="70"/>
+      <c r="AZ45" s="71"/>
+      <c r="BA45" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB45" s="59"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="58" t="s">
+      <c r="BB45" s="70"/>
+      <c r="BC45" s="71"/>
+      <c r="BD45" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="58" t="s">
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="71"/>
+      <c r="BJ45" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="58" t="s">
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="71"/>
+      <c r="BM45" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="60"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="71"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14254,116 +14406,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="57"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="57"/>
-      <c r="AX52" s="57"/>
-      <c r="AY52" s="57"/>
-      <c r="AZ52" s="57"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="57"/>
-      <c r="BC52" s="57"/>
-      <c r="BD52" s="57"/>
-      <c r="BE52" s="57"/>
-      <c r="BF52" s="57"/>
-      <c r="BG52" s="57"/>
-      <c r="BH52" s="57"/>
-      <c r="BI52" s="57"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="57"/>
-      <c r="BL52" s="57"/>
-      <c r="BM52" s="57"/>
-      <c r="BN52" s="57"/>
-      <c r="BO52" s="57"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="76"/>
+      <c r="AJ52" s="76"/>
+      <c r="AK52" s="76"/>
+      <c r="AL52" s="76"/>
+      <c r="AM52" s="76"/>
+      <c r="AN52" s="76"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="76"/>
+      <c r="AQ52" s="76"/>
+      <c r="AR52" s="76"/>
+      <c r="AS52" s="76"/>
+      <c r="AT52" s="76"/>
+      <c r="AU52" s="76"/>
+      <c r="AV52" s="76"/>
+      <c r="AW52" s="76"/>
+      <c r="AX52" s="76"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="76"/>
+      <c r="BB52" s="76"/>
+      <c r="BC52" s="76"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
+      <c r="BL52" s="76"/>
+      <c r="BM52" s="76"/>
+      <c r="BN52" s="76"/>
+      <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="72" t="s">
+      <c r="H53" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="72" t="s">
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="72" t="s">
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="72" t="s">
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="72" t="s">
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73" t="s">
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14421,34 +14573,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="58" t="s">
+      <c r="AX53" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="58" t="s">
+      <c r="AY53" s="70"/>
+      <c r="AZ53" s="71"/>
+      <c r="BA53" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="58" t="s">
+      <c r="BB53" s="70"/>
+      <c r="BC53" s="71"/>
+      <c r="BD53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="58" t="s">
+      <c r="BE53" s="70"/>
+      <c r="BF53" s="70"/>
+      <c r="BG53" s="70"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="58" t="s">
+      <c r="BK53" s="70"/>
+      <c r="BL53" s="71"/>
+      <c r="BM53" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="60"/>
+      <c r="BN53" s="70"/>
+      <c r="BO53" s="71"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15597,116 +15749,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="57"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="57"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="57"/>
-      <c r="BB60" s="57"/>
-      <c r="BC60" s="57"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="76"/>
+      <c r="AL60" s="76"/>
+      <c r="AM60" s="76"/>
+      <c r="AN60" s="76"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="76"/>
+      <c r="AQ60" s="76"/>
+      <c r="AR60" s="76"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="76"/>
+      <c r="AU60" s="76"/>
+      <c r="AV60" s="76"/>
+      <c r="AW60" s="76"/>
+      <c r="AX60" s="76"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="76"/>
+      <c r="BA60" s="76"/>
+      <c r="BB60" s="76"/>
+      <c r="BC60" s="76"/>
+      <c r="BD60" s="76"/>
+      <c r="BE60" s="76"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="76"/>
+      <c r="BK60" s="76"/>
+      <c r="BL60" s="76"/>
+      <c r="BM60" s="76"/>
+      <c r="BN60" s="76"/>
+      <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="72" t="s">
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="72" t="s">
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="72" t="s">
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="72" t="s">
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73" t="s">
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15764,34 +15916,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="58" t="s">
+      <c r="AX61" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY61" s="59"/>
-      <c r="AZ61" s="60"/>
-      <c r="BA61" s="58" t="s">
+      <c r="AY61" s="70"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB61" s="59"/>
-      <c r="BC61" s="60"/>
-      <c r="BD61" s="58" t="s">
+      <c r="BB61" s="70"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE61" s="59"/>
-      <c r="BF61" s="59"/>
-      <c r="BG61" s="59"/>
-      <c r="BH61" s="59"/>
-      <c r="BI61" s="60"/>
-      <c r="BJ61" s="58" t="s">
+      <c r="BE61" s="70"/>
+      <c r="BF61" s="70"/>
+      <c r="BG61" s="70"/>
+      <c r="BH61" s="70"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="59"/>
-      <c r="BL61" s="60"/>
-      <c r="BM61" s="58" t="s">
+      <c r="BK61" s="70"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN61" s="59"/>
-      <c r="BO61" s="60"/>
+      <c r="BN61" s="70"/>
+      <c r="BO61" s="71"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -16942,93 +17094,6 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17053,6 +17118,93 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="183" priority="448">
@@ -18322,55 +18474,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -18424,42 +18576,42 @@
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -19652,52 +19804,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="64" t="s">
+      <c r="AU15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AV15" s="64"/>
+      <c r="AV15" s="62"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75" t="s">
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74" t="s">
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19755,10 +19907,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="65" t="s">
+      <c r="AU16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="66"/>
+      <c r="AV16" s="64"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19889,10 +20041,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="67" t="s">
+      <c r="AU17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="68"/>
+      <c r="AV17" s="66"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -20023,10 +20175,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="67" t="s">
+      <c r="AU18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="68"/>
+      <c r="AV18" s="66"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -20157,10 +20309,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="67" t="s">
+      <c r="AU19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="68"/>
+      <c r="AV19" s="66"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -20291,10 +20443,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="69" t="s">
+      <c r="AU20" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="70"/>
+      <c r="AV20" s="68"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20330,42 +20482,42 @@
         <v>86</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75" t="s">
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75" t="s">
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75" t="s">
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74" t="s">
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -20737,42 +20889,42 @@
         <v>86</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="75" t="s">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75" t="s">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74" t="s">
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -21034,42 +21186,42 @@
         <v>86</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75" t="s">
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75" t="s">
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75" t="s">
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74" t="s">
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -21387,6 +21539,38 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="48">
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B33:Y33"/>
+    <mergeCell ref="AU15:AV15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AU16:AV16"/>
+    <mergeCell ref="AU17:AV17"/>
     <mergeCell ref="B2:AV2"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="W16:Y16"/>
@@ -21403,38 +21587,6 @@
     <mergeCell ref="AU18:AV18"/>
     <mergeCell ref="AU19:AV19"/>
     <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="B33:Y33"/>
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AU16:AV16"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 B4:XFD4 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -21609,23 +21761,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21858,32 +21993,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21900,4 +22027,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2025 FIVB Women's Volleyball World Championship.xlsx
+++ b/2025 FIVB Women's Volleyball World Championship.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2DF0E038-0D2F-44D9-9771-257F0B813114}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CA0183-BB33-4970-AA14-02B60B0F886D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="1" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
   </bookViews>
   <sheets>
     <sheet name="Dummy" sheetId="2" state="hidden" r:id="rId1"/>
@@ -863,22 +863,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,28 +912,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -942,6 +942,298 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="96">
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.24994659260841701"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1534,298 +1826,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0" tint="-0.24994659260841701"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -2285,7 +2285,7 @@
   <dimension ref="A1:X34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="Q28" sqref="Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3908,15 +3908,15 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C19)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G19" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C19)</f>
@@ -3924,7 +3924,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C19,Preliminary!AI:AI)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I19" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C19,Preliminary!AJ:AJ)</f>
@@ -3948,7 +3948,7 @@
       </c>
       <c r="N19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AR:AR)</f>
@@ -3960,15 +3960,15 @@
       </c>
       <c r="Q19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AV:AV)</f>
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="R19" s="1">
         <f>SUMIF(Preliminary!AE:AE,C19,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C19,Preliminary!AW:AW)</f>
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="S19" s="4">
         <f t="shared" si="0"/>
-        <v>1293.1034482758621</v>
+        <v>1297.1428571428571</v>
       </c>
       <c r="T19" s="1">
         <f>SUMPRODUCT(($F$19:$F$22=F19)*($D$19:$D$22&gt;D19))</f>
@@ -4005,7 +4005,7 @@
       </c>
       <c r="E20" s="1">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C20)</f>
@@ -4013,7 +4013,7 @@
       </c>
       <c r="G20" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C20)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C20,Preliminary!AI:AI)</f>
@@ -4037,7 +4037,7 @@
       </c>
       <c r="M20" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C20,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AQ:AQ)</f>
@@ -4045,27 +4045,27 @@
       </c>
       <c r="O20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AR:AR)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4">
         <f t="shared" si="3"/>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="Q20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AV:AV)</f>
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="R20" s="1">
         <f>SUMIF(Preliminary!AE:AE,C20,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C20,Preliminary!AW:AW)</f>
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="S20" s="4">
         <f t="shared" si="0"/>
-        <v>1133.6898395721926</v>
+        <v>1026.5151515151515</v>
       </c>
       <c r="T20" s="1">
         <f t="shared" ref="T20:T22" si="21">SUMPRODUCT(($F$19:$F$22=F20)*($D$19:$D$22&gt;D20))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
         <f t="shared" ref="U20:U22" si="22">SUMPRODUCT(($F$19:$F$22=F20)*($D$19:$D$22=D20)*($P$19:$P$22&gt;P20))</f>
@@ -4098,7 +4098,7 @@
       </c>
       <c r="E21" s="1">
         <f t="shared" ref="E21:E34" si="25">F21+G21</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C21)</f>
@@ -4106,7 +4106,7 @@
       </c>
       <c r="G21" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C21)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H21" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C21,Preliminary!AI:AI)</f>
@@ -4126,7 +4126,7 @@
       </c>
       <c r="L21" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C21,Preliminary!AT:AT)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M21" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C21,Preliminary!AU:AU)</f>
@@ -4134,31 +4134,31 @@
       </c>
       <c r="N21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P21" s="4">
         <f t="shared" ref="P21:P34" si="26">IFERROR((N21/O21)*1000,"MAX")</f>
-        <v>166.66666666666666</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="Q21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AV:AV)</f>
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="R21" s="1">
         <f>SUMIF(Preliminary!AE:AE,C21,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C21,Preliminary!AW:AW)</f>
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="S21" s="4">
         <f t="shared" ref="S21:S34" si="27">IFERROR((Q21/R21)*1000,"MAX")</f>
-        <v>803.4682080924855</v>
+        <v>807.4074074074075</v>
       </c>
       <c r="T21" s="1">
         <f t="shared" si="21"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <f t="shared" si="22"/>
@@ -4187,15 +4187,15 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C22)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G22" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C22)</f>
@@ -4207,7 +4207,7 @@
       </c>
       <c r="I22" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C22,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C22,Preliminary!AK:AK)</f>
@@ -4227,27 +4227,27 @@
       </c>
       <c r="N22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AQ:AQ)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P22" s="4">
         <f t="shared" si="26"/>
-        <v>333.33333333333331</v>
+        <v>714.28571428571433</v>
       </c>
       <c r="Q22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AV:AV)</f>
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="R22" s="1">
         <f>SUMIF(Preliminary!AE:AE,C22,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C22,Preliminary!AW:AW)</f>
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="S22" s="4">
         <f t="shared" si="27"/>
-        <v>867.72486772486764</v>
+        <v>973.88059701492534</v>
       </c>
       <c r="T22" s="1">
         <f t="shared" si="21"/>
@@ -4275,22 +4275,22 @@
       </c>
       <c r="B23" s="1">
         <f>RANK(F23,$F$23:$F$26)+SUM(T23:W23)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" t="s">
         <v>56</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E23" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C23)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C23)</f>
@@ -4298,7 +4298,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C23,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C23,Preliminary!AJ:AJ)</f>
@@ -4322,7 +4322,7 @@
       </c>
       <c r="N23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AR:AR)</f>
@@ -4330,19 +4330,19 @@
       </c>
       <c r="P23" s="4">
         <f t="shared" si="26"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="Q23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AV:AV)</f>
-        <v>196</v>
+        <v>271</v>
       </c>
       <c r="R23" s="1">
         <f>SUMIF(Preliminary!AE:AE,C23,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C23,Preliminary!AW:AW)</f>
-        <v>148</v>
+        <v>201</v>
       </c>
       <c r="S23" s="4">
         <f t="shared" si="27"/>
-        <v>1324.3243243243244</v>
+        <v>1348.2587064676616</v>
       </c>
       <c r="T23" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F23)*($D$23:$D$26&gt;D23))</f>
@@ -4350,7 +4350,7 @@
       </c>
       <c r="U23" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F23)*($D$23:$D$26=D23)*($P$23:$P$26&gt;P23))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F23)*($D$23:$D$26=D23)*($P$23:$P$26=P23)*($S$23:$S$26&gt;S23))</f>
@@ -4368,7 +4368,7 @@
       <c r="A24" s="55"/>
       <c r="B24" s="1">
         <f t="shared" ref="B24:B26" si="28">RANK(F24,$F$23:$F$26)+SUM(T24:W24)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
         <v>53</v>
@@ -4379,7 +4379,7 @@
       </c>
       <c r="E24" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C24)</f>
@@ -4387,7 +4387,7 @@
       </c>
       <c r="G24" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C24)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C24,Preliminary!AI:AI)</f>
@@ -4411,7 +4411,7 @@
       </c>
       <c r="M24" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C24,Preliminary!AU:AU)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AQ:AQ)</f>
@@ -4419,23 +4419,23 @@
       </c>
       <c r="O24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P24" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P24" s="4">
         <f t="shared" si="26"/>
-        <v>MAX</v>
+        <v>2000</v>
       </c>
       <c r="Q24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AV:AV)</f>
-        <v>150</v>
+        <v>203</v>
       </c>
       <c r="R24" s="1">
         <f>SUMIF(Preliminary!AE:AE,C24,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C24,Preliminary!AW:AW)</f>
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="S24" s="4">
         <f t="shared" si="27"/>
-        <v>1530.612244897959</v>
+        <v>1173.4104046242776</v>
       </c>
       <c r="T24" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F24)*($D$23:$D$26&gt;D24))</f>
@@ -4468,11 +4468,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C25)</f>
@@ -4480,7 +4480,7 @@
       </c>
       <c r="G25" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C25)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H25" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C25,Preliminary!AI:AI)</f>
@@ -4496,7 +4496,7 @@
       </c>
       <c r="K25" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C25,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C25,Preliminary!AT:AT)</f>
@@ -4508,27 +4508,27 @@
       </c>
       <c r="N25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P25" s="4">
         <f t="shared" si="26"/>
-        <v>166.66666666666666</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="Q25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AV:AV)</f>
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="R25" s="1">
         <f>SUMIF(Preliminary!AE:AE,C25,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C25,Preliminary!AW:AW)</f>
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="S25" s="4">
         <f t="shared" si="27"/>
-        <v>676.30057803468208</v>
+        <v>805.75539568345323</v>
       </c>
       <c r="T25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26&gt;D25))</f>
@@ -4540,7 +4540,7 @@
       </c>
       <c r="V25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26=D25)*($P$23:$P$26=P25)*($S$23:$S$26&gt;S25))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F25)*($D$23:$D$26=D25)*($P$23:$P$26=P25)*($S$23:$S$26=S25)*($X$23:$X$26&lt;X25))</f>
@@ -4561,15 +4561,15 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C26)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C26)</f>
@@ -4585,7 +4585,7 @@
       </c>
       <c r="J26" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C26,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C26,Preliminary!AS:AS)</f>
@@ -4601,27 +4601,27 @@
       </c>
       <c r="N26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4">
         <f t="shared" si="26"/>
-        <v>166.66666666666666</v>
+        <v>500</v>
       </c>
       <c r="Q26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AV:AV)</f>
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="R26" s="1">
         <f>SUMIF(Preliminary!AE:AE,C26,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C26,Preliminary!AW:AW)</f>
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="S26" s="4">
         <f t="shared" si="27"/>
-        <v>745.66473988439304</v>
+        <v>835.71428571428578</v>
       </c>
       <c r="T26" s="1">
         <f>SUMPRODUCT(($F$23:$F$26=F26)*($D$23:$D$26&gt;D26))</f>
@@ -4649,22 +4649,22 @@
       </c>
       <c r="B27" s="1">
         <f>RANK(F27,$F$27:$F$30)+SUM(T27:W27)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27" t="s">
         <v>58</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C27)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C27)</f>
@@ -4680,7 +4680,7 @@
       </c>
       <c r="J27" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C27,Preliminary!AK:AK)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C27,Preliminary!AS:AS)</f>
@@ -4696,27 +4696,27 @@
       </c>
       <c r="N27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AR:AR)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P27" s="4">
         <f t="shared" si="26"/>
-        <v>3000</v>
+        <v>2250</v>
       </c>
       <c r="Q27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AV:AV)</f>
-        <v>188</v>
+        <v>300</v>
       </c>
       <c r="R27" s="1">
         <f>SUMIF(Preliminary!AE:AE,C27,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C27,Preliminary!AW:AW)</f>
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="S27" s="4">
         <f t="shared" si="27"/>
-        <v>1342.8571428571427</v>
+        <v>1209.6774193548388</v>
       </c>
       <c r="T27" s="1">
         <f>SUMPRODUCT(($F$27:$F$30=F27)*($D$27:$D$30&gt;D27))</f>
@@ -4724,7 +4724,7 @@
       </c>
       <c r="U27" s="1">
         <f>SUMPRODUCT(($F$27:$F$30=F27)*($D$27:$D$30=D27)*($P$27:$P$30&gt;P27))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V27" s="1">
         <f>SUMPRODUCT(($F$27:$F$30=F27)*($D$27:$D$30=D27)*($P$27:$P$30=P27)*($S$27:$S$30&gt;S27))</f>
@@ -4742,18 +4742,18 @@
       <c r="A28" s="55"/>
       <c r="B28" s="1">
         <f t="shared" ref="B28:B30" si="29">RANK(F28,$F$27:$F$30)+SUM(T28:W28)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28" t="s">
         <v>83</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="24"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F28" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C28)</f>
@@ -4761,7 +4761,7 @@
       </c>
       <c r="G28" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C28)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C28,Preliminary!AI:AI)</f>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="K28" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C28,Preliminary!AS:AS)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C28,Preliminary!AT:AT)</f>
@@ -4789,27 +4789,27 @@
       </c>
       <c r="N28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="O28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P28" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P28" s="4">
         <f t="shared" si="26"/>
-        <v>MAX</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="Q28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AV:AV)</f>
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="R28" s="1">
         <f>SUMIF(Preliminary!AE:AE,C28,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C28,Preliminary!AW:AW)</f>
-        <v>106</v>
+        <v>218</v>
       </c>
       <c r="S28" s="4">
         <f t="shared" si="27"/>
-        <v>1415.0943396226414</v>
+        <v>1183.4862385321101</v>
       </c>
       <c r="T28" s="1">
         <f t="shared" ref="T28:T30" si="30">SUMPRODUCT(($F$27:$F$30=F28)*($D$27:$D$30&gt;D28))</f>
@@ -4842,15 +4842,15 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C29)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C29)</f>
@@ -4858,7 +4858,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C29,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C29,Preliminary!AJ:AJ)</f>
@@ -4882,7 +4882,7 @@
       </c>
       <c r="N29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AQ:AQ)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AR:AR)</f>
@@ -4890,19 +4890,19 @@
       </c>
       <c r="P29" s="4">
         <f t="shared" si="26"/>
-        <v>166.66666666666666</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="Q29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AV:AV)</f>
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="R29" s="1">
         <f>SUMIF(Preliminary!AE:AE,C29,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C29,Preliminary!AW:AW)</f>
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="S29" s="4">
         <f t="shared" si="27"/>
-        <v>733.33333333333326</v>
+        <v>859.64912280701753</v>
       </c>
       <c r="T29" s="1">
         <f t="shared" si="30"/>
@@ -4939,7 +4939,7 @@
       </c>
       <c r="E30" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F30" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C30)</f>
@@ -4947,7 +4947,7 @@
       </c>
       <c r="G30" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C30)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H30" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C30,Preliminary!AI:AI)</f>
@@ -4971,7 +4971,7 @@
       </c>
       <c r="M30" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C30,Preliminary!AU:AU)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AQ:AQ)</f>
@@ -4979,23 +4979,23 @@
       </c>
       <c r="O30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P30" s="4">
         <f t="shared" si="26"/>
-        <v>166.66666666666666</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="Q30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AV:AV)</f>
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="R30" s="1">
         <f>SUMIF(Preliminary!AE:AE,C30,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C30,Preliminary!AW:AW)</f>
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="S30" s="4">
         <f t="shared" si="27"/>
-        <v>722.54335260115613</v>
+        <v>758.0645161290322</v>
       </c>
       <c r="T30" s="1">
         <f t="shared" si="30"/>
@@ -5007,7 +5007,7 @@
       </c>
       <c r="V30" s="1">
         <f t="shared" si="32"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="1">
         <f t="shared" si="33"/>
@@ -5023,22 +5023,22 @@
       </c>
       <c r="B31" s="1">
         <f>RANK(F31,$F$31:$F$34)+SUM(T31:W31)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s">
         <v>57</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" si="24"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C31)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C31)</f>
@@ -5050,7 +5050,7 @@
       </c>
       <c r="I31" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C31,Preliminary!AJ:AJ)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C31,Preliminary!AK:AK)</f>
@@ -5070,11 +5070,11 @@
       </c>
       <c r="N31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="O31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AR:AR)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P31" s="4">
         <f t="shared" si="26"/>
@@ -5082,19 +5082,19 @@
       </c>
       <c r="Q31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AV:AV)</f>
-        <v>186</v>
+        <v>289</v>
       </c>
       <c r="R31" s="1">
         <f>SUMIF(Preliminary!AE:AE,C31,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C31,Preliminary!AW:AW)</f>
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="S31" s="4">
         <f t="shared" si="27"/>
-        <v>1134.1463414634145</v>
+        <v>1120.1550387596899</v>
       </c>
       <c r="T31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34&gt;D31))</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U31" s="1">
         <f>SUMPRODUCT(($F$31:$F$34=F31)*($D$31:$D$34=D31)*($P$31:$P$34&gt;P31))</f>
@@ -5116,7 +5116,7 @@
       <c r="A32" s="55"/>
       <c r="B32" s="1">
         <f t="shared" ref="B32:B34" si="34">RANK(F32,$F$31:$F$34)+SUM(T32:W32)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32" t="s">
         <v>84</v>
@@ -5127,7 +5127,7 @@
       </c>
       <c r="E32" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C32)</f>
@@ -5135,7 +5135,7 @@
       </c>
       <c r="G32" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C32)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C32,Preliminary!AI:AI)</f>
@@ -5155,7 +5155,7 @@
       </c>
       <c r="L32" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C32,Preliminary!AT:AT)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C32,Preliminary!AU:AU)</f>
@@ -5163,27 +5163,27 @@
       </c>
       <c r="N32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AQ:AQ)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AR:AR)</f>
-        <v>0</v>
-      </c>
-      <c r="P32" s="4" t="str">
+        <v>3</v>
+      </c>
+      <c r="P32" s="4">
         <f t="shared" si="26"/>
-        <v>MAX</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="Q32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AV:AV)</f>
-        <v>150</v>
+        <v>244</v>
       </c>
       <c r="R32" s="1">
         <f>SUMIF(Preliminary!AE:AE,C32,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C32,Preliminary!AW:AW)</f>
-        <v>101</v>
+        <v>204</v>
       </c>
       <c r="S32" s="4">
         <f t="shared" si="27"/>
-        <v>1485.1485148514851</v>
+        <v>1196.0784313725489</v>
       </c>
       <c r="T32" s="1">
         <f t="shared" ref="T32:T34" si="35">SUMPRODUCT(($F$31:$F$34=F32)*($D$31:$D$34&gt;D32))</f>
@@ -5216,15 +5216,15 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="24"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C33)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C33)</f>
@@ -5232,7 +5232,7 @@
       </c>
       <c r="H33" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C33,Preliminary!AI:AI)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C33,Preliminary!AJ:AJ)</f>
@@ -5256,7 +5256,7 @@
       </c>
       <c r="N33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AQ:AQ)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="O33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AR:AR)</f>
@@ -5264,19 +5264,19 @@
       </c>
       <c r="P33" s="4">
         <f t="shared" si="26"/>
-        <v>333.33333333333331</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="Q33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AV:AV)</f>
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="R33" s="1">
         <f>SUMIF(Preliminary!AE:AE,C33,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C33,Preliminary!AW:AW)</f>
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="S33" s="4">
         <f t="shared" si="27"/>
-        <v>881.72043010752691</v>
+        <v>979.50819672131149</v>
       </c>
       <c r="T33" s="1">
         <f t="shared" si="35"/>
@@ -5313,7 +5313,7 @@
       </c>
       <c r="E34" s="1">
         <f t="shared" si="25"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" s="1">
         <f>COUNTIF(Preliminary!AE:AE,Dummy!C34)</f>
@@ -5321,7 +5321,7 @@
       </c>
       <c r="G34" s="1">
         <f>COUNTIF(Preliminary!AO:AO,Dummy!C34)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" s="1">
         <f>SUMIF(Preliminary!$AE:$AE,Dummy!$C34,Preliminary!AI:AI)</f>
@@ -5345,7 +5345,7 @@
       </c>
       <c r="M34" s="1">
         <f>SUMIF(Preliminary!$AO:$AO,Dummy!$C34,Preliminary!AU:AU)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AG:AG)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AQ:AQ)</f>
@@ -5353,7 +5353,7 @@
       </c>
       <c r="O34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AH:AH)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AR:AR)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="P34" s="4">
         <f t="shared" si="26"/>
@@ -5361,19 +5361,19 @@
       </c>
       <c r="Q34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AL:AL)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AV:AV)</f>
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="R34" s="1">
         <f>SUMIF(Preliminary!AE:AE,C34,Preliminary!AM:AM)+SUMIF(Preliminary!AO:AO,C34,Preliminary!AW:AW)</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="S34" s="4">
         <f t="shared" si="27"/>
-        <v>673.33333333333337</v>
+        <v>706.66666666666663</v>
       </c>
       <c r="T34" s="1">
         <f t="shared" si="35"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="1">
         <f t="shared" si="36"/>
@@ -5393,6 +5393,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5401,11 +5406,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5415,8 +5415,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{842A5577-D33C-4D22-A376-2229D9D229A5}">
   <dimension ref="B2:BR67"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -5449,16 +5449,16 @@
     <col min="26" max="26" width="3.7109375" style="12" customWidth="1"/>
     <col min="27" max="27" width="2.140625" style="12" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="19.85546875" style="12" hidden="1" customWidth="1"/>
-    <col min="29" max="29" width="2.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="5.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="6.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="6.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="19.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="32" max="32" width="2.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="33" max="33" width="5.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="5.42578125" style="12" hidden="1" customWidth="1"/>
     <col min="35" max="37" width="4.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="38" max="39" width="4.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="40" max="40" width="4.5703125" style="12" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="6.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="40" max="40" width="9" style="12" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="19.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="42" max="42" width="2.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="43" max="43" width="5.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="44" max="44" width="5.42578125" style="12" hidden="1" customWidth="1"/>
@@ -5478,74 +5478,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5568,116 +5568,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5735,34 +5735,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="72" t="s">
+      <c r="AX5" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="72" t="s">
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="72" t="s">
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="72" t="s">
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="72" t="s">
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="74"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="63"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7031,116 +7031,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="76"/>
-      <c r="BI12" s="76"/>
-      <c r="BJ12" s="76"/>
-      <c r="BK12" s="76"/>
-      <c r="BL12" s="76"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="76"/>
-      <c r="BO12" s="76"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BK12" s="57"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="57"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="57"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="61" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="61" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="61" t="s">
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="61" t="s">
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7198,34 +7198,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="69" t="s">
+      <c r="AX13" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="69" t="s">
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="69" t="s">
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="70"/>
-      <c r="BG13" s="70"/>
-      <c r="BH13" s="70"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="69" t="s">
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="60"/>
+      <c r="BJ13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="69" t="s">
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN13" s="70"/>
-      <c r="BO13" s="71"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8478,116 +8478,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="76"/>
-      <c r="BK20" s="76"/>
-      <c r="BL20" s="76"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
-      <c r="BO20" s="76"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+      <c r="AZ20" s="57"/>
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BK20" s="57"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="57"/>
+      <c r="BO20" s="57"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="61" t="s">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="61" t="s">
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="61" t="s">
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="61" t="s">
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8645,34 +8645,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="69" t="s">
+      <c r="AX21" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="69" t="s">
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="69" t="s">
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="70"/>
-      <c r="BG21" s="70"/>
-      <c r="BH21" s="70"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="69" t="s">
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="70"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="69" t="s">
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="60"/>
+      <c r="BM21" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN21" s="70"/>
-      <c r="BO21" s="71"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="60"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9937,116 +9937,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61" t="s">
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61" t="s">
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="61" t="s">
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="61" t="s">
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10104,34 +10104,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="69" t="s">
+      <c r="AX29" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="69" t="s">
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="60"/>
+      <c r="BA29" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="69" t="s">
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="60"/>
+      <c r="BD29" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="69" t="s">
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="60"/>
+      <c r="BJ29" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="69" t="s">
+      <c r="BK29" s="59"/>
+      <c r="BL29" s="60"/>
+      <c r="BM29" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="71"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="60"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11396,120 +11396,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="76"/>
-      <c r="AM36" s="76"/>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="76"/>
-      <c r="AQ36" s="76"/>
-      <c r="AR36" s="76"/>
-      <c r="AS36" s="76"/>
-      <c r="AT36" s="76"/>
-      <c r="AU36" s="76"/>
-      <c r="AV36" s="76"/>
-      <c r="AW36" s="76"/>
-      <c r="AX36" s="76"/>
-      <c r="AY36" s="76"/>
-      <c r="AZ36" s="76"/>
-      <c r="BA36" s="76"/>
-      <c r="BB36" s="76"/>
-      <c r="BC36" s="76"/>
-      <c r="BD36" s="76"/>
-      <c r="BE36" s="76"/>
-      <c r="BF36" s="76"/>
-      <c r="BG36" s="76"/>
-      <c r="BH36" s="76"/>
-      <c r="BI36" s="76"/>
-      <c r="BJ36" s="76"/>
-      <c r="BK36" s="76"/>
-      <c r="BL36" s="76"/>
-      <c r="BM36" s="76"/>
-      <c r="BN36" s="76"/>
-      <c r="BO36" s="76"/>
-      <c r="BQ36" s="62" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="57"/>
+      <c r="AX36" s="57"/>
+      <c r="AY36" s="57"/>
+      <c r="AZ36" s="57"/>
+      <c r="BA36" s="57"/>
+      <c r="BB36" s="57"/>
+      <c r="BC36" s="57"/>
+      <c r="BD36" s="57"/>
+      <c r="BE36" s="57"/>
+      <c r="BF36" s="57"/>
+      <c r="BG36" s="57"/>
+      <c r="BH36" s="57"/>
+      <c r="BI36" s="57"/>
+      <c r="BJ36" s="57"/>
+      <c r="BK36" s="57"/>
+      <c r="BL36" s="57"/>
+      <c r="BM36" s="57"/>
+      <c r="BN36" s="57"/>
+      <c r="BO36" s="57"/>
+      <c r="BQ36" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="BR36" s="62"/>
+      <c r="BR36" s="64"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="61" t="s">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="61" t="s">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="61" t="s">
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="61" t="s">
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11567,38 +11567,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="69" t="s">
+      <c r="AX37" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="69" t="s">
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB37" s="70"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="69" t="s">
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE37" s="70"/>
-      <c r="BF37" s="70"/>
-      <c r="BG37" s="70"/>
-      <c r="BH37" s="70"/>
-      <c r="BI37" s="71"/>
-      <c r="BJ37" s="69" t="s">
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="59"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="60"/>
+      <c r="BJ37" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="70"/>
-      <c r="BL37" s="71"/>
-      <c r="BM37" s="69" t="s">
+      <c r="BK37" s="59"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN37" s="70"/>
-      <c r="BO37" s="71"/>
-      <c r="BQ37" s="63" t="s">
+      <c r="BN37" s="59"/>
+      <c r="BO37" s="60"/>
+      <c r="BQ37" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="64"/>
+      <c r="BR37" s="66"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11809,10 +11809,10 @@
       <c r="BO38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="BQ38" s="65" t="s">
+      <c r="BQ38" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="66"/>
+      <c r="BR38" s="68"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -11974,15 +11974,15 @@
       </c>
       <c r="AZ39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,3,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,6,FALSE)</f>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="BD39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,7,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BE39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,8,FALSE)</f>
@@ -12014,7 +12014,7 @@
       </c>
       <c r="BJ39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,14,FALSE)</f>
@@ -12026,20 +12026,20 @@
       </c>
       <c r="BM39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>150</v>
+        <v>227</v>
       </c>
       <c r="BN39" s="50">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>116</v>
+        <v>175</v>
       </c>
       <c r="BO39" s="52">
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>1293.1034482758621</v>
-      </c>
-      <c r="BQ39" s="65" t="s">
+        <v>1297.1428571428571</v>
+      </c>
+      <c r="BQ39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="66"/>
+      <c r="BR39" s="68"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12213,7 +12213,7 @@
       </c>
       <c r="BA40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,5,FALSE)</f>
@@ -12221,7 +12221,7 @@
       </c>
       <c r="BC40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,7,FALSE)</f>
@@ -12245,7 +12245,7 @@
       </c>
       <c r="BI40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,13,FALSE)</f>
@@ -12253,28 +12253,28 @@
       </c>
       <c r="BK40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,14,FALSE)</f>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BL40" s="52">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,15,FALSE)</f>
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="BM40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>212</v>
+        <v>271</v>
       </c>
       <c r="BN40" s="50">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>187</v>
+        <v>264</v>
       </c>
       <c r="BO40" s="52">
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>1133.6898395721926</v>
-      </c>
-      <c r="BQ40" s="65" t="s">
+        <v>1026.5151515151515</v>
+      </c>
+      <c r="BQ40" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="66"/>
+      <c r="BR40" s="68"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12436,15 +12436,15 @@
       </c>
       <c r="AZ41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,3,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,6,FALSE)</f>
@@ -12456,7 +12456,7 @@
       </c>
       <c r="BE41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,9,FALSE)</f>
@@ -12476,32 +12476,32 @@
       </c>
       <c r="BJ41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,13,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BK41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,14,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL41" s="52">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>714.28571428571433</v>
       </c>
       <c r="BM41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>164</v>
+        <v>261</v>
       </c>
       <c r="BN41" s="50">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="BO41" s="52">
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>867.72486772486764</v>
-      </c>
-      <c r="BQ41" s="67" t="s">
+        <v>973.88059701492534</v>
+      </c>
+      <c r="BQ41" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="68"/>
+      <c r="BR41" s="70"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12511,35 +12511,55 @@
         <f>AB40</f>
         <v> Bulgaria</v>
       </c>
-      <c r="D42" s="48"/>
+      <c r="D42" s="48">
+        <v>1</v>
+      </c>
       <c r="E42" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F42" s="47"/>
+      <c r="F42" s="47">
+        <v>3</v>
+      </c>
       <c r="G42" s="25" t="str">
         <f>AB41</f>
         <v> Spain</v>
       </c>
-      <c r="H42" s="28"/>
+      <c r="H42" s="28">
+        <v>22</v>
+      </c>
       <c r="I42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J42" s="30"/>
-      <c r="K42" s="28"/>
+      <c r="J42" s="30">
+        <v>25</v>
+      </c>
+      <c r="K42" s="28">
+        <v>14</v>
+      </c>
       <c r="L42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="30"/>
-      <c r="N42" s="28"/>
+      <c r="M42" s="30">
+        <v>25</v>
+      </c>
+      <c r="N42" s="28">
+        <v>25</v>
+      </c>
       <c r="O42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="28"/>
+      <c r="P42" s="30">
+        <v>22</v>
+      </c>
+      <c r="Q42" s="28">
+        <v>18</v>
+      </c>
       <c r="R42" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S42" s="30"/>
+      <c r="S42" s="30">
+        <v>25</v>
+      </c>
       <c r="T42" s="28"/>
       <c r="U42" s="29" t="s">
         <v>0</v>
@@ -12547,34 +12567,34 @@
       <c r="V42" s="30"/>
       <c r="W42" s="31">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="X42" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y42" s="32">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AD42" s="12">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE42" s="12" t="str">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v> Spain</v>
       </c>
       <c r="AF42" s="12">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG42" s="12">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH42" s="12">
         <f t="shared" si="88"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI42" s="12">
         <f t="shared" si="89"/>
@@ -12582,7 +12602,7 @@
       </c>
       <c r="AJ42" s="12">
         <f t="shared" si="90"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK42" s="12">
         <f t="shared" si="91"/>
@@ -12590,27 +12610,27 @@
       </c>
       <c r="AL42" s="12">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AM42" s="12">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AO42" s="12">
+        <v>79</v>
+      </c>
+      <c r="AO42" s="12" t="str">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v> Bulgaria</v>
       </c>
       <c r="AP42" s="12">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ42" s="12">
         <f t="shared" si="96"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR42" s="12">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS42" s="12">
         <f t="shared" si="98"/>
@@ -12618,7 +12638,7 @@
       </c>
       <c r="AT42" s="12">
         <f t="shared" si="99"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU42" s="12">
         <f t="shared" si="100"/>
@@ -12626,11 +12646,11 @@
       </c>
       <c r="AV42" s="12">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="AW42" s="12">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AX42" s="50">
         <v>4</v>
@@ -12645,7 +12665,7 @@
       </c>
       <c r="BA42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,5,FALSE)</f>
@@ -12653,7 +12673,7 @@
       </c>
       <c r="BC42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,7,FALSE)</f>
@@ -12673,7 +12693,7 @@
       </c>
       <c r="BH42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,11,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BI42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,12,FALSE)</f>
@@ -12681,27 +12701,27 @@
       </c>
       <c r="BJ42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,13,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL42" s="52">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>222.2222222222222</v>
       </c>
       <c r="BM42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,16,FALSE)</f>
-        <v>139</v>
+        <v>218</v>
       </c>
       <c r="BN42" s="50">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,17,FALSE)</f>
-        <v>173</v>
+        <v>270</v>
       </c>
       <c r="BO42" s="52">
         <f>VLOOKUP($AX42,Dummy!$B$19:$S$22,18,FALSE)</f>
-        <v>803.4682080924855</v>
+        <v>807.4074074074075</v>
       </c>
     </row>
     <row r="43" spans="2:70" x14ac:dyDescent="0.25">
@@ -12712,30 +12732,46 @@
         <f>AB38</f>
         <v> Turkey</v>
       </c>
-      <c r="D43" s="48"/>
+      <c r="D43" s="48">
+        <v>3</v>
+      </c>
       <c r="E43" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F43" s="47"/>
+      <c r="F43" s="47">
+        <v>0</v>
+      </c>
       <c r="G43" s="25" t="str">
         <f>AB39</f>
         <v> Canada</v>
       </c>
-      <c r="H43" s="28"/>
+      <c r="H43" s="28">
+        <v>25</v>
+      </c>
       <c r="I43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J43" s="30"/>
-      <c r="K43" s="28"/>
+      <c r="J43" s="30">
+        <v>21</v>
+      </c>
+      <c r="K43" s="28">
+        <v>27</v>
+      </c>
       <c r="L43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M43" s="30"/>
-      <c r="N43" s="28"/>
+      <c r="M43" s="30">
+        <v>25</v>
+      </c>
+      <c r="N43" s="28">
+        <v>25</v>
+      </c>
       <c r="O43" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P43" s="30"/>
+      <c r="P43" s="30">
+        <v>13</v>
+      </c>
       <c r="Q43" s="28"/>
       <c r="R43" s="29" t="s">
         <v>0</v>
@@ -12748,30 +12784,30 @@
       <c r="V43" s="30"/>
       <c r="W43" s="31">
         <f t="shared" si="103"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="X43" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y43" s="32">
         <f t="shared" si="104"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AD43" s="12">
         <f t="shared" si="84"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="12" t="str">
         <f t="shared" si="85"/>
-        <v>0</v>
+        <v> Turkey</v>
       </c>
       <c r="AF43" s="12">
         <f t="shared" si="86"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG43" s="12">
         <f t="shared" si="87"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH43" s="12">
         <f t="shared" si="88"/>
@@ -12779,7 +12815,7 @@
       </c>
       <c r="AI43" s="12">
         <f t="shared" si="89"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ43" s="12">
         <f t="shared" si="90"/>
@@ -12791,19 +12827,19 @@
       </c>
       <c r="AL43" s="12">
         <f t="shared" si="92"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="AM43" s="12">
         <f t="shared" si="93"/>
-        <v>0</v>
-      </c>
-      <c r="AO43" s="12">
+        <v>59</v>
+      </c>
+      <c r="AO43" s="12" t="str">
         <f t="shared" si="94"/>
-        <v>0</v>
+        <v> Canada</v>
       </c>
       <c r="AP43" s="12">
         <f t="shared" si="95"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="12">
         <f t="shared" si="96"/>
@@ -12811,7 +12847,7 @@
       </c>
       <c r="AR43" s="12">
         <f t="shared" si="97"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS43" s="12">
         <f t="shared" si="98"/>
@@ -12823,132 +12859,132 @@
       </c>
       <c r="AU43" s="12">
         <f t="shared" si="100"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV43" s="12">
         <f t="shared" si="101"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="AW43" s="12">
         <f t="shared" si="102"/>
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="BA43" s="26">
         <f>SUM(BA39:BA42)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
-      <c r="AZ44" s="76"/>
-      <c r="BA44" s="76"/>
-      <c r="BB44" s="76"/>
-      <c r="BC44" s="76"/>
-      <c r="BD44" s="76"/>
-      <c r="BE44" s="76"/>
-      <c r="BF44" s="76"/>
-      <c r="BG44" s="76"/>
-      <c r="BH44" s="76"/>
-      <c r="BI44" s="76"/>
-      <c r="BJ44" s="76"/>
-      <c r="BK44" s="76"/>
-      <c r="BL44" s="76"/>
-      <c r="BM44" s="76"/>
-      <c r="BN44" s="76"/>
-      <c r="BO44" s="76"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="57"/>
+      <c r="AP44" s="57"/>
+      <c r="AQ44" s="57"/>
+      <c r="AR44" s="57"/>
+      <c r="AS44" s="57"/>
+      <c r="AT44" s="57"/>
+      <c r="AU44" s="57"/>
+      <c r="AV44" s="57"/>
+      <c r="AW44" s="57"/>
+      <c r="AX44" s="57"/>
+      <c r="AY44" s="57"/>
+      <c r="AZ44" s="57"/>
+      <c r="BA44" s="57"/>
+      <c r="BB44" s="57"/>
+      <c r="BC44" s="57"/>
+      <c r="BD44" s="57"/>
+      <c r="BE44" s="57"/>
+      <c r="BF44" s="57"/>
+      <c r="BG44" s="57"/>
+      <c r="BH44" s="57"/>
+      <c r="BI44" s="57"/>
+      <c r="BJ44" s="57"/>
+      <c r="BK44" s="57"/>
+      <c r="BL44" s="57"/>
+      <c r="BM44" s="57"/>
+      <c r="BN44" s="57"/>
+      <c r="BO44" s="57"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="61" t="s">
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="61" t="s">
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="61" t="s">
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="61" t="s">
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13006,34 +13042,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="69" t="s">
+      <c r="AX45" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY45" s="70"/>
-      <c r="AZ45" s="71"/>
-      <c r="BA45" s="69" t="s">
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB45" s="70"/>
-      <c r="BC45" s="71"/>
-      <c r="BD45" s="69" t="s">
+      <c r="BB45" s="59"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE45" s="70"/>
-      <c r="BF45" s="70"/>
-      <c r="BG45" s="70"/>
-      <c r="BH45" s="70"/>
-      <c r="BI45" s="71"/>
-      <c r="BJ45" s="69" t="s">
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="59"/>
+      <c r="BG45" s="59"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="70"/>
-      <c r="BL45" s="71"/>
-      <c r="BM45" s="69" t="s">
+      <c r="BK45" s="59"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN45" s="70"/>
-      <c r="BO45" s="71"/>
+      <c r="BN45" s="59"/>
+      <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -13401,19 +13437,19 @@
       </c>
       <c r="AY47" s="51" t="str">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,2,FALSE)</f>
-        <v> Dominican Republic</v>
+        <v> China</v>
       </c>
       <c r="AZ47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,6,FALSE)</f>
@@ -13421,11 +13457,11 @@
       </c>
       <c r="BD47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,8,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,9,FALSE)</f>
@@ -13445,27 +13481,27 @@
       </c>
       <c r="BJ47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL47" s="52" t="str">
+        <v>2</v>
+      </c>
+      <c r="BL47" s="52">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>MAX</v>
+        <v>4500</v>
       </c>
       <c r="BM47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="BN47" s="50">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>98</v>
+        <v>201</v>
       </c>
       <c r="BO47" s="52">
         <f>VLOOKUP($AX47,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1530.612244897959</v>
+        <v>1348.2587064676616</v>
       </c>
     </row>
     <row r="48" spans="2:70" x14ac:dyDescent="0.25">
@@ -13624,7 +13660,7 @@
       </c>
       <c r="AY48" s="51" t="str">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,2,FALSE)</f>
-        <v> China</v>
+        <v> Dominican Republic</v>
       </c>
       <c r="AZ48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,3,FALSE)</f>
@@ -13632,7 +13668,7 @@
       </c>
       <c r="BA48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,5,FALSE)</f>
@@ -13640,15 +13676,15 @@
       </c>
       <c r="BC48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,8,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,9,FALSE)</f>
@@ -13664,7 +13700,7 @@
       </c>
       <c r="BI48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,12,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BJ48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,13,FALSE)</f>
@@ -13672,23 +13708,23 @@
       </c>
       <c r="BK48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL48" s="52">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="BM48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="BN48" s="50">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="BO48" s="52">
         <f>VLOOKUP($AX48,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>1324.3243243243244</v>
+        <v>1173.4104046242776</v>
       </c>
     </row>
     <row r="49" spans="2:67" x14ac:dyDescent="0.25">
@@ -13855,15 +13891,15 @@
       </c>
       <c r="AZ49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,6,FALSE)</f>
@@ -13879,7 +13915,7 @@
       </c>
       <c r="BF49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,10,FALSE)</f>
@@ -13895,27 +13931,27 @@
       </c>
       <c r="BJ49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BL49" s="52">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>500</v>
       </c>
       <c r="BM49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>129</v>
+        <v>234</v>
       </c>
       <c r="BN49" s="50">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>173</v>
+        <v>280</v>
       </c>
       <c r="BO49" s="52">
         <f>VLOOKUP($AX49,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>745.66473988439304</v>
+        <v>835.71428571428578</v>
       </c>
     </row>
     <row r="50" spans="2:67" x14ac:dyDescent="0.25">
@@ -13926,70 +13962,94 @@
         <f>AB48</f>
         <v> Colombia</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="48">
+        <v>2</v>
+      </c>
       <c r="E50" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F50" s="47"/>
+      <c r="F50" s="47">
+        <v>3</v>
+      </c>
       <c r="G50" s="5" t="str">
         <f>AB49</f>
         <v> Mexico</v>
       </c>
-      <c r="H50" s="28"/>
+      <c r="H50" s="28">
+        <v>22</v>
+      </c>
       <c r="I50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J50" s="30"/>
-      <c r="K50" s="28"/>
+      <c r="J50" s="30">
+        <v>25</v>
+      </c>
+      <c r="K50" s="28">
+        <v>25</v>
+      </c>
       <c r="L50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M50" s="30"/>
-      <c r="N50" s="28"/>
+      <c r="M50" s="30">
+        <v>22</v>
+      </c>
+      <c r="N50" s="28">
+        <v>23</v>
+      </c>
       <c r="O50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P50" s="30"/>
-      <c r="Q50" s="28"/>
+      <c r="P50" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q50" s="28">
+        <v>25</v>
+      </c>
       <c r="R50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S50" s="30"/>
-      <c r="T50" s="28"/>
+      <c r="S50" s="30">
+        <v>18</v>
+      </c>
+      <c r="T50" s="28">
+        <v>12</v>
+      </c>
       <c r="U50" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V50" s="30"/>
+      <c r="V50" s="30">
+        <v>15</v>
+      </c>
       <c r="W50" s="31">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="X50" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y50" s="32">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AD50" s="12">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE50" s="12" t="str">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v> Mexico</v>
       </c>
       <c r="AF50" s="12">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG50" s="12">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH50" s="12">
         <f t="shared" si="109"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI50" s="12">
         <f t="shared" si="110"/>
@@ -14001,35 +14061,35 @@
       </c>
       <c r="AK50" s="12">
         <f t="shared" si="112"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL50" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AM50" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AO50" s="12">
+        <v>107</v>
+      </c>
+      <c r="AO50" s="12" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v> Colombia</v>
       </c>
       <c r="AP50" s="12">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ50" s="12">
         <f t="shared" si="117"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR50" s="12">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS50" s="12">
         <f t="shared" si="119"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT50" s="12">
         <f t="shared" si="120"/>
@@ -14041,11 +14101,11 @@
       </c>
       <c r="AV50" s="12">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AW50" s="12">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="AX50" s="50">
         <v>4</v>
@@ -14056,11 +14116,11 @@
       </c>
       <c r="AZ50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,3,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,5,FALSE)</f>
@@ -14068,7 +14128,7 @@
       </c>
       <c r="BC50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,7,FALSE)</f>
@@ -14084,7 +14144,7 @@
       </c>
       <c r="BG50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,11,FALSE)</f>
@@ -14096,27 +14156,27 @@
       </c>
       <c r="BJ50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,13,FALSE)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BK50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL50" s="52">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>333.33333333333331</v>
       </c>
       <c r="BM50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,16,FALSE)</f>
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="BN50" s="50">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,17,FALSE)</f>
-        <v>173</v>
+        <v>278</v>
       </c>
       <c r="BO50" s="52">
         <f>VLOOKUP($AX50,Dummy!$B$23:$S$26,18,FALSE)</f>
-        <v>676.30057803468208</v>
+        <v>805.75539568345323</v>
       </c>
     </row>
     <row r="51" spans="2:67" x14ac:dyDescent="0.25">
@@ -14127,30 +14187,46 @@
         <f>AB46</f>
         <v> China</v>
       </c>
-      <c r="D51" s="48"/>
+      <c r="D51" s="48">
+        <v>3</v>
+      </c>
       <c r="E51" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F51" s="47"/>
+      <c r="F51" s="47">
+        <v>0</v>
+      </c>
       <c r="G51" s="5" t="str">
         <f>AB47</f>
         <v> Dominican Republic</v>
       </c>
-      <c r="H51" s="28"/>
+      <c r="H51" s="28">
+        <v>25</v>
+      </c>
       <c r="I51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J51" s="30"/>
-      <c r="K51" s="28"/>
+      <c r="J51" s="30">
+        <v>15</v>
+      </c>
+      <c r="K51" s="28">
+        <v>25</v>
+      </c>
       <c r="L51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M51" s="30"/>
-      <c r="N51" s="28"/>
+      <c r="M51" s="30">
+        <v>21</v>
+      </c>
+      <c r="N51" s="28">
+        <v>25</v>
+      </c>
       <c r="O51" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P51" s="30"/>
+      <c r="P51" s="30">
+        <v>17</v>
+      </c>
       <c r="Q51" s="28"/>
       <c r="R51" s="29" t="s">
         <v>0</v>
@@ -14163,30 +14239,30 @@
       <c r="V51" s="30"/>
       <c r="W51" s="31">
         <f t="shared" si="124"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X51" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y51" s="32">
         <f t="shared" si="125"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AD51" s="12">
         <f t="shared" si="105"/>
-        <v>0</v>
-      </c>
-      <c r="AE51" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE51" s="12" t="str">
         <f t="shared" si="106"/>
-        <v>0</v>
+        <v> China</v>
       </c>
       <c r="AF51" s="12">
         <f t="shared" si="107"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG51" s="12">
         <f t="shared" si="108"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH51" s="12">
         <f t="shared" si="109"/>
@@ -14194,7 +14270,7 @@
       </c>
       <c r="AI51" s="12">
         <f t="shared" si="110"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ51" s="12">
         <f t="shared" si="111"/>
@@ -14206,19 +14282,19 @@
       </c>
       <c r="AL51" s="12">
         <f t="shared" si="113"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM51" s="12">
         <f t="shared" si="114"/>
-        <v>0</v>
-      </c>
-      <c r="AO51" s="12">
+        <v>53</v>
+      </c>
+      <c r="AO51" s="12" t="str">
         <f t="shared" si="115"/>
-        <v>0</v>
+        <v> Dominican Republic</v>
       </c>
       <c r="AP51" s="12">
         <f t="shared" si="116"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ51" s="12">
         <f t="shared" si="117"/>
@@ -14226,7 +14302,7 @@
       </c>
       <c r="AR51" s="12">
         <f t="shared" si="118"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS51" s="12">
         <f t="shared" si="119"/>
@@ -14238,132 +14314,132 @@
       </c>
       <c r="AU51" s="12">
         <f t="shared" si="121"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV51" s="12">
         <f t="shared" si="122"/>
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="AW51" s="12">
         <f t="shared" si="123"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="BA51" s="26">
         <f>SUM(BA47:BA50)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="76"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
-      <c r="AK52" s="76"/>
-      <c r="AL52" s="76"/>
-      <c r="AM52" s="76"/>
-      <c r="AN52" s="76"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="76"/>
-      <c r="AQ52" s="76"/>
-      <c r="AR52" s="76"/>
-      <c r="AS52" s="76"/>
-      <c r="AT52" s="76"/>
-      <c r="AU52" s="76"/>
-      <c r="AV52" s="76"/>
-      <c r="AW52" s="76"/>
-      <c r="AX52" s="76"/>
-      <c r="AY52" s="76"/>
-      <c r="AZ52" s="76"/>
-      <c r="BA52" s="76"/>
-      <c r="BB52" s="76"/>
-      <c r="BC52" s="76"/>
-      <c r="BD52" s="76"/>
-      <c r="BE52" s="76"/>
-      <c r="BF52" s="76"/>
-      <c r="BG52" s="76"/>
-      <c r="BH52" s="76"/>
-      <c r="BI52" s="76"/>
-      <c r="BJ52" s="76"/>
-      <c r="BK52" s="76"/>
-      <c r="BL52" s="76"/>
-      <c r="BM52" s="76"/>
-      <c r="BN52" s="76"/>
-      <c r="BO52" s="76"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="57"/>
+      <c r="AO52" s="57"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="57"/>
+      <c r="AX52" s="57"/>
+      <c r="AY52" s="57"/>
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="57"/>
+      <c r="BF52" s="57"/>
+      <c r="BG52" s="57"/>
+      <c r="BH52" s="57"/>
+      <c r="BI52" s="57"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="57"/>
+      <c r="BL52" s="57"/>
+      <c r="BM52" s="57"/>
+      <c r="BN52" s="57"/>
+      <c r="BO52" s="57"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="61" t="s">
+      <c r="H53" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="61" t="s">
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="61" t="s">
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="61" t="s">
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="61" t="s">
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14421,34 +14497,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="69" t="s">
+      <c r="AX53" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY53" s="70"/>
-      <c r="AZ53" s="71"/>
-      <c r="BA53" s="69" t="s">
+      <c r="AY53" s="59"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB53" s="70"/>
-      <c r="BC53" s="71"/>
-      <c r="BD53" s="69" t="s">
+      <c r="BB53" s="59"/>
+      <c r="BC53" s="60"/>
+      <c r="BD53" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE53" s="70"/>
-      <c r="BF53" s="70"/>
-      <c r="BG53" s="70"/>
-      <c r="BH53" s="70"/>
-      <c r="BI53" s="71"/>
-      <c r="BJ53" s="69" t="s">
+      <c r="BE53" s="59"/>
+      <c r="BF53" s="59"/>
+      <c r="BG53" s="59"/>
+      <c r="BH53" s="59"/>
+      <c r="BI53" s="60"/>
+      <c r="BJ53" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="70"/>
-      <c r="BL53" s="71"/>
-      <c r="BM53" s="69" t="s">
+      <c r="BK53" s="59"/>
+      <c r="BL53" s="60"/>
+      <c r="BM53" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN53" s="70"/>
-      <c r="BO53" s="71"/>
+      <c r="BN53" s="59"/>
+      <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -14816,19 +14892,19 @@
       </c>
       <c r="AY55" s="51" t="str">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,2,FALSE)</f>
-        <v> Germany</v>
+        <v> Poland</v>
       </c>
       <c r="AZ55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,3,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,6,FALSE)</f>
@@ -14836,15 +14912,15 @@
       </c>
       <c r="BD55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,7,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BE55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,8,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BF55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,10,FALSE)</f>
@@ -14860,27 +14936,27 @@
       </c>
       <c r="BJ55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL55" s="52" t="str">
+        <v>4</v>
+      </c>
+      <c r="BL55" s="52">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>MAX</v>
+        <v>2250</v>
       </c>
       <c r="BM55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="BN55" s="50">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>106</v>
+        <v>248</v>
       </c>
       <c r="BO55" s="52">
         <f>VLOOKUP($AX55,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>1415.0943396226414</v>
+        <v>1209.6774193548388</v>
       </c>
     </row>
     <row r="56" spans="2:67" x14ac:dyDescent="0.25">
@@ -15039,15 +15115,15 @@
       </c>
       <c r="AY56" s="51" t="str">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,2,FALSE)</f>
-        <v> Poland</v>
+        <v> Germany</v>
       </c>
       <c r="AZ56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,3,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,5,FALSE)</f>
@@ -15055,15 +15131,15 @@
       </c>
       <c r="BC56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,7,FALSE)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BE56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,8,FALSE)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BF56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,9,FALSE)</f>
@@ -15071,7 +15147,7 @@
       </c>
       <c r="BG56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,10,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BH56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,11,FALSE)</f>
@@ -15083,27 +15159,27 @@
       </c>
       <c r="BJ56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,13,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BK56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,14,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL56" s="52">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>3000</v>
+        <v>2666.6666666666665</v>
       </c>
       <c r="BM56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>188</v>
+        <v>258</v>
       </c>
       <c r="BN56" s="50">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="BO56" s="52">
         <f>VLOOKUP($AX56,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>1342.8571428571427</v>
+        <v>1183.4862385321101</v>
       </c>
     </row>
     <row r="57" spans="2:67" x14ac:dyDescent="0.25">
@@ -15270,15 +15346,15 @@
       </c>
       <c r="AZ57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,3,FALSE)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,6,FALSE)</f>
@@ -15286,7 +15362,7 @@
       </c>
       <c r="BD57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,8,FALSE)</f>
@@ -15310,7 +15386,7 @@
       </c>
       <c r="BJ57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,13,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BK57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,14,FALSE)</f>
@@ -15318,19 +15394,19 @@
       </c>
       <c r="BL57" s="52">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>666.66666666666663</v>
       </c>
       <c r="BM57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="BN57" s="50">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>165</v>
+        <v>228</v>
       </c>
       <c r="BO57" s="52">
         <f>VLOOKUP($AX57,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>733.33333333333326</v>
+        <v>859.64912280701753</v>
       </c>
     </row>
     <row r="58" spans="2:67" x14ac:dyDescent="0.25">
@@ -15341,30 +15417,46 @@
         <f>AB56</f>
         <v> Kenya</v>
       </c>
-      <c r="D58" s="48"/>
+      <c r="D58" s="48">
+        <v>3</v>
+      </c>
       <c r="E58" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F58" s="47"/>
+      <c r="F58" s="47">
+        <v>0</v>
+      </c>
       <c r="G58" s="25" t="str">
         <f>AB57</f>
         <v> Vietnam</v>
       </c>
-      <c r="H58" s="28"/>
+      <c r="H58" s="28">
+        <v>25</v>
+      </c>
       <c r="I58" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J58" s="30"/>
-      <c r="K58" s="28"/>
+      <c r="J58" s="30">
+        <v>23</v>
+      </c>
+      <c r="K58" s="28">
+        <v>25</v>
+      </c>
       <c r="L58" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="30"/>
-      <c r="N58" s="28"/>
+      <c r="M58" s="30">
+        <v>22</v>
+      </c>
+      <c r="N58" s="28">
+        <v>25</v>
+      </c>
       <c r="O58" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P58" s="30"/>
+      <c r="P58" s="30">
+        <v>18</v>
+      </c>
       <c r="Q58" s="28"/>
       <c r="R58" s="29" t="s">
         <v>0</v>
@@ -15377,30 +15469,30 @@
       <c r="V58" s="30"/>
       <c r="W58" s="31">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X58" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y58" s="32">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AD58" s="12">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE58" s="12" t="str">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v> Kenya</v>
       </c>
       <c r="AF58" s="12">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG58" s="12">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH58" s="12">
         <f t="shared" si="132"/>
@@ -15408,7 +15500,7 @@
       </c>
       <c r="AI58" s="12">
         <f t="shared" si="133"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ58" s="12">
         <f t="shared" si="134"/>
@@ -15420,19 +15512,19 @@
       </c>
       <c r="AL58" s="12">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM58" s="12">
         <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="AO58" s="12">
+        <v>63</v>
+      </c>
+      <c r="AO58" s="12" t="str">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v> Vietnam</v>
       </c>
       <c r="AP58" s="12">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ58" s="12">
         <f t="shared" si="140"/>
@@ -15440,7 +15532,7 @@
       </c>
       <c r="AR58" s="12">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS58" s="12">
         <f t="shared" si="142"/>
@@ -15452,15 +15544,15 @@
       </c>
       <c r="AU58" s="12">
         <f t="shared" si="144"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV58" s="12">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="AW58" s="12">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX58" s="50">
         <v>4</v>
@@ -15475,7 +15567,7 @@
       </c>
       <c r="BA58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,5,FALSE)</f>
@@ -15483,7 +15575,7 @@
       </c>
       <c r="BC58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,7,FALSE)</f>
@@ -15507,7 +15599,7 @@
       </c>
       <c r="BI58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,12,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BJ58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,13,FALSE)</f>
@@ -15515,23 +15607,23 @@
       </c>
       <c r="BK58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL58" s="52">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,15,FALSE)</f>
-        <v>166.66666666666666</v>
+        <v>111.1111111111111</v>
       </c>
       <c r="BM58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,16,FALSE)</f>
-        <v>125</v>
+        <v>188</v>
       </c>
       <c r="BN58" s="50">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,17,FALSE)</f>
-        <v>173</v>
+        <v>248</v>
       </c>
       <c r="BO58" s="52">
         <f>VLOOKUP($AX58,Dummy!$B$27:$S$30,18,FALSE)</f>
-        <v>722.54335260115613</v>
+        <v>758.0645161290322</v>
       </c>
     </row>
     <row r="59" spans="2:67" x14ac:dyDescent="0.25">
@@ -15542,70 +15634,94 @@
         <f>AB54</f>
         <v> Poland</v>
       </c>
-      <c r="D59" s="48"/>
+      <c r="D59" s="48">
+        <v>3</v>
+      </c>
       <c r="E59" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F59" s="47"/>
+      <c r="F59" s="47">
+        <v>2</v>
+      </c>
       <c r="G59" s="25" t="str">
         <f>AB55</f>
         <v> Germany</v>
       </c>
-      <c r="H59" s="28"/>
+      <c r="H59" s="28">
+        <v>21</v>
+      </c>
       <c r="I59" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J59" s="30"/>
-      <c r="K59" s="28"/>
+      <c r="J59" s="30">
+        <v>25</v>
+      </c>
+      <c r="K59" s="28">
+        <v>25</v>
+      </c>
       <c r="L59" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M59" s="30"/>
-      <c r="N59" s="28"/>
+      <c r="M59" s="30">
+        <v>15</v>
+      </c>
+      <c r="N59" s="28">
+        <v>19</v>
+      </c>
       <c r="O59" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P59" s="30"/>
-      <c r="Q59" s="28"/>
+      <c r="P59" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q59" s="28">
+        <v>28</v>
+      </c>
       <c r="R59" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S59" s="30"/>
-      <c r="T59" s="28"/>
+      <c r="S59" s="30">
+        <v>26</v>
+      </c>
+      <c r="T59" s="28">
+        <v>19</v>
+      </c>
       <c r="U59" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V59" s="30"/>
+      <c r="V59" s="30">
+        <v>17</v>
+      </c>
       <c r="W59" s="31">
         <f t="shared" si="126"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="X59" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y59" s="32">
         <f t="shared" si="127"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AD59" s="12">
         <f t="shared" si="128"/>
-        <v>0</v>
-      </c>
-      <c r="AE59" s="12">
+        <v>5</v>
+      </c>
+      <c r="AE59" s="12" t="str">
         <f t="shared" si="129"/>
-        <v>0</v>
+        <v> Poland</v>
       </c>
       <c r="AF59" s="12">
         <f t="shared" si="130"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG59" s="12">
         <f t="shared" si="131"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH59" s="12">
         <f t="shared" si="132"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI59" s="12">
         <f t="shared" si="133"/>
@@ -15617,35 +15733,35 @@
       </c>
       <c r="AK59" s="12">
         <f t="shared" si="135"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL59" s="12">
         <f t="shared" si="136"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AM59" s="12">
         <f t="shared" si="137"/>
-        <v>0</v>
-      </c>
-      <c r="AO59" s="12">
+        <v>108</v>
+      </c>
+      <c r="AO59" s="12" t="str">
         <f t="shared" si="138"/>
-        <v>0</v>
+        <v> Germany</v>
       </c>
       <c r="AP59" s="12">
         <f t="shared" si="139"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ59" s="12">
         <f t="shared" si="140"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR59" s="12">
         <f t="shared" si="141"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS59" s="12">
         <f t="shared" si="142"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT59" s="12">
         <f t="shared" si="143"/>
@@ -15657,128 +15773,128 @@
       </c>
       <c r="AV59" s="12">
         <f t="shared" si="145"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="AW59" s="12">
         <f t="shared" si="146"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="BA59" s="26">
         <f>SUM(BA55:BA58)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="76"/>
-      <c r="AQ60" s="76"/>
-      <c r="AR60" s="76"/>
-      <c r="AS60" s="76"/>
-      <c r="AT60" s="76"/>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BB60" s="76"/>
-      <c r="BC60" s="76"/>
-      <c r="BD60" s="76"/>
-      <c r="BE60" s="76"/>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="76"/>
-      <c r="BL60" s="76"/>
-      <c r="BM60" s="76"/>
-      <c r="BN60" s="76"/>
-      <c r="BO60" s="76"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="57"/>
+      <c r="AI60" s="57"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="57"/>
+      <c r="AN60" s="57"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="57"/>
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="57"/>
+      <c r="AY60" s="57"/>
+      <c r="AZ60" s="57"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BH60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="57"/>
+      <c r="BO60" s="57"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="61" t="s">
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="61" t="s">
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="61" t="s">
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="61" t="s">
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15836,34 +15952,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="69" t="s">
+      <c r="AX61" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY61" s="70"/>
-      <c r="AZ61" s="71"/>
-      <c r="BA61" s="69" t="s">
+      <c r="AY61" s="59"/>
+      <c r="AZ61" s="60"/>
+      <c r="BA61" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB61" s="70"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="69" t="s">
+      <c r="BB61" s="59"/>
+      <c r="BC61" s="60"/>
+      <c r="BD61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE61" s="70"/>
-      <c r="BF61" s="70"/>
-      <c r="BG61" s="70"/>
-      <c r="BH61" s="70"/>
-      <c r="BI61" s="71"/>
-      <c r="BJ61" s="69" t="s">
+      <c r="BE61" s="59"/>
+      <c r="BF61" s="59"/>
+      <c r="BG61" s="59"/>
+      <c r="BH61" s="59"/>
+      <c r="BI61" s="60"/>
+      <c r="BJ61" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="70"/>
-      <c r="BL61" s="71"/>
-      <c r="BM61" s="69" t="s">
+      <c r="BK61" s="59"/>
+      <c r="BL61" s="60"/>
+      <c r="BM61" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN61" s="70"/>
-      <c r="BO61" s="71"/>
+      <c r="BN61" s="59"/>
+      <c r="BO61" s="60"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -16227,19 +16343,19 @@
       </c>
       <c r="AY63" s="51" t="str">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v> Serbia</v>
+        <v> Japan</v>
       </c>
       <c r="AZ63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,5,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,6,FALSE)</f>
@@ -16247,15 +16363,15 @@
       </c>
       <c r="BD63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,8,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BF63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,9,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BG63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,10,FALSE)</f>
@@ -16271,27 +16387,27 @@
       </c>
       <c r="BJ63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BK63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="BL63" s="52" t="str">
+        <v>3</v>
+      </c>
+      <c r="BL63" s="52">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>MAX</v>
+        <v>3000</v>
       </c>
       <c r="BM63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>150</v>
+        <v>289</v>
       </c>
       <c r="BN63" s="50">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>101</v>
+        <v>258</v>
       </c>
       <c r="BO63" s="52">
         <f>VLOOKUP($AX63,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>1485.1485148514851</v>
+        <v>1120.1550387596899</v>
       </c>
     </row>
     <row r="64" spans="2:67" x14ac:dyDescent="0.25">
@@ -16450,15 +16566,15 @@
       </c>
       <c r="AY64" s="51" t="str">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,2,FALSE)</f>
-        <v> Japan</v>
+        <v> Serbia</v>
       </c>
       <c r="AZ64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,5,FALSE)</f>
@@ -16466,11 +16582,11 @@
       </c>
       <c r="BC64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,6,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BD64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,8,FALSE)</f>
@@ -16478,7 +16594,7 @@
       </c>
       <c r="BF64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,9,FALSE)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,10,FALSE)</f>
@@ -16486,7 +16602,7 @@
       </c>
       <c r="BH64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,11,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BI64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,12,FALSE)</f>
@@ -16494,27 +16610,27 @@
       </c>
       <c r="BJ64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BK64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL64" s="52">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>3000</v>
+        <v>2333.3333333333335</v>
       </c>
       <c r="BM64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="BN64" s="50">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>164</v>
+        <v>204</v>
       </c>
       <c r="BO64" s="52">
         <f>VLOOKUP($AX64,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>1134.1463414634145</v>
+        <v>1196.0784313725489</v>
       </c>
     </row>
     <row r="65" spans="2:67" x14ac:dyDescent="0.25">
@@ -16685,15 +16801,15 @@
       </c>
       <c r="AZ65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,3,FALSE)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="BA65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,5,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,6,FALSE)</f>
@@ -16701,7 +16817,7 @@
       </c>
       <c r="BD65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,7,FALSE)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BE65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,8,FALSE)</f>
@@ -16725,7 +16841,7 @@
       </c>
       <c r="BJ65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,13,FALSE)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BK65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,14,FALSE)</f>
@@ -16733,19 +16849,19 @@
       </c>
       <c r="BL65" s="52">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,15,FALSE)</f>
-        <v>333.33333333333331</v>
+        <v>833.33333333333337</v>
       </c>
       <c r="BM65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>164</v>
+        <v>239</v>
       </c>
       <c r="BN65" s="50">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="BO65" s="52">
         <f>VLOOKUP($AX65,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>881.72043010752691</v>
+        <v>979.50819672131149</v>
       </c>
     </row>
     <row r="66" spans="2:67" x14ac:dyDescent="0.25">
@@ -16756,30 +16872,46 @@
         <f>AB64</f>
         <v> Ukraine</v>
       </c>
-      <c r="D66" s="48"/>
+      <c r="D66" s="48">
+        <v>3</v>
+      </c>
       <c r="E66" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F66" s="47"/>
+      <c r="F66" s="47">
+        <v>0</v>
+      </c>
       <c r="G66" s="5" t="str">
         <f>AB65</f>
         <v> Cameroon</v>
       </c>
-      <c r="H66" s="28"/>
+      <c r="H66" s="28">
+        <v>25</v>
+      </c>
       <c r="I66" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J66" s="30"/>
-      <c r="K66" s="28"/>
+      <c r="J66" s="30">
+        <v>17</v>
+      </c>
+      <c r="K66" s="28">
+        <v>25</v>
+      </c>
       <c r="L66" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M66" s="30"/>
-      <c r="N66" s="28"/>
+      <c r="M66" s="30">
+        <v>21</v>
+      </c>
+      <c r="N66" s="28">
+        <v>25</v>
+      </c>
       <c r="O66" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P66" s="30"/>
+      <c r="P66" s="30">
+        <v>20</v>
+      </c>
       <c r="Q66" s="28"/>
       <c r="R66" s="29" t="s">
         <v>0</v>
@@ -16792,30 +16924,30 @@
       <c r="V66" s="30"/>
       <c r="W66" s="31">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X66" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y66" s="32">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AD66" s="12">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AE66" s="12">
+        <v>3</v>
+      </c>
+      <c r="AE66" s="12" t="str">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v> Ukraine</v>
       </c>
       <c r="AF66" s="12">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG66" s="12">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH66" s="12">
         <f t="shared" si="151"/>
@@ -16823,7 +16955,7 @@
       </c>
       <c r="AI66" s="12">
         <f t="shared" si="152"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ66" s="12">
         <f t="shared" si="153"/>
@@ -16835,19 +16967,19 @@
       </c>
       <c r="AL66" s="12">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AM66" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AO66" s="12">
+        <v>58</v>
+      </c>
+      <c r="AO66" s="12" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v> Cameroon</v>
       </c>
       <c r="AP66" s="12">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ66" s="12">
         <f t="shared" si="159"/>
@@ -16855,7 +16987,7 @@
       </c>
       <c r="AR66" s="12">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS66" s="12">
         <f t="shared" si="161"/>
@@ -16867,15 +16999,15 @@
       </c>
       <c r="AU66" s="12">
         <f t="shared" si="163"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV66" s="12">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="AW66" s="12">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AX66" s="50">
         <v>4</v>
@@ -16890,7 +17022,7 @@
       </c>
       <c r="BA66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,4,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,5,FALSE)</f>
@@ -16898,7 +17030,7 @@
       </c>
       <c r="BC66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,6,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BD66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,7,FALSE)</f>
@@ -16922,7 +17054,7 @@
       </c>
       <c r="BI66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,12,FALSE)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BJ66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,13,FALSE)</f>
@@ -16930,7 +17062,7 @@
       </c>
       <c r="BK66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,14,FALSE)</f>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BL66" s="52">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,15,FALSE)</f>
@@ -16938,15 +17070,15 @@
       </c>
       <c r="BM66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,16,FALSE)</f>
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="BN66" s="50">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,17,FALSE)</f>
-        <v>150</v>
+        <v>225</v>
       </c>
       <c r="BO66" s="52">
         <f>VLOOKUP($AX66,Dummy!$B$31:$S$34,18,FALSE)</f>
-        <v>673.33333333333337</v>
+        <v>706.66666666666663</v>
       </c>
     </row>
     <row r="67" spans="2:67" x14ac:dyDescent="0.25">
@@ -16957,35 +17089,55 @@
         <f>AB62</f>
         <v> Japan</v>
       </c>
-      <c r="D67" s="48"/>
+      <c r="D67" s="48">
+        <v>3</v>
+      </c>
       <c r="E67" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F67" s="47"/>
+      <c r="F67" s="47">
+        <v>1</v>
+      </c>
       <c r="G67" s="5" t="str">
         <f>AB63</f>
         <v> Serbia</v>
       </c>
-      <c r="H67" s="28"/>
+      <c r="H67" s="28">
+        <v>25</v>
+      </c>
       <c r="I67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J67" s="30"/>
-      <c r="K67" s="28"/>
+      <c r="J67" s="30">
+        <v>23</v>
+      </c>
+      <c r="K67" s="28">
+        <v>30</v>
+      </c>
       <c r="L67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M67" s="30"/>
-      <c r="N67" s="28"/>
+      <c r="M67" s="30">
+        <v>28</v>
+      </c>
+      <c r="N67" s="28">
+        <v>23</v>
+      </c>
       <c r="O67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P67" s="30"/>
-      <c r="Q67" s="28"/>
+      <c r="P67" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q67" s="28">
+        <v>25</v>
+      </c>
       <c r="R67" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S67" s="30"/>
+      <c r="S67" s="30">
+        <v>18</v>
+      </c>
       <c r="T67" s="28"/>
       <c r="U67" s="29" t="s">
         <v>0</v>
@@ -16993,34 +17145,34 @@
       <c r="V67" s="30"/>
       <c r="W67" s="31">
         <f t="shared" si="166"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="X67" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y67" s="32">
         <f t="shared" si="167"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AD67" s="12">
         <f t="shared" si="147"/>
-        <v>0</v>
-      </c>
-      <c r="AE67" s="12">
+        <v>4</v>
+      </c>
+      <c r="AE67" s="12" t="str">
         <f t="shared" si="148"/>
-        <v>0</v>
+        <v> Japan</v>
       </c>
       <c r="AF67" s="12">
         <f t="shared" si="149"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG67" s="12">
         <f t="shared" si="150"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH67" s="12">
         <f t="shared" si="151"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="12">
         <f t="shared" si="152"/>
@@ -17028,7 +17180,7 @@
       </c>
       <c r="AJ67" s="12">
         <f t="shared" si="153"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK67" s="12">
         <f t="shared" si="154"/>
@@ -17036,27 +17188,27 @@
       </c>
       <c r="AL67" s="12">
         <f t="shared" si="155"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="AM67" s="12">
         <f t="shared" si="156"/>
-        <v>0</v>
-      </c>
-      <c r="AO67" s="12">
+        <v>94</v>
+      </c>
+      <c r="AO67" s="12" t="str">
         <f t="shared" si="157"/>
-        <v>0</v>
+        <v> Serbia</v>
       </c>
       <c r="AP67" s="12">
         <f t="shared" si="158"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ67" s="12">
         <f t="shared" si="159"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR67" s="12">
         <f t="shared" si="160"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AS67" s="12">
         <f t="shared" si="161"/>
@@ -17064,7 +17216,7 @@
       </c>
       <c r="AT67" s="12">
         <f t="shared" si="162"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU67" s="12">
         <f t="shared" si="163"/>
@@ -17072,20 +17224,107 @@
       </c>
       <c r="AV67" s="12">
         <f t="shared" si="164"/>
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="AW67" s="12">
         <f t="shared" si="165"/>
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="BA67" s="26">
         <f>SUM(BA63:BA66)</f>
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17110,411 +17349,324 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
-    <cfRule type="expression" dxfId="63" priority="472">
+    <cfRule type="expression" dxfId="95" priority="472">
       <formula>$AD6&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:S11 Q22:S27 Q54:S59">
-    <cfRule type="expression" dxfId="62" priority="471">
+    <cfRule type="expression" dxfId="94" priority="471">
       <formula>$AD6&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:P11 N22:P27 N54:P59">
-    <cfRule type="expression" dxfId="61" priority="470">
+    <cfRule type="expression" dxfId="93" priority="470">
       <formula>$AD6&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:M11 K22:M27 K54:M59">
-    <cfRule type="expression" dxfId="60" priority="469">
+    <cfRule type="expression" dxfId="92" priority="469">
       <formula>$AD6&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J11 W6:Y11 H22:J27 W22:Y27 H54:J59 W54:Y59">
-    <cfRule type="expression" dxfId="59" priority="468">
+    <cfRule type="expression" dxfId="91" priority="468">
       <formula>$AD6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T14:V19 T38:V43">
-    <cfRule type="expression" dxfId="58" priority="460">
+    <cfRule type="expression" dxfId="90" priority="460">
       <formula>$AD14&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q14:S19 Q38:S43">
-    <cfRule type="expression" dxfId="57" priority="459">
+    <cfRule type="expression" dxfId="89" priority="459">
       <formula>$AD14&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14:P19 N38:P43">
-    <cfRule type="expression" dxfId="56" priority="458">
+    <cfRule type="expression" dxfId="88" priority="458">
       <formula>$AD14&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K14:M19 K38:M43">
-    <cfRule type="expression" dxfId="55" priority="457">
+    <cfRule type="expression" dxfId="87" priority="457">
       <formula>$AD14&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:J19 W14:Y19 H38:J43 W38:Y43">
-    <cfRule type="expression" dxfId="54" priority="456">
+    <cfRule type="expression" dxfId="86" priority="456">
       <formula>$AD14=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:Y19">
-    <cfRule type="expression" dxfId="53" priority="455">
+    <cfRule type="expression" dxfId="85" priority="455">
       <formula>$AD14=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W14:Y19">
-    <cfRule type="expression" dxfId="52" priority="417">
+    <cfRule type="expression" dxfId="84" priority="417">
       <formula>$AD14=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:V43">
-    <cfRule type="expression" dxfId="51" priority="379">
+    <cfRule type="expression" dxfId="83" priority="379">
       <formula>$AD38&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:S43">
-    <cfRule type="expression" dxfId="50" priority="378">
+    <cfRule type="expression" dxfId="82" priority="378">
       <formula>$AD38&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:P43">
-    <cfRule type="expression" dxfId="49" priority="377">
+    <cfRule type="expression" dxfId="81" priority="377">
       <formula>$AD38&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M43">
-    <cfRule type="expression" dxfId="48" priority="376">
+    <cfRule type="expression" dxfId="80" priority="376">
       <formula>$AD38&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:J43 W38:Y43">
-    <cfRule type="expression" dxfId="47" priority="375">
+    <cfRule type="expression" dxfId="79" priority="375">
       <formula>$AD38=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:V43">
-    <cfRule type="expression" dxfId="46" priority="374">
+    <cfRule type="expression" dxfId="78" priority="374">
       <formula>$AD38&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:S43">
-    <cfRule type="expression" dxfId="45" priority="373">
+    <cfRule type="expression" dxfId="77" priority="373">
       <formula>$AD38&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:P43">
-    <cfRule type="expression" dxfId="44" priority="372">
+    <cfRule type="expression" dxfId="76" priority="372">
       <formula>$AD38&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M43">
-    <cfRule type="expression" dxfId="43" priority="371">
+    <cfRule type="expression" dxfId="75" priority="371">
       <formula>$AD38&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:J43 W38:Y43">
-    <cfRule type="expression" dxfId="42" priority="370">
+    <cfRule type="expression" dxfId="74" priority="370">
       <formula>$AD38=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T38:V43">
-    <cfRule type="expression" dxfId="41" priority="336">
+    <cfRule type="expression" dxfId="73" priority="336">
       <formula>$AD38&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q38:S43">
-    <cfRule type="expression" dxfId="40" priority="335">
+    <cfRule type="expression" dxfId="72" priority="335">
       <formula>$AD38&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N38:P43">
-    <cfRule type="expression" dxfId="39" priority="334">
+    <cfRule type="expression" dxfId="71" priority="334">
       <formula>$AD38&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K38:M43">
-    <cfRule type="expression" dxfId="38" priority="333">
+    <cfRule type="expression" dxfId="70" priority="333">
       <formula>$AD38&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38:J43 W38:Y43">
-    <cfRule type="expression" dxfId="37" priority="332">
+    <cfRule type="expression" dxfId="69" priority="332">
       <formula>$AD38=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V35">
-    <cfRule type="expression" dxfId="36" priority="328">
+    <cfRule type="expression" dxfId="68" priority="328">
       <formula>$AD30&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:S35">
-    <cfRule type="expression" dxfId="35" priority="327">
+    <cfRule type="expression" dxfId="67" priority="327">
       <formula>$AD30&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:P35">
-    <cfRule type="expression" dxfId="34" priority="326">
+    <cfRule type="expression" dxfId="66" priority="326">
       <formula>$AD30&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:M35">
-    <cfRule type="expression" dxfId="33" priority="325">
+    <cfRule type="expression" dxfId="65" priority="325">
       <formula>$AD30&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:J35 W30:Y35">
-    <cfRule type="expression" dxfId="32" priority="324">
+    <cfRule type="expression" dxfId="64" priority="324">
       <formula>$AD30=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:Y35">
-    <cfRule type="expression" dxfId="31" priority="323">
+    <cfRule type="expression" dxfId="63" priority="323">
       <formula>$AD30=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W30:Y35">
-    <cfRule type="expression" dxfId="30" priority="322">
+    <cfRule type="expression" dxfId="62" priority="322">
       <formula>$AD30=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T46:V51">
-    <cfRule type="expression" dxfId="29" priority="320">
+    <cfRule type="expression" dxfId="61" priority="320">
       <formula>$AD46&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q46:S51">
-    <cfRule type="expression" dxfId="28" priority="319">
+    <cfRule type="expression" dxfId="60" priority="319">
       <formula>$AD46&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N46:P51">
-    <cfRule type="expression" dxfId="27" priority="318">
+    <cfRule type="expression" dxfId="59" priority="318">
       <formula>$AD46&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K46:M51">
-    <cfRule type="expression" dxfId="26" priority="317">
+    <cfRule type="expression" dxfId="58" priority="317">
       <formula>$AD46&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46:J51 W46:Y51">
-    <cfRule type="expression" dxfId="25" priority="316">
+    <cfRule type="expression" dxfId="57" priority="316">
       <formula>$AD46=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y51">
-    <cfRule type="expression" dxfId="24" priority="315">
+    <cfRule type="expression" dxfId="56" priority="315">
       <formula>$AD46=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W46:Y51">
-    <cfRule type="expression" dxfId="23" priority="314">
+    <cfRule type="expression" dxfId="55" priority="314">
       <formula>$AD46=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T62:V67">
-    <cfRule type="expression" dxfId="22" priority="313">
+    <cfRule type="expression" dxfId="54" priority="313">
       <formula>$AD62&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q62:S67">
-    <cfRule type="expression" dxfId="21" priority="312">
+    <cfRule type="expression" dxfId="53" priority="312">
       <formula>$AD62&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N62:P67">
-    <cfRule type="expression" dxfId="20" priority="311">
+    <cfRule type="expression" dxfId="52" priority="311">
       <formula>$AD62&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K62:M67">
-    <cfRule type="expression" dxfId="19" priority="310">
+    <cfRule type="expression" dxfId="51" priority="310">
       <formula>$AD62&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62:J67 W62:Y67">
-    <cfRule type="expression" dxfId="18" priority="309">
+    <cfRule type="expression" dxfId="50" priority="309">
       <formula>$AD62=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62:Y67">
-    <cfRule type="expression" dxfId="17" priority="308">
+    <cfRule type="expression" dxfId="49" priority="308">
       <formula>$AD62=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W62:Y67">
-    <cfRule type="expression" dxfId="16" priority="307">
+    <cfRule type="expression" dxfId="48" priority="307">
       <formula>$AD62=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX7:BO7">
-    <cfRule type="expression" dxfId="15" priority="23">
+    <cfRule type="expression" dxfId="47" priority="23">
       <formula>$BA11=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX8:BO8">
-    <cfRule type="expression" dxfId="14" priority="22">
+    <cfRule type="expression" dxfId="46" priority="22">
       <formula>$BA11=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX15:BO15">
-    <cfRule type="expression" dxfId="13" priority="20">
+    <cfRule type="expression" dxfId="45" priority="20">
       <formula>$BA19=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX16:BO16">
-    <cfRule type="expression" dxfId="12" priority="19">
+    <cfRule type="expression" dxfId="44" priority="19">
       <formula>$BA19=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX23:BO23">
-    <cfRule type="expression" dxfId="11" priority="17">
+    <cfRule type="expression" dxfId="43" priority="17">
       <formula>$BA27=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX24:BO24">
-    <cfRule type="expression" dxfId="10" priority="16">
+    <cfRule type="expression" dxfId="42" priority="16">
       <formula>$BA27=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX31:BO31">
-    <cfRule type="expression" dxfId="9" priority="14">
+    <cfRule type="expression" dxfId="41" priority="14">
       <formula>$BA35=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX32:BO32">
-    <cfRule type="expression" dxfId="8" priority="13">
+    <cfRule type="expression" dxfId="40" priority="13">
       <formula>$BA35=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX39:BO39">
-    <cfRule type="expression" dxfId="7" priority="11">
+    <cfRule type="expression" dxfId="39" priority="11">
       <formula>$BA43=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX40:BO40">
-    <cfRule type="expression" dxfId="6" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>$BA43=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX47:BO47">
-    <cfRule type="expression" dxfId="5" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>$BA51=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX48:BO48">
-    <cfRule type="expression" dxfId="4" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>$BA51=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX55:BO55">
-    <cfRule type="expression" dxfId="3" priority="5">
+    <cfRule type="expression" dxfId="35" priority="5">
       <formula>$BA59=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX56:BO56">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="34" priority="4">
       <formula>$BA59=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX63:BO63">
-    <cfRule type="expression" dxfId="1" priority="2">
+    <cfRule type="expression" dxfId="33" priority="2">
       <formula>$BA67=12</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AX64:BO64">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="32" priority="1">
       <formula>$BA67=12</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17534,7 +17686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8907CF4-F9AC-40E8-A2EF-9961349DD93C}">
   <dimension ref="B1:BO48"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -17604,55 +17756,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17706,42 +17858,42 @@
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -17815,7 +17967,7 @@
       <c r="F6" s="47"/>
       <c r="G6" s="25" t="str">
         <f>IF(Preliminary!BA64&lt;3,"Runners-up of Pool H",Preliminary!AY64)</f>
-        <v>Runners-up of Pool H</v>
+        <v> Serbia</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="29" t="s">
@@ -17937,7 +18089,7 @@
       </c>
       <c r="C7" s="24" t="str">
         <f>IF(Preliminary!BA63&lt;3,"Winner of Pool H",Preliminary!AY63)</f>
-        <v>Winner of Pool H</v>
+        <v> Japan</v>
       </c>
       <c r="D7" s="48"/>
       <c r="E7" s="49" t="s">
@@ -18076,7 +18228,7 @@
       <c r="F8" s="47"/>
       <c r="G8" s="25" t="str">
         <f>IF(Preliminary!BA56&lt;3,"Runners-up of Pool G",Preliminary!AY56)</f>
-        <v>Runners-up of Pool G</v>
+        <v> Germany</v>
       </c>
       <c r="H8" s="28"/>
       <c r="I8" s="29" t="s">
@@ -18197,7 +18349,7 @@
       </c>
       <c r="C9" s="24" t="str">
         <f>IF(Preliminary!BA55&lt;3,"Winner of Pool G",Preliminary!AY55)</f>
-        <v>Winner of Pool G</v>
+        <v> Poland</v>
       </c>
       <c r="D9" s="48"/>
       <c r="E9" s="49" t="s">
@@ -18336,7 +18488,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="25" t="str">
         <f>IF(Preliminary!BA48&lt;3,"Runners-up of Pool F",Preliminary!AY48)</f>
-        <v>Runners-up of Pool F</v>
+        <v> Dominican Republic</v>
       </c>
       <c r="H10" s="28"/>
       <c r="I10" s="29" t="s">
@@ -18457,7 +18609,7 @@
       </c>
       <c r="C11" s="24" t="str">
         <f>IF(Preliminary!BA47&lt;3,"Winner of Pool F",Preliminary!AY47)</f>
-        <v>Winner of Pool F</v>
+        <v> China</v>
       </c>
       <c r="D11" s="48"/>
       <c r="E11" s="49" t="s">
@@ -18611,8 +18763,8 @@
       </c>
       <c r="F12" s="47"/>
       <c r="G12" s="25" t="str">
-        <f>IF(Preliminary!BB40&lt;3,"Runners-up of Pool E",Preliminary!AY40)</f>
-        <v>Runners-up of Pool E</v>
+        <f>IF(Preliminary!BA40&lt;3,"Runners-up of Pool E",Preliminary!AY40)</f>
+        <v> Canada</v>
       </c>
       <c r="H12" s="28"/>
       <c r="I12" s="29" t="s">
@@ -18749,7 +18901,7 @@
       </c>
       <c r="C13" s="24" t="str">
         <f>IF(Preliminary!BA39&lt;3,"Winner of Pool E",Preliminary!AY39)</f>
-        <v>Winner of Pool E</v>
+        <v> Turkey</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="49" t="s">
@@ -18934,52 +19086,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="62" t="s">
+      <c r="AU15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="AV15" s="62"/>
+      <c r="AV15" s="64"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57" t="s">
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="s">
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19037,10 +19189,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="63" t="s">
+      <c r="AU16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="64"/>
+      <c r="AV16" s="66"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19171,10 +19323,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="65" t="s">
+      <c r="AU17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="66"/>
+      <c r="AV17" s="68"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19305,10 +19457,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="65" t="s">
+      <c r="AU18" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="66"/>
+      <c r="AV18" s="68"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19439,10 +19591,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="65" t="s">
+      <c r="AU19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="66"/>
+      <c r="AV19" s="68"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19573,10 +19725,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="67" t="s">
+      <c r="AU20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="68"/>
+      <c r="AV20" s="70"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19612,42 +19764,42 @@
         <v>86</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57" t="s">
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57" t="s">
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -20019,42 +20171,42 @@
         <v>86</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57" t="s">
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57" t="s">
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="57" t="s">
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20316,42 +20468,42 @@
         <v>86</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57" t="s">
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="57" t="s">
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="57" t="s">
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20669,22 +20821,22 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="48">
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B2:AV2"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="B22:Y22"/>
+    <mergeCell ref="B28:Y28"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AU20:AV20"/>
     <mergeCell ref="B33:Y33"/>
     <mergeCell ref="AU15:AV15"/>
     <mergeCell ref="T29:V29"/>
@@ -20701,180 +20853,180 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="AU16:AV16"/>
     <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="B2:AV2"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B22:Y22"/>
-    <mergeCell ref="B28:Y28"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="AU18:AV18"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 B4:XFD4 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576">
-    <cfRule type="cellIs" dxfId="95" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM19:XFD19">
-    <cfRule type="cellIs" dxfId="94" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="75" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM24:XFD24">
-    <cfRule type="cellIs" dxfId="93" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="74" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA16:AT20">
-    <cfRule type="cellIs" dxfId="92" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="54" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA34:AT35">
-    <cfRule type="cellIs" dxfId="91" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="46" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA23:AT25">
-    <cfRule type="cellIs" dxfId="90" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="48" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA29:AT30">
-    <cfRule type="cellIs" dxfId="89" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="47" operator="equal">
       <formula>"Brasil"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T6:V13">
-    <cfRule type="expression" dxfId="88" priority="45">
+    <cfRule type="expression" dxfId="24" priority="45">
       <formula>$AA6&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q6:S13">
-    <cfRule type="expression" dxfId="87" priority="44">
+    <cfRule type="expression" dxfId="23" priority="44">
       <formula>$AA6&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N6:P13">
-    <cfRule type="expression" dxfId="86" priority="43">
+    <cfRule type="expression" dxfId="22" priority="43">
       <formula>$AD6&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K6:M13">
-    <cfRule type="expression" dxfId="85" priority="42">
+    <cfRule type="expression" dxfId="21" priority="42">
       <formula>$AD6&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:J13 W6:Y13">
-    <cfRule type="expression" dxfId="84" priority="41">
+    <cfRule type="expression" dxfId="20" priority="41">
       <formula>$AD6=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N17:P20">
-    <cfRule type="expression" dxfId="83" priority="18">
+    <cfRule type="expression" dxfId="19" priority="18">
       <formula>$AD17&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K17:M20">
-    <cfRule type="expression" dxfId="82" priority="17">
+    <cfRule type="expression" dxfId="18" priority="17">
       <formula>$AD17&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17:J20 W17:Y20">
-    <cfRule type="expression" dxfId="81" priority="16">
+    <cfRule type="expression" dxfId="17" priority="16">
       <formula>$AD17=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T17:V20">
-    <cfRule type="expression" dxfId="80" priority="20">
+    <cfRule type="expression" dxfId="16" priority="20">
       <formula>$AA17&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q17:S20">
-    <cfRule type="expression" dxfId="79" priority="19">
+    <cfRule type="expression" dxfId="15" priority="19">
       <formula>$AA17&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T24:V25">
-    <cfRule type="expression" dxfId="78" priority="15">
+    <cfRule type="expression" dxfId="14" priority="15">
       <formula>$AA24&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q24:S25">
-    <cfRule type="expression" dxfId="77" priority="14">
+    <cfRule type="expression" dxfId="13" priority="14">
       <formula>$AA24&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24:P25">
-    <cfRule type="expression" dxfId="76" priority="13">
+    <cfRule type="expression" dxfId="12" priority="13">
       <formula>$AD24&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K24:M25">
-    <cfRule type="expression" dxfId="75" priority="12">
+    <cfRule type="expression" dxfId="11" priority="12">
       <formula>$AD24&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:J25 W24:Y25">
-    <cfRule type="expression" dxfId="74" priority="11">
+    <cfRule type="expression" dxfId="10" priority="11">
       <formula>$AD24=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T30:V30">
-    <cfRule type="expression" dxfId="73" priority="10">
+    <cfRule type="expression" dxfId="9" priority="10">
       <formula>$AA30&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q30:S30">
-    <cfRule type="expression" dxfId="72" priority="9">
+    <cfRule type="expression" dxfId="8" priority="9">
       <formula>$AA30&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N30:P30">
-    <cfRule type="expression" dxfId="71" priority="8">
+    <cfRule type="expression" dxfId="7" priority="8">
       <formula>$AD30&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K30:M30">
-    <cfRule type="expression" dxfId="70" priority="7">
+    <cfRule type="expression" dxfId="6" priority="7">
       <formula>$AD30&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:J30 W30:Y30">
-    <cfRule type="expression" dxfId="69" priority="6">
+    <cfRule type="expression" dxfId="5" priority="6">
       <formula>$AD30=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T35:V35">
-    <cfRule type="expression" dxfId="68" priority="5">
+    <cfRule type="expression" dxfId="4" priority="5">
       <formula>$AA35&lt;5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q35:S35">
-    <cfRule type="expression" dxfId="67" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$AA35&lt;4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N35:P35">
-    <cfRule type="expression" dxfId="66" priority="3">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$AD35&lt;3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K35:M35">
-    <cfRule type="expression" dxfId="65" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$AD35&lt;2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35:J35 W35:Y35">
-    <cfRule type="expression" dxfId="64" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$AD35=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20891,6 +21043,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21123,15 +21284,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -21141,6 +21293,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21159,27 +21319,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2025 FIVB Women's Volleyball World Championship.xlsx
+++ b/2025 FIVB Women's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{72CA0183-BB33-4970-AA14-02B60B0F886D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8AA3544-59FD-4827-8403-BC02A947CAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -863,28 +863,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,22 +906,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5393,11 +5393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5406,6 +5401,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5478,74 +5478,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5568,116 +5568,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5735,34 +5735,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="61" t="s">
+      <c r="AX5" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="61" t="s">
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="61" t="s">
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="61" t="s">
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="61" t="s">
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="63"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="74"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7031,116 +7031,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="76"/>
+      <c r="BL12" s="76"/>
+      <c r="BM12" s="76"/>
+      <c r="BN12" s="76"/>
+      <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72" t="s">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="72" t="s">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="72" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="72" t="s">
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7198,34 +7198,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="58" t="s">
+      <c r="AX13" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="58" t="s">
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="58" t="s">
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="58" t="s">
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="58" t="s">
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="60"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="71"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8478,116 +8478,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="57"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="76"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="76"/>
+      <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="72" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="72" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72" t="s">
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8645,34 +8645,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="58" t="s">
+      <c r="AX21" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="58" t="s">
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="58" t="s">
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="58" t="s">
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="60"/>
-      <c r="BM21" s="58" t="s">
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="71"/>
+      <c r="BM21" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="60"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="71"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9937,116 +9937,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="72" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="72" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="72" t="s">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10104,34 +10104,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="58" t="s">
+      <c r="AX29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="58" t="s">
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="58" t="s">
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="58" t="s">
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="71"/>
+      <c r="BJ29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="58" t="s">
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="60"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="71"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11396,120 +11396,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BA36" s="57"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="57"/>
-      <c r="BF36" s="57"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BQ36" s="64" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="76"/>
+      <c r="BF36" s="76"/>
+      <c r="BG36" s="76"/>
+      <c r="BH36" s="76"/>
+      <c r="BI36" s="76"/>
+      <c r="BJ36" s="76"/>
+      <c r="BK36" s="76"/>
+      <c r="BL36" s="76"/>
+      <c r="BM36" s="76"/>
+      <c r="BN36" s="76"/>
+      <c r="BO36" s="76"/>
+      <c r="BQ36" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="BR36" s="64"/>
+      <c r="BR36" s="62"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="72" t="s">
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="72" t="s">
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="72" t="s">
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11567,38 +11567,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="58" t="s">
+      <c r="AX37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="60"/>
-      <c r="BA37" s="58" t="s">
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="71"/>
+      <c r="BA37" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="60"/>
-      <c r="BD37" s="58" t="s">
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="60"/>
-      <c r="BJ37" s="58" t="s">
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="71"/>
+      <c r="BJ37" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="60"/>
-      <c r="BM37" s="58" t="s">
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="71"/>
+      <c r="BM37" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="60"/>
-      <c r="BQ37" s="65" t="s">
+      <c r="BN37" s="70"/>
+      <c r="BO37" s="71"/>
+      <c r="BQ37" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="66"/>
+      <c r="BR37" s="64"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11809,10 +11809,10 @@
       <c r="BO38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="BQ38" s="67" t="s">
+      <c r="BQ38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="68"/>
+      <c r="BR38" s="66"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -12036,10 +12036,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1297.1428571428571</v>
       </c>
-      <c r="BQ39" s="67" t="s">
+      <c r="BQ39" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="68"/>
+      <c r="BR39" s="66"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12271,10 +12271,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1026.5151515151515</v>
       </c>
-      <c r="BQ40" s="67" t="s">
+      <c r="BQ40" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="68"/>
+      <c r="BR40" s="66"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12498,10 +12498,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>973.88059701492534</v>
       </c>
-      <c r="BQ41" s="69" t="s">
+      <c r="BQ41" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="70"/>
+      <c r="BR41" s="68"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12875,116 +12875,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="57"/>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="57"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="57"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="57"/>
-      <c r="AT44" s="57"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="57"/>
-      <c r="AW44" s="57"/>
-      <c r="AX44" s="57"/>
-      <c r="AY44" s="57"/>
-      <c r="AZ44" s="57"/>
-      <c r="BA44" s="57"/>
-      <c r="BB44" s="57"/>
-      <c r="BC44" s="57"/>
-      <c r="BD44" s="57"/>
-      <c r="BE44" s="57"/>
-      <c r="BF44" s="57"/>
-      <c r="BG44" s="57"/>
-      <c r="BH44" s="57"/>
-      <c r="BI44" s="57"/>
-      <c r="BJ44" s="57"/>
-      <c r="BK44" s="57"/>
-      <c r="BL44" s="57"/>
-      <c r="BM44" s="57"/>
-      <c r="BN44" s="57"/>
-      <c r="BO44" s="57"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="76"/>
+      <c r="BH44" s="76"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="76"/>
+      <c r="BL44" s="76"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="76"/>
+      <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72" t="s">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="72" t="s">
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="72" t="s">
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="72" t="s">
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13042,34 +13042,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="58" t="s">
+      <c r="AX45" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY45" s="59"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="58" t="s">
+      <c r="AY45" s="70"/>
+      <c r="AZ45" s="71"/>
+      <c r="BA45" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB45" s="59"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="58" t="s">
+      <c r="BB45" s="70"/>
+      <c r="BC45" s="71"/>
+      <c r="BD45" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="58" t="s">
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="71"/>
+      <c r="BJ45" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="58" t="s">
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="71"/>
+      <c r="BM45" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="60"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="71"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14330,116 +14330,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="57"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="57"/>
-      <c r="AX52" s="57"/>
-      <c r="AY52" s="57"/>
-      <c r="AZ52" s="57"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="57"/>
-      <c r="BC52" s="57"/>
-      <c r="BD52" s="57"/>
-      <c r="BE52" s="57"/>
-      <c r="BF52" s="57"/>
-      <c r="BG52" s="57"/>
-      <c r="BH52" s="57"/>
-      <c r="BI52" s="57"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="57"/>
-      <c r="BL52" s="57"/>
-      <c r="BM52" s="57"/>
-      <c r="BN52" s="57"/>
-      <c r="BO52" s="57"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="76"/>
+      <c r="AJ52" s="76"/>
+      <c r="AK52" s="76"/>
+      <c r="AL52" s="76"/>
+      <c r="AM52" s="76"/>
+      <c r="AN52" s="76"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="76"/>
+      <c r="AQ52" s="76"/>
+      <c r="AR52" s="76"/>
+      <c r="AS52" s="76"/>
+      <c r="AT52" s="76"/>
+      <c r="AU52" s="76"/>
+      <c r="AV52" s="76"/>
+      <c r="AW52" s="76"/>
+      <c r="AX52" s="76"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="76"/>
+      <c r="BB52" s="76"/>
+      <c r="BC52" s="76"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
+      <c r="BL52" s="76"/>
+      <c r="BM52" s="76"/>
+      <c r="BN52" s="76"/>
+      <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="72" t="s">
+      <c r="H53" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="72" t="s">
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="72" t="s">
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="72" t="s">
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="72" t="s">
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14497,34 +14497,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="58" t="s">
+      <c r="AX53" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="58" t="s">
+      <c r="AY53" s="70"/>
+      <c r="AZ53" s="71"/>
+      <c r="BA53" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="58" t="s">
+      <c r="BB53" s="70"/>
+      <c r="BC53" s="71"/>
+      <c r="BD53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="58" t="s">
+      <c r="BE53" s="70"/>
+      <c r="BF53" s="70"/>
+      <c r="BG53" s="70"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="58" t="s">
+      <c r="BK53" s="70"/>
+      <c r="BL53" s="71"/>
+      <c r="BM53" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="60"/>
+      <c r="BN53" s="70"/>
+      <c r="BO53" s="71"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15785,116 +15785,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="57"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="57"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="57"/>
-      <c r="BB60" s="57"/>
-      <c r="BC60" s="57"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="76"/>
+      <c r="AL60" s="76"/>
+      <c r="AM60" s="76"/>
+      <c r="AN60" s="76"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="76"/>
+      <c r="AQ60" s="76"/>
+      <c r="AR60" s="76"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="76"/>
+      <c r="AU60" s="76"/>
+      <c r="AV60" s="76"/>
+      <c r="AW60" s="76"/>
+      <c r="AX60" s="76"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="76"/>
+      <c r="BA60" s="76"/>
+      <c r="BB60" s="76"/>
+      <c r="BC60" s="76"/>
+      <c r="BD60" s="76"/>
+      <c r="BE60" s="76"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="76"/>
+      <c r="BK60" s="76"/>
+      <c r="BL60" s="76"/>
+      <c r="BM60" s="76"/>
+      <c r="BN60" s="76"/>
+      <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="72" t="s">
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="72" t="s">
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="72" t="s">
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="72" t="s">
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15952,34 +15952,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="58" t="s">
+      <c r="AX61" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY61" s="59"/>
-      <c r="AZ61" s="60"/>
-      <c r="BA61" s="58" t="s">
+      <c r="AY61" s="70"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB61" s="59"/>
-      <c r="BC61" s="60"/>
-      <c r="BD61" s="58" t="s">
+      <c r="BB61" s="70"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE61" s="59"/>
-      <c r="BF61" s="59"/>
-      <c r="BG61" s="59"/>
-      <c r="BH61" s="59"/>
-      <c r="BI61" s="60"/>
-      <c r="BJ61" s="58" t="s">
+      <c r="BE61" s="70"/>
+      <c r="BF61" s="70"/>
+      <c r="BG61" s="70"/>
+      <c r="BH61" s="70"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="59"/>
-      <c r="BL61" s="60"/>
-      <c r="BM61" s="58" t="s">
+      <c r="BK61" s="70"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN61" s="59"/>
-      <c r="BO61" s="60"/>
+      <c r="BN61" s="70"/>
+      <c r="BO61" s="71"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -17238,93 +17238,6 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17349,6 +17262,93 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="472">
@@ -17687,7 +17687,7 @@
   <dimension ref="B1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17756,55 +17756,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17858,42 +17858,42 @@
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -17960,70 +17960,94 @@
         <f>IF(Preliminary!BA7&lt;3,"Winner of Pool A",Preliminary!AY7)</f>
         <v> Netherlands</v>
       </c>
-      <c r="D6" s="48"/>
+      <c r="D6" s="48">
+        <v>3</v>
+      </c>
       <c r="E6" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="47"/>
+      <c r="F6" s="47">
+        <v>2</v>
+      </c>
       <c r="G6" s="25" t="str">
         <f>IF(Preliminary!BA64&lt;3,"Runners-up of Pool H",Preliminary!AY64)</f>
         <v> Serbia</v>
       </c>
-      <c r="H6" s="28"/>
+      <c r="H6" s="28">
+        <v>27</v>
+      </c>
       <c r="I6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J6" s="30"/>
-      <c r="K6" s="28"/>
+      <c r="J6" s="30">
+        <v>25</v>
+      </c>
+      <c r="K6" s="28">
+        <v>26</v>
+      </c>
       <c r="L6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="28"/>
+      <c r="M6" s="30">
+        <v>24</v>
+      </c>
+      <c r="N6" s="28">
+        <v>22</v>
+      </c>
       <c r="O6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="28"/>
+      <c r="P6" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>20</v>
+      </c>
       <c r="R6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S6" s="30"/>
-      <c r="T6" s="28"/>
+      <c r="S6" s="30">
+        <v>25</v>
+      </c>
+      <c r="T6" s="28">
+        <v>15</v>
+      </c>
       <c r="U6" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V6" s="30"/>
+      <c r="V6" s="30">
+        <v>11</v>
+      </c>
       <c r="W6" s="31">
         <f t="shared" ref="W6:W13" si="0">SUM(H6,K6,N6,Q6,T6)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="X6" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y6" s="32">
         <f t="shared" ref="Y6:Y13" si="1">SUM(J6,M6,P6,S6,V6)</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AA6" s="12">
         <f>AD6+AE6</f>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="12" t="str">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,C6,G6))</f>
-        <v>0</v>
+        <v> Netherlands</v>
       </c>
       <c r="AC6" s="12">
         <f>IF(OR(D6="",F6=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,D6,F6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&gt;F6,F6,D6))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF6" s="12">
         <f>IF(AND(AD6=3,AE6=0),1,0)</f>
@@ -18035,35 +18059,35 @@
       </c>
       <c r="AH6" s="12">
         <f>IF(AND(AD6=3,AE6=2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="12">
         <f>IF(D6&gt;F6,SUM(H6,K6,N6,Q6,T6,),SUM(J6,M6,P6,S6,V6))</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AJ6" s="12">
         <f>IF(D6&gt;F6,SUM(J6,M6,P6,S6,V6),SUM(H6,K6,N6,Q6,T6))</f>
-        <v>0</v>
-      </c>
-      <c r="AL6" s="12">
+        <v>110</v>
+      </c>
+      <c r="AL6" s="12" t="str">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,C6,G6))</f>
-        <v>0</v>
+        <v> Serbia</v>
       </c>
       <c r="AM6" s="12">
         <f>IF(OR(D6="",F6=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,D6,F6))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO6" s="12">
         <f>IF(OR(D6="",F6=""),0,IF(D6&lt;F6,F6,D6))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP6" s="12">
         <f>IF(AND(AN6=2,AO6=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="12">
         <f>IF(AND(AN6=1,AO6=3),1,0)</f>
@@ -18075,11 +18099,11 @@
       </c>
       <c r="AS6" s="12">
         <f>IF(D6&lt;F6,SUM(H6,K6,N6,Q6,T6,),SUM(J6,M6,P6,S6,V6))</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AT6" s="12">
         <f>IF(D6&lt;F6,SUM(J6,M6,P6,S6,V6),SUM(H6,K6,N6,Q6,T6))</f>
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="AX6" s="14"/>
     </row>
@@ -18091,30 +18115,46 @@
         <f>IF(Preliminary!BA63&lt;3,"Winner of Pool H",Preliminary!AY63)</f>
         <v> Japan</v>
       </c>
-      <c r="D7" s="48"/>
+      <c r="D7" s="48">
+        <v>3</v>
+      </c>
       <c r="E7" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="47"/>
+      <c r="F7" s="47">
+        <v>0</v>
+      </c>
       <c r="G7" s="25" t="str">
         <f>IF(Preliminary!BA8&lt;3,"Runners-up of Pool A",Preliminary!AY8)</f>
         <v> Thailand</v>
       </c>
-      <c r="H7" s="28"/>
+      <c r="H7" s="28">
+        <v>25</v>
+      </c>
       <c r="I7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="28"/>
+      <c r="J7" s="30">
+        <v>20</v>
+      </c>
+      <c r="K7" s="28">
+        <v>25</v>
+      </c>
       <c r="L7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M7" s="30"/>
-      <c r="N7" s="28"/>
+      <c r="M7" s="30">
+        <v>23</v>
+      </c>
+      <c r="N7" s="28">
+        <v>25</v>
+      </c>
       <c r="O7" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="30"/>
+      <c r="P7" s="30">
+        <v>23</v>
+      </c>
       <c r="Q7" s="28"/>
       <c r="R7" s="29" t="s">
         <v>0</v>
@@ -18127,30 +18167,30 @@
       <c r="V7" s="30"/>
       <c r="W7" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X7" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y7" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AA7" s="12">
         <f t="shared" ref="AA7:AA13" si="2">AD7+AE7</f>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB7" s="12" t="str">
         <f t="shared" ref="AB7:AB13" si="3">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,C7,G7))</f>
-        <v>0</v>
+        <v> Japan</v>
       </c>
       <c r="AC7" s="12">
         <f t="shared" ref="AC7:AC13" si="4">IF(OR(D7="",F7=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD7" s="12">
         <f t="shared" ref="AD7:AD13" si="5">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,D7,F7))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE7" s="12">
         <f t="shared" ref="AE7:AE13" si="6">IF(OR(D7="",F7=""),0,IF(D7&gt;F7,F7,D7))</f>
@@ -18158,7 +18198,7 @@
       </c>
       <c r="AF7" s="12">
         <f t="shared" ref="AF7:AF13" si="7">IF(AND(AD7=3,AE7=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" s="12">
         <f t="shared" ref="AG7:AG13" si="8">IF(AND(AD7=3,AE7=1),1,0)</f>
@@ -18170,19 +18210,19 @@
       </c>
       <c r="AI7" s="12">
         <f t="shared" ref="AI7:AI13" si="10">IF(D7&gt;F7,SUM(H7,K7,N7,Q7,T7,),SUM(J7,M7,P7,S7,V7))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ7" s="12">
         <f t="shared" ref="AJ7:AJ13" si="11">IF(D7&gt;F7,SUM(J7,M7,P7,S7,V7),SUM(H7,K7,N7,Q7,T7))</f>
-        <v>0</v>
-      </c>
-      <c r="AL7" s="12">
+        <v>66</v>
+      </c>
+      <c r="AL7" s="12" t="str">
         <f t="shared" ref="AL7:AL13" si="12">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,C7,G7))</f>
-        <v>0</v>
+        <v> Thailand</v>
       </c>
       <c r="AM7" s="12">
         <f t="shared" ref="AM7:AM13" si="13">IF(OR(D7="",F7=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7" s="12">
         <f t="shared" ref="AN7:AN13" si="14">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,D7,F7))</f>
@@ -18190,7 +18230,7 @@
       </c>
       <c r="AO7" s="12">
         <f t="shared" ref="AO7:AO13" si="15">IF(OR(D7="",F7=""),0,IF(D7&lt;F7,F7,D7))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP7" s="12">
         <f t="shared" ref="AP7:AP13" si="16">IF(AND(AN7=2,AO7=3),1,0)</f>
@@ -18202,15 +18242,15 @@
       </c>
       <c r="AR7" s="12">
         <f t="shared" ref="AR7:AR13" si="18">IF(AND(AN7=0,AO7=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7" s="12">
         <f t="shared" ref="AS7:AS13" si="19">IF(D7&lt;F7,SUM(H7,K7,N7,Q7,T7,),SUM(J7,M7,P7,S7,V7))</f>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="AT7" s="12">
         <f t="shared" ref="AT7:AT13" si="20">IF(D7&lt;F7,SUM(J7,M7,P7,S7,V7),SUM(H7,K7,N7,Q7,T7))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8" spans="2:67" x14ac:dyDescent="0.25">
@@ -19086,52 +19126,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="64" t="s">
+      <c r="AU15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AV15" s="64"/>
+      <c r="AV15" s="62"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75" t="s">
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19189,10 +19229,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="65" t="s">
+      <c r="AU16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="66"/>
+      <c r="AV16" s="64"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19200,7 +19240,7 @@
       </c>
       <c r="C17" s="24" t="str">
         <f>IF(AB6=0,"Winner R1",AB6)</f>
-        <v>Winner R1</v>
+        <v> Netherlands</v>
       </c>
       <c r="D17" s="48"/>
       <c r="E17" s="49" t="s">
@@ -19209,7 +19249,7 @@
       <c r="F17" s="47"/>
       <c r="G17" s="25" t="str">
         <f>IF(AB7=0,"Winner R2",AB7)</f>
-        <v>Winner R2</v>
+        <v> Japan</v>
       </c>
       <c r="H17" s="28"/>
       <c r="I17" s="29" t="s">
@@ -19323,10 +19363,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="67" t="s">
+      <c r="AU17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="68"/>
+      <c r="AV17" s="66"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19457,10 +19497,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="67" t="s">
+      <c r="AU18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="68"/>
+      <c r="AV18" s="66"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19591,10 +19631,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="67" t="s">
+      <c r="AU19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="68"/>
+      <c r="AV19" s="66"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19725,10 +19765,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="69" t="s">
+      <c r="AU20" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="70"/>
+      <c r="AV20" s="68"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19764,42 +19804,42 @@
         <v>86</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75" t="s">
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75" t="s">
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75" t="s">
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -20171,42 +20211,42 @@
         <v>86</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="75" t="s">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75" t="s">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20468,42 +20508,42 @@
         <v>86</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75" t="s">
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75" t="s">
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75" t="s">
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20821,6 +20861,38 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="48">
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B33:Y33"/>
+    <mergeCell ref="AU15:AV15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AU16:AV16"/>
+    <mergeCell ref="AU17:AV17"/>
     <mergeCell ref="B2:AV2"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="W16:Y16"/>
@@ -20837,38 +20909,6 @@
     <mergeCell ref="AU18:AV18"/>
     <mergeCell ref="AU19:AV19"/>
     <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="B33:Y33"/>
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AU16:AV16"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 B4:XFD4 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -21043,15 +21083,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21284,6 +21315,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -21293,14 +21333,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21319,19 +21351,27 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/2025 FIVB Women's Volleyball World Championship.xlsx
+++ b/2025 FIVB Women's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C8AA3544-59FD-4827-8403-BC02A947CAAF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FDF2D4-9AB6-4FA5-A737-AA5296B46BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -863,22 +863,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -906,28 +912,22 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5393,6 +5393,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5401,11 +5406,6 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5478,74 +5478,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
-      <c r="AW2" s="75"/>
-      <c r="AX2" s="75"/>
-      <c r="AY2" s="75"/>
-      <c r="AZ2" s="75"/>
-      <c r="BA2" s="75"/>
-      <c r="BB2" s="75"/>
-      <c r="BC2" s="75"/>
-      <c r="BD2" s="75"/>
-      <c r="BE2" s="75"/>
-      <c r="BF2" s="75"/>
-      <c r="BG2" s="75"/>
-      <c r="BH2" s="75"/>
-      <c r="BI2" s="75"/>
-      <c r="BJ2" s="75"/>
-      <c r="BK2" s="75"/>
-      <c r="BL2" s="75"/>
-      <c r="BM2" s="75"/>
-      <c r="BN2" s="75"/>
-      <c r="BO2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
+      <c r="AW2" s="56"/>
+      <c r="AX2" s="56"/>
+      <c r="AY2" s="56"/>
+      <c r="AZ2" s="56"/>
+      <c r="BA2" s="56"/>
+      <c r="BB2" s="56"/>
+      <c r="BC2" s="56"/>
+      <c r="BD2" s="56"/>
+      <c r="BE2" s="56"/>
+      <c r="BF2" s="56"/>
+      <c r="BG2" s="56"/>
+      <c r="BH2" s="56"/>
+      <c r="BI2" s="56"/>
+      <c r="BJ2" s="56"/>
+      <c r="BK2" s="56"/>
+      <c r="BL2" s="56"/>
+      <c r="BM2" s="56"/>
+      <c r="BN2" s="56"/>
+      <c r="BO2" s="56"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5568,116 +5568,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="76" t="s">
+      <c r="B4" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
-      <c r="I4" s="76"/>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
-      <c r="R4" s="76"/>
-      <c r="S4" s="76"/>
-      <c r="T4" s="76"/>
-      <c r="U4" s="76"/>
-      <c r="V4" s="76"/>
-      <c r="W4" s="76"/>
-      <c r="X4" s="76"/>
-      <c r="Y4" s="76"/>
-      <c r="Z4" s="76"/>
-      <c r="AA4" s="76"/>
-      <c r="AB4" s="76"/>
-      <c r="AC4" s="76"/>
-      <c r="AD4" s="76"/>
-      <c r="AE4" s="76"/>
-      <c r="AF4" s="76"/>
-      <c r="AG4" s="76"/>
-      <c r="AH4" s="76"/>
-      <c r="AI4" s="76"/>
-      <c r="AJ4" s="76"/>
-      <c r="AK4" s="76"/>
-      <c r="AL4" s="76"/>
-      <c r="AM4" s="76"/>
-      <c r="AN4" s="76"/>
-      <c r="AO4" s="76"/>
-      <c r="AP4" s="76"/>
-      <c r="AQ4" s="76"/>
-      <c r="AR4" s="76"/>
-      <c r="AS4" s="76"/>
-      <c r="AT4" s="76"/>
-      <c r="AU4" s="76"/>
-      <c r="AV4" s="76"/>
-      <c r="AW4" s="76"/>
-      <c r="AX4" s="76"/>
-      <c r="AY4" s="76"/>
-      <c r="AZ4" s="76"/>
-      <c r="BA4" s="76"/>
-      <c r="BB4" s="76"/>
-      <c r="BC4" s="76"/>
-      <c r="BD4" s="76"/>
-      <c r="BE4" s="76"/>
-      <c r="BF4" s="76"/>
-      <c r="BG4" s="76"/>
-      <c r="BH4" s="76"/>
-      <c r="BI4" s="76"/>
-      <c r="BJ4" s="76"/>
-      <c r="BK4" s="76"/>
-      <c r="BL4" s="76"/>
-      <c r="BM4" s="76"/>
-      <c r="BN4" s="76"/>
-      <c r="BO4" s="76"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
+      <c r="O4" s="57"/>
+      <c r="P4" s="57"/>
+      <c r="Q4" s="57"/>
+      <c r="R4" s="57"/>
+      <c r="S4" s="57"/>
+      <c r="T4" s="57"/>
+      <c r="U4" s="57"/>
+      <c r="V4" s="57"/>
+      <c r="W4" s="57"/>
+      <c r="X4" s="57"/>
+      <c r="Y4" s="57"/>
+      <c r="Z4" s="57"/>
+      <c r="AA4" s="57"/>
+      <c r="AB4" s="57"/>
+      <c r="AC4" s="57"/>
+      <c r="AD4" s="57"/>
+      <c r="AE4" s="57"/>
+      <c r="AF4" s="57"/>
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="57"/>
+      <c r="AI4" s="57"/>
+      <c r="AJ4" s="57"/>
+      <c r="AK4" s="57"/>
+      <c r="AL4" s="57"/>
+      <c r="AM4" s="57"/>
+      <c r="AN4" s="57"/>
+      <c r="AO4" s="57"/>
+      <c r="AP4" s="57"/>
+      <c r="AQ4" s="57"/>
+      <c r="AR4" s="57"/>
+      <c r="AS4" s="57"/>
+      <c r="AT4" s="57"/>
+      <c r="AU4" s="57"/>
+      <c r="AV4" s="57"/>
+      <c r="AW4" s="57"/>
+      <c r="AX4" s="57"/>
+      <c r="AY4" s="57"/>
+      <c r="AZ4" s="57"/>
+      <c r="BA4" s="57"/>
+      <c r="BB4" s="57"/>
+      <c r="BC4" s="57"/>
+      <c r="BD4" s="57"/>
+      <c r="BE4" s="57"/>
+      <c r="BF4" s="57"/>
+      <c r="BG4" s="57"/>
+      <c r="BH4" s="57"/>
+      <c r="BI4" s="57"/>
+      <c r="BJ4" s="57"/>
+      <c r="BK4" s="57"/>
+      <c r="BL4" s="57"/>
+      <c r="BM4" s="57"/>
+      <c r="BN4" s="57"/>
+      <c r="BO4" s="57"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5735,34 +5735,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="72" t="s">
+      <c r="AX5" s="61" t="s">
         <v>93</v>
       </c>
-      <c r="AY5" s="73"/>
-      <c r="AZ5" s="74"/>
-      <c r="BA5" s="72" t="s">
+      <c r="AY5" s="62"/>
+      <c r="AZ5" s="63"/>
+      <c r="BA5" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="BB5" s="73"/>
-      <c r="BC5" s="74"/>
-      <c r="BD5" s="72" t="s">
+      <c r="BB5" s="62"/>
+      <c r="BC5" s="63"/>
+      <c r="BD5" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="BE5" s="73"/>
-      <c r="BF5" s="73"/>
-      <c r="BG5" s="73"/>
-      <c r="BH5" s="73"/>
-      <c r="BI5" s="74"/>
-      <c r="BJ5" s="72" t="s">
+      <c r="BE5" s="62"/>
+      <c r="BF5" s="62"/>
+      <c r="BG5" s="62"/>
+      <c r="BH5" s="62"/>
+      <c r="BI5" s="63"/>
+      <c r="BJ5" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="73"/>
-      <c r="BL5" s="74"/>
-      <c r="BM5" s="72" t="s">
+      <c r="BK5" s="62"/>
+      <c r="BL5" s="63"/>
+      <c r="BM5" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="BN5" s="73"/>
-      <c r="BO5" s="74"/>
+      <c r="BN5" s="62"/>
+      <c r="BO5" s="63"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7031,116 +7031,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="76"/>
-      <c r="I12" s="76"/>
-      <c r="J12" s="76"/>
-      <c r="K12" s="76"/>
-      <c r="L12" s="76"/>
-      <c r="M12" s="76"/>
-      <c r="N12" s="76"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="76"/>
-      <c r="Y12" s="76"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="76"/>
-      <c r="AX12" s="76"/>
-      <c r="AY12" s="76"/>
-      <c r="AZ12" s="76"/>
-      <c r="BA12" s="76"/>
-      <c r="BB12" s="76"/>
-      <c r="BC12" s="76"/>
-      <c r="BD12" s="76"/>
-      <c r="BE12" s="76"/>
-      <c r="BF12" s="76"/>
-      <c r="BG12" s="76"/>
-      <c r="BH12" s="76"/>
-      <c r="BI12" s="76"/>
-      <c r="BJ12" s="76"/>
-      <c r="BK12" s="76"/>
-      <c r="BL12" s="76"/>
-      <c r="BM12" s="76"/>
-      <c r="BN12" s="76"/>
-      <c r="BO12" s="76"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="57"/>
+      <c r="T12" s="57"/>
+      <c r="U12" s="57"/>
+      <c r="V12" s="57"/>
+      <c r="W12" s="57"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="57"/>
+      <c r="Z12" s="57"/>
+      <c r="AA12" s="57"/>
+      <c r="AB12" s="57"/>
+      <c r="AC12" s="57"/>
+      <c r="AD12" s="57"/>
+      <c r="AE12" s="57"/>
+      <c r="AF12" s="57"/>
+      <c r="AG12" s="57"/>
+      <c r="AH12" s="57"/>
+      <c r="AI12" s="57"/>
+      <c r="AJ12" s="57"/>
+      <c r="AK12" s="57"/>
+      <c r="AL12" s="57"/>
+      <c r="AM12" s="57"/>
+      <c r="AN12" s="57"/>
+      <c r="AO12" s="57"/>
+      <c r="AP12" s="57"/>
+      <c r="AQ12" s="57"/>
+      <c r="AR12" s="57"/>
+      <c r="AS12" s="57"/>
+      <c r="AT12" s="57"/>
+      <c r="AU12" s="57"/>
+      <c r="AV12" s="57"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="57"/>
+      <c r="AY12" s="57"/>
+      <c r="AZ12" s="57"/>
+      <c r="BA12" s="57"/>
+      <c r="BB12" s="57"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BK12" s="57"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="57"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="57"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="60" t="s">
+      <c r="D13" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="61" t="s">
+      <c r="H13" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="61" t="s">
+      <c r="I13" s="73"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="59"/>
-      <c r="M13" s="59"/>
-      <c r="N13" s="61" t="s">
+      <c r="L13" s="73"/>
+      <c r="M13" s="73"/>
+      <c r="N13" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="59"/>
-      <c r="P13" s="59"/>
-      <c r="Q13" s="61" t="s">
+      <c r="O13" s="73"/>
+      <c r="P13" s="73"/>
+      <c r="Q13" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="59"/>
-      <c r="S13" s="59"/>
-      <c r="T13" s="61" t="s">
+      <c r="R13" s="73"/>
+      <c r="S13" s="73"/>
+      <c r="T13" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="59"/>
-      <c r="V13" s="59"/>
-      <c r="W13" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="59"/>
-      <c r="Y13" s="59"/>
+      <c r="U13" s="73"/>
+      <c r="V13" s="73"/>
+      <c r="W13" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7198,34 +7198,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="69" t="s">
+      <c r="AX13" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY13" s="70"/>
-      <c r="AZ13" s="71"/>
-      <c r="BA13" s="69" t="s">
+      <c r="AY13" s="59"/>
+      <c r="AZ13" s="60"/>
+      <c r="BA13" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB13" s="70"/>
-      <c r="BC13" s="71"/>
-      <c r="BD13" s="69" t="s">
+      <c r="BB13" s="59"/>
+      <c r="BC13" s="60"/>
+      <c r="BD13" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE13" s="70"/>
-      <c r="BF13" s="70"/>
-      <c r="BG13" s="70"/>
-      <c r="BH13" s="70"/>
-      <c r="BI13" s="71"/>
-      <c r="BJ13" s="69" t="s">
+      <c r="BE13" s="59"/>
+      <c r="BF13" s="59"/>
+      <c r="BG13" s="59"/>
+      <c r="BH13" s="59"/>
+      <c r="BI13" s="60"/>
+      <c r="BJ13" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="70"/>
-      <c r="BL13" s="71"/>
-      <c r="BM13" s="69" t="s">
+      <c r="BK13" s="59"/>
+      <c r="BL13" s="60"/>
+      <c r="BM13" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN13" s="70"/>
-      <c r="BO13" s="71"/>
+      <c r="BN13" s="59"/>
+      <c r="BO13" s="60"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8478,116 +8478,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="76" t="s">
+      <c r="B20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="76"/>
-      <c r="K20" s="76"/>
-      <c r="L20" s="76"/>
-      <c r="M20" s="76"/>
-      <c r="N20" s="76"/>
-      <c r="O20" s="76"/>
-      <c r="P20" s="76"/>
-      <c r="Q20" s="76"/>
-      <c r="R20" s="76"/>
-      <c r="S20" s="76"/>
-      <c r="T20" s="76"/>
-      <c r="U20" s="76"/>
-      <c r="V20" s="76"/>
-      <c r="W20" s="76"/>
-      <c r="X20" s="76"/>
-      <c r="Y20" s="76"/>
-      <c r="Z20" s="76"/>
-      <c r="AA20" s="76"/>
-      <c r="AB20" s="76"/>
-      <c r="AC20" s="76"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="76"/>
-      <c r="AH20" s="76"/>
-      <c r="AI20" s="76"/>
-      <c r="AJ20" s="76"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="76"/>
-      <c r="AP20" s="76"/>
-      <c r="AQ20" s="76"/>
-      <c r="AR20" s="76"/>
-      <c r="AS20" s="76"/>
-      <c r="AT20" s="76"/>
-      <c r="AU20" s="76"/>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="76"/>
-      <c r="BK20" s="76"/>
-      <c r="BL20" s="76"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
-      <c r="BO20" s="76"/>
+      <c r="C20" s="57"/>
+      <c r="D20" s="57"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
+      <c r="S20" s="57"/>
+      <c r="T20" s="57"/>
+      <c r="U20" s="57"/>
+      <c r="V20" s="57"/>
+      <c r="W20" s="57"/>
+      <c r="X20" s="57"/>
+      <c r="Y20" s="57"/>
+      <c r="Z20" s="57"/>
+      <c r="AA20" s="57"/>
+      <c r="AB20" s="57"/>
+      <c r="AC20" s="57"/>
+      <c r="AD20" s="57"/>
+      <c r="AE20" s="57"/>
+      <c r="AF20" s="57"/>
+      <c r="AG20" s="57"/>
+      <c r="AH20" s="57"/>
+      <c r="AI20" s="57"/>
+      <c r="AJ20" s="57"/>
+      <c r="AK20" s="57"/>
+      <c r="AL20" s="57"/>
+      <c r="AM20" s="57"/>
+      <c r="AN20" s="57"/>
+      <c r="AO20" s="57"/>
+      <c r="AP20" s="57"/>
+      <c r="AQ20" s="57"/>
+      <c r="AR20" s="57"/>
+      <c r="AS20" s="57"/>
+      <c r="AT20" s="57"/>
+      <c r="AU20" s="57"/>
+      <c r="AV20" s="57"/>
+      <c r="AW20" s="57"/>
+      <c r="AX20" s="57"/>
+      <c r="AY20" s="57"/>
+      <c r="AZ20" s="57"/>
+      <c r="BA20" s="57"/>
+      <c r="BB20" s="57"/>
+      <c r="BC20" s="57"/>
+      <c r="BD20" s="57"/>
+      <c r="BE20" s="57"/>
+      <c r="BF20" s="57"/>
+      <c r="BG20" s="57"/>
+      <c r="BH20" s="57"/>
+      <c r="BI20" s="57"/>
+      <c r="BJ20" s="57"/>
+      <c r="BK20" s="57"/>
+      <c r="BL20" s="57"/>
+      <c r="BM20" s="57"/>
+      <c r="BN20" s="57"/>
+      <c r="BO20" s="57"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="60" t="s">
+      <c r="D21" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="71"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="61" t="s">
+      <c r="H21" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="61" t="s">
+      <c r="I21" s="73"/>
+      <c r="J21" s="73"/>
+      <c r="K21" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="61" t="s">
+      <c r="L21" s="73"/>
+      <c r="M21" s="73"/>
+      <c r="N21" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="61" t="s">
+      <c r="O21" s="73"/>
+      <c r="P21" s="73"/>
+      <c r="Q21" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="61" t="s">
+      <c r="R21" s="73"/>
+      <c r="S21" s="73"/>
+      <c r="T21" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
+      <c r="U21" s="73"/>
+      <c r="V21" s="73"/>
+      <c r="W21" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8645,34 +8645,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="69" t="s">
+      <c r="AX21" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY21" s="70"/>
-      <c r="AZ21" s="71"/>
-      <c r="BA21" s="69" t="s">
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="60"/>
+      <c r="BA21" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB21" s="70"/>
-      <c r="BC21" s="71"/>
-      <c r="BD21" s="69" t="s">
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="60"/>
+      <c r="BD21" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE21" s="70"/>
-      <c r="BF21" s="70"/>
-      <c r="BG21" s="70"/>
-      <c r="BH21" s="70"/>
-      <c r="BI21" s="71"/>
-      <c r="BJ21" s="69" t="s">
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="70"/>
-      <c r="BL21" s="71"/>
-      <c r="BM21" s="69" t="s">
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="60"/>
+      <c r="BM21" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN21" s="70"/>
-      <c r="BO21" s="71"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="60"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9937,116 +9937,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="76" t="s">
+      <c r="B28" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="76"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
-      <c r="P28" s="76"/>
-      <c r="Q28" s="76"/>
-      <c r="R28" s="76"/>
-      <c r="S28" s="76"/>
-      <c r="T28" s="76"/>
-      <c r="U28" s="76"/>
-      <c r="V28" s="76"/>
-      <c r="W28" s="76"/>
-      <c r="X28" s="76"/>
-      <c r="Y28" s="76"/>
-      <c r="Z28" s="76"/>
-      <c r="AA28" s="76"/>
-      <c r="AB28" s="76"/>
-      <c r="AC28" s="76"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
-      <c r="AG28" s="76"/>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="76"/>
-      <c r="AJ28" s="76"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="76"/>
-      <c r="AP28" s="76"/>
-      <c r="AQ28" s="76"/>
-      <c r="AR28" s="76"/>
-      <c r="AS28" s="76"/>
-      <c r="AT28" s="76"/>
-      <c r="AU28" s="76"/>
-      <c r="AV28" s="76"/>
-      <c r="AW28" s="76"/>
-      <c r="AX28" s="76"/>
-      <c r="AY28" s="76"/>
-      <c r="AZ28" s="76"/>
-      <c r="BA28" s="76"/>
-      <c r="BB28" s="76"/>
-      <c r="BC28" s="76"/>
-      <c r="BD28" s="76"/>
-      <c r="BE28" s="76"/>
-      <c r="BF28" s="76"/>
-      <c r="BG28" s="76"/>
-      <c r="BH28" s="76"/>
-      <c r="BI28" s="76"/>
-      <c r="BJ28" s="76"/>
-      <c r="BK28" s="76"/>
-      <c r="BL28" s="76"/>
-      <c r="BM28" s="76"/>
-      <c r="BN28" s="76"/>
-      <c r="BO28" s="76"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+      <c r="K28" s="57"/>
+      <c r="L28" s="57"/>
+      <c r="M28" s="57"/>
+      <c r="N28" s="57"/>
+      <c r="O28" s="57"/>
+      <c r="P28" s="57"/>
+      <c r="Q28" s="57"/>
+      <c r="R28" s="57"/>
+      <c r="S28" s="57"/>
+      <c r="T28" s="57"/>
+      <c r="U28" s="57"/>
+      <c r="V28" s="57"/>
+      <c r="W28" s="57"/>
+      <c r="X28" s="57"/>
+      <c r="Y28" s="57"/>
+      <c r="Z28" s="57"/>
+      <c r="AA28" s="57"/>
+      <c r="AB28" s="57"/>
+      <c r="AC28" s="57"/>
+      <c r="AD28" s="57"/>
+      <c r="AE28" s="57"/>
+      <c r="AF28" s="57"/>
+      <c r="AG28" s="57"/>
+      <c r="AH28" s="57"/>
+      <c r="AI28" s="57"/>
+      <c r="AJ28" s="57"/>
+      <c r="AK28" s="57"/>
+      <c r="AL28" s="57"/>
+      <c r="AM28" s="57"/>
+      <c r="AN28" s="57"/>
+      <c r="AO28" s="57"/>
+      <c r="AP28" s="57"/>
+      <c r="AQ28" s="57"/>
+      <c r="AR28" s="57"/>
+      <c r="AS28" s="57"/>
+      <c r="AT28" s="57"/>
+      <c r="AU28" s="57"/>
+      <c r="AV28" s="57"/>
+      <c r="AW28" s="57"/>
+      <c r="AX28" s="57"/>
+      <c r="AY28" s="57"/>
+      <c r="AZ28" s="57"/>
+      <c r="BA28" s="57"/>
+      <c r="BB28" s="57"/>
+      <c r="BC28" s="57"/>
+      <c r="BD28" s="57"/>
+      <c r="BE28" s="57"/>
+      <c r="BF28" s="57"/>
+      <c r="BG28" s="57"/>
+      <c r="BH28" s="57"/>
+      <c r="BI28" s="57"/>
+      <c r="BJ28" s="57"/>
+      <c r="BK28" s="57"/>
+      <c r="BL28" s="57"/>
+      <c r="BM28" s="57"/>
+      <c r="BN28" s="57"/>
+      <c r="BO28" s="57"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="60" t="s">
+      <c r="D29" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="60"/>
-      <c r="F29" s="60"/>
+      <c r="E29" s="71"/>
+      <c r="F29" s="71"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="61" t="s">
+      <c r="H29" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="61" t="s">
+      <c r="I29" s="73"/>
+      <c r="J29" s="73"/>
+      <c r="K29" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="61" t="s">
+      <c r="L29" s="73"/>
+      <c r="M29" s="73"/>
+      <c r="N29" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="61" t="s">
+      <c r="O29" s="73"/>
+      <c r="P29" s="73"/>
+      <c r="Q29" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="61" t="s">
+      <c r="R29" s="73"/>
+      <c r="S29" s="73"/>
+      <c r="T29" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
+      <c r="U29" s="73"/>
+      <c r="V29" s="73"/>
+      <c r="W29" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10104,34 +10104,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="69" t="s">
+      <c r="AX29" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY29" s="70"/>
-      <c r="AZ29" s="71"/>
-      <c r="BA29" s="69" t="s">
+      <c r="AY29" s="59"/>
+      <c r="AZ29" s="60"/>
+      <c r="BA29" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB29" s="70"/>
-      <c r="BC29" s="71"/>
-      <c r="BD29" s="69" t="s">
+      <c r="BB29" s="59"/>
+      <c r="BC29" s="60"/>
+      <c r="BD29" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE29" s="70"/>
-      <c r="BF29" s="70"/>
-      <c r="BG29" s="70"/>
-      <c r="BH29" s="70"/>
-      <c r="BI29" s="71"/>
-      <c r="BJ29" s="69" t="s">
+      <c r="BE29" s="59"/>
+      <c r="BF29" s="59"/>
+      <c r="BG29" s="59"/>
+      <c r="BH29" s="59"/>
+      <c r="BI29" s="60"/>
+      <c r="BJ29" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="70"/>
-      <c r="BL29" s="71"/>
-      <c r="BM29" s="69" t="s">
+      <c r="BK29" s="59"/>
+      <c r="BL29" s="60"/>
+      <c r="BM29" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN29" s="70"/>
-      <c r="BO29" s="71"/>
+      <c r="BN29" s="59"/>
+      <c r="BO29" s="60"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11396,120 +11396,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="76"/>
-      <c r="J36" s="76"/>
-      <c r="K36" s="76"/>
-      <c r="L36" s="76"/>
-      <c r="M36" s="76"/>
-      <c r="N36" s="76"/>
-      <c r="O36" s="76"/>
-      <c r="P36" s="76"/>
-      <c r="Q36" s="76"/>
-      <c r="R36" s="76"/>
-      <c r="S36" s="76"/>
-      <c r="T36" s="76"/>
-      <c r="U36" s="76"/>
-      <c r="V36" s="76"/>
-      <c r="W36" s="76"/>
-      <c r="X36" s="76"/>
-      <c r="Y36" s="76"/>
-      <c r="Z36" s="76"/>
-      <c r="AA36" s="76"/>
-      <c r="AB36" s="76"/>
-      <c r="AC36" s="76"/>
-      <c r="AD36" s="76"/>
-      <c r="AE36" s="76"/>
-      <c r="AF36" s="76"/>
-      <c r="AG36" s="76"/>
-      <c r="AH36" s="76"/>
-      <c r="AI36" s="76"/>
-      <c r="AJ36" s="76"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="76"/>
-      <c r="AM36" s="76"/>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="76"/>
-      <c r="AP36" s="76"/>
-      <c r="AQ36" s="76"/>
-      <c r="AR36" s="76"/>
-      <c r="AS36" s="76"/>
-      <c r="AT36" s="76"/>
-      <c r="AU36" s="76"/>
-      <c r="AV36" s="76"/>
-      <c r="AW36" s="76"/>
-      <c r="AX36" s="76"/>
-      <c r="AY36" s="76"/>
-      <c r="AZ36" s="76"/>
-      <c r="BA36" s="76"/>
-      <c r="BB36" s="76"/>
-      <c r="BC36" s="76"/>
-      <c r="BD36" s="76"/>
-      <c r="BE36" s="76"/>
-      <c r="BF36" s="76"/>
-      <c r="BG36" s="76"/>
-      <c r="BH36" s="76"/>
-      <c r="BI36" s="76"/>
-      <c r="BJ36" s="76"/>
-      <c r="BK36" s="76"/>
-      <c r="BL36" s="76"/>
-      <c r="BM36" s="76"/>
-      <c r="BN36" s="76"/>
-      <c r="BO36" s="76"/>
-      <c r="BQ36" s="62" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="57"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="57"/>
+      <c r="M36" s="57"/>
+      <c r="N36" s="57"/>
+      <c r="O36" s="57"/>
+      <c r="P36" s="57"/>
+      <c r="Q36" s="57"/>
+      <c r="R36" s="57"/>
+      <c r="S36" s="57"/>
+      <c r="T36" s="57"/>
+      <c r="U36" s="57"/>
+      <c r="V36" s="57"/>
+      <c r="W36" s="57"/>
+      <c r="X36" s="57"/>
+      <c r="Y36" s="57"/>
+      <c r="Z36" s="57"/>
+      <c r="AA36" s="57"/>
+      <c r="AB36" s="57"/>
+      <c r="AC36" s="57"/>
+      <c r="AD36" s="57"/>
+      <c r="AE36" s="57"/>
+      <c r="AF36" s="57"/>
+      <c r="AG36" s="57"/>
+      <c r="AH36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="57"/>
+      <c r="AM36" s="57"/>
+      <c r="AN36" s="57"/>
+      <c r="AO36" s="57"/>
+      <c r="AP36" s="57"/>
+      <c r="AQ36" s="57"/>
+      <c r="AR36" s="57"/>
+      <c r="AS36" s="57"/>
+      <c r="AT36" s="57"/>
+      <c r="AU36" s="57"/>
+      <c r="AV36" s="57"/>
+      <c r="AW36" s="57"/>
+      <c r="AX36" s="57"/>
+      <c r="AY36" s="57"/>
+      <c r="AZ36" s="57"/>
+      <c r="BA36" s="57"/>
+      <c r="BB36" s="57"/>
+      <c r="BC36" s="57"/>
+      <c r="BD36" s="57"/>
+      <c r="BE36" s="57"/>
+      <c r="BF36" s="57"/>
+      <c r="BG36" s="57"/>
+      <c r="BH36" s="57"/>
+      <c r="BI36" s="57"/>
+      <c r="BJ36" s="57"/>
+      <c r="BK36" s="57"/>
+      <c r="BL36" s="57"/>
+      <c r="BM36" s="57"/>
+      <c r="BN36" s="57"/>
+      <c r="BO36" s="57"/>
+      <c r="BQ36" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="BR36" s="62"/>
+      <c r="BR36" s="64"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="60" t="s">
+      <c r="D37" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="61" t="s">
+      <c r="H37" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="61" t="s">
+      <c r="I37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="61" t="s">
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="59"/>
-      <c r="P37" s="59"/>
-      <c r="Q37" s="61" t="s">
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
+      <c r="Q37" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="61" t="s">
+      <c r="R37" s="73"/>
+      <c r="S37" s="73"/>
+      <c r="T37" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="W37" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="59"/>
-      <c r="Y37" s="59"/>
+      <c r="U37" s="73"/>
+      <c r="V37" s="73"/>
+      <c r="W37" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11567,38 +11567,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="69" t="s">
+      <c r="AX37" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY37" s="70"/>
-      <c r="AZ37" s="71"/>
-      <c r="BA37" s="69" t="s">
+      <c r="AY37" s="59"/>
+      <c r="AZ37" s="60"/>
+      <c r="BA37" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB37" s="70"/>
-      <c r="BC37" s="71"/>
-      <c r="BD37" s="69" t="s">
+      <c r="BB37" s="59"/>
+      <c r="BC37" s="60"/>
+      <c r="BD37" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE37" s="70"/>
-      <c r="BF37" s="70"/>
-      <c r="BG37" s="70"/>
-      <c r="BH37" s="70"/>
-      <c r="BI37" s="71"/>
-      <c r="BJ37" s="69" t="s">
+      <c r="BE37" s="59"/>
+      <c r="BF37" s="59"/>
+      <c r="BG37" s="59"/>
+      <c r="BH37" s="59"/>
+      <c r="BI37" s="60"/>
+      <c r="BJ37" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="70"/>
-      <c r="BL37" s="71"/>
-      <c r="BM37" s="69" t="s">
+      <c r="BK37" s="59"/>
+      <c r="BL37" s="60"/>
+      <c r="BM37" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN37" s="70"/>
-      <c r="BO37" s="71"/>
-      <c r="BQ37" s="63" t="s">
+      <c r="BN37" s="59"/>
+      <c r="BO37" s="60"/>
+      <c r="BQ37" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="64"/>
+      <c r="BR37" s="66"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11809,10 +11809,10 @@
       <c r="BO38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="BQ38" s="65" t="s">
+      <c r="BQ38" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="66"/>
+      <c r="BR38" s="68"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -12036,10 +12036,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1297.1428571428571</v>
       </c>
-      <c r="BQ39" s="65" t="s">
+      <c r="BQ39" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="66"/>
+      <c r="BR39" s="68"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12271,10 +12271,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1026.5151515151515</v>
       </c>
-      <c r="BQ40" s="65" t="s">
+      <c r="BQ40" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="66"/>
+      <c r="BR40" s="68"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12498,10 +12498,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>973.88059701492534</v>
       </c>
-      <c r="BQ41" s="67" t="s">
+      <c r="BQ41" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="68"/>
+      <c r="BR41" s="70"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12875,116 +12875,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="76" t="s">
+      <c r="B44" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="76"/>
-      <c r="T44" s="76"/>
-      <c r="U44" s="76"/>
-      <c r="V44" s="76"/>
-      <c r="W44" s="76"/>
-      <c r="X44" s="76"/>
-      <c r="Y44" s="76"/>
-      <c r="Z44" s="76"/>
-      <c r="AA44" s="76"/>
-      <c r="AB44" s="76"/>
-      <c r="AC44" s="76"/>
-      <c r="AD44" s="76"/>
-      <c r="AE44" s="76"/>
-      <c r="AF44" s="76"/>
-      <c r="AG44" s="76"/>
-      <c r="AH44" s="76"/>
-      <c r="AI44" s="76"/>
-      <c r="AJ44" s="76"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="76"/>
-      <c r="AP44" s="76"/>
-      <c r="AQ44" s="76"/>
-      <c r="AR44" s="76"/>
-      <c r="AS44" s="76"/>
-      <c r="AT44" s="76"/>
-      <c r="AU44" s="76"/>
-      <c r="AV44" s="76"/>
-      <c r="AW44" s="76"/>
-      <c r="AX44" s="76"/>
-      <c r="AY44" s="76"/>
-      <c r="AZ44" s="76"/>
-      <c r="BA44" s="76"/>
-      <c r="BB44" s="76"/>
-      <c r="BC44" s="76"/>
-      <c r="BD44" s="76"/>
-      <c r="BE44" s="76"/>
-      <c r="BF44" s="76"/>
-      <c r="BG44" s="76"/>
-      <c r="BH44" s="76"/>
-      <c r="BI44" s="76"/>
-      <c r="BJ44" s="76"/>
-      <c r="BK44" s="76"/>
-      <c r="BL44" s="76"/>
-      <c r="BM44" s="76"/>
-      <c r="BN44" s="76"/>
-      <c r="BO44" s="76"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
+      <c r="AK44" s="57"/>
+      <c r="AL44" s="57"/>
+      <c r="AM44" s="57"/>
+      <c r="AN44" s="57"/>
+      <c r="AO44" s="57"/>
+      <c r="AP44" s="57"/>
+      <c r="AQ44" s="57"/>
+      <c r="AR44" s="57"/>
+      <c r="AS44" s="57"/>
+      <c r="AT44" s="57"/>
+      <c r="AU44" s="57"/>
+      <c r="AV44" s="57"/>
+      <c r="AW44" s="57"/>
+      <c r="AX44" s="57"/>
+      <c r="AY44" s="57"/>
+      <c r="AZ44" s="57"/>
+      <c r="BA44" s="57"/>
+      <c r="BB44" s="57"/>
+      <c r="BC44" s="57"/>
+      <c r="BD44" s="57"/>
+      <c r="BE44" s="57"/>
+      <c r="BF44" s="57"/>
+      <c r="BG44" s="57"/>
+      <c r="BH44" s="57"/>
+      <c r="BI44" s="57"/>
+      <c r="BJ44" s="57"/>
+      <c r="BK44" s="57"/>
+      <c r="BL44" s="57"/>
+      <c r="BM44" s="57"/>
+      <c r="BN44" s="57"/>
+      <c r="BO44" s="57"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="60" t="s">
+      <c r="D45" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
+      <c r="E45" s="71"/>
+      <c r="F45" s="71"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="61" t="s">
+      <c r="H45" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="59"/>
-      <c r="J45" s="59"/>
-      <c r="K45" s="61" t="s">
+      <c r="I45" s="73"/>
+      <c r="J45" s="73"/>
+      <c r="K45" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L45" s="59"/>
-      <c r="M45" s="59"/>
-      <c r="N45" s="61" t="s">
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O45" s="59"/>
-      <c r="P45" s="59"/>
-      <c r="Q45" s="61" t="s">
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
+      <c r="Q45" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R45" s="59"/>
-      <c r="S45" s="59"/>
-      <c r="T45" s="61" t="s">
+      <c r="R45" s="73"/>
+      <c r="S45" s="73"/>
+      <c r="T45" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U45" s="59"/>
-      <c r="V45" s="59"/>
-      <c r="W45" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="59"/>
-      <c r="Y45" s="59"/>
+      <c r="U45" s="73"/>
+      <c r="V45" s="73"/>
+      <c r="W45" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13042,34 +13042,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="69" t="s">
+      <c r="AX45" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY45" s="70"/>
-      <c r="AZ45" s="71"/>
-      <c r="BA45" s="69" t="s">
+      <c r="AY45" s="59"/>
+      <c r="AZ45" s="60"/>
+      <c r="BA45" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB45" s="70"/>
-      <c r="BC45" s="71"/>
-      <c r="BD45" s="69" t="s">
+      <c r="BB45" s="59"/>
+      <c r="BC45" s="60"/>
+      <c r="BD45" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE45" s="70"/>
-      <c r="BF45" s="70"/>
-      <c r="BG45" s="70"/>
-      <c r="BH45" s="70"/>
-      <c r="BI45" s="71"/>
-      <c r="BJ45" s="69" t="s">
+      <c r="BE45" s="59"/>
+      <c r="BF45" s="59"/>
+      <c r="BG45" s="59"/>
+      <c r="BH45" s="59"/>
+      <c r="BI45" s="60"/>
+      <c r="BJ45" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="70"/>
-      <c r="BL45" s="71"/>
-      <c r="BM45" s="69" t="s">
+      <c r="BK45" s="59"/>
+      <c r="BL45" s="60"/>
+      <c r="BM45" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN45" s="70"/>
-      <c r="BO45" s="71"/>
+      <c r="BN45" s="59"/>
+      <c r="BO45" s="60"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14330,116 +14330,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="76" t="s">
+      <c r="B52" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="76"/>
-      <c r="G52" s="76"/>
-      <c r="H52" s="76"/>
-      <c r="I52" s="76"/>
-      <c r="J52" s="76"/>
-      <c r="K52" s="76"/>
-      <c r="L52" s="76"/>
-      <c r="M52" s="76"/>
-      <c r="N52" s="76"/>
-      <c r="O52" s="76"/>
-      <c r="P52" s="76"/>
-      <c r="Q52" s="76"/>
-      <c r="R52" s="76"/>
-      <c r="S52" s="76"/>
-      <c r="T52" s="76"/>
-      <c r="U52" s="76"/>
-      <c r="V52" s="76"/>
-      <c r="W52" s="76"/>
-      <c r="X52" s="76"/>
-      <c r="Y52" s="76"/>
-      <c r="Z52" s="76"/>
-      <c r="AA52" s="76"/>
-      <c r="AB52" s="76"/>
-      <c r="AC52" s="76"/>
-      <c r="AD52" s="76"/>
-      <c r="AE52" s="76"/>
-      <c r="AF52" s="76"/>
-      <c r="AG52" s="76"/>
-      <c r="AH52" s="76"/>
-      <c r="AI52" s="76"/>
-      <c r="AJ52" s="76"/>
-      <c r="AK52" s="76"/>
-      <c r="AL52" s="76"/>
-      <c r="AM52" s="76"/>
-      <c r="AN52" s="76"/>
-      <c r="AO52" s="76"/>
-      <c r="AP52" s="76"/>
-      <c r="AQ52" s="76"/>
-      <c r="AR52" s="76"/>
-      <c r="AS52" s="76"/>
-      <c r="AT52" s="76"/>
-      <c r="AU52" s="76"/>
-      <c r="AV52" s="76"/>
-      <c r="AW52" s="76"/>
-      <c r="AX52" s="76"/>
-      <c r="AY52" s="76"/>
-      <c r="AZ52" s="76"/>
-      <c r="BA52" s="76"/>
-      <c r="BB52" s="76"/>
-      <c r="BC52" s="76"/>
-      <c r="BD52" s="76"/>
-      <c r="BE52" s="76"/>
-      <c r="BF52" s="76"/>
-      <c r="BG52" s="76"/>
-      <c r="BH52" s="76"/>
-      <c r="BI52" s="76"/>
-      <c r="BJ52" s="76"/>
-      <c r="BK52" s="76"/>
-      <c r="BL52" s="76"/>
-      <c r="BM52" s="76"/>
-      <c r="BN52" s="76"/>
-      <c r="BO52" s="76"/>
+      <c r="C52" s="57"/>
+      <c r="D52" s="57"/>
+      <c r="E52" s="57"/>
+      <c r="F52" s="57"/>
+      <c r="G52" s="57"/>
+      <c r="H52" s="57"/>
+      <c r="I52" s="57"/>
+      <c r="J52" s="57"/>
+      <c r="K52" s="57"/>
+      <c r="L52" s="57"/>
+      <c r="M52" s="57"/>
+      <c r="N52" s="57"/>
+      <c r="O52" s="57"/>
+      <c r="P52" s="57"/>
+      <c r="Q52" s="57"/>
+      <c r="R52" s="57"/>
+      <c r="S52" s="57"/>
+      <c r="T52" s="57"/>
+      <c r="U52" s="57"/>
+      <c r="V52" s="57"/>
+      <c r="W52" s="57"/>
+      <c r="X52" s="57"/>
+      <c r="Y52" s="57"/>
+      <c r="Z52" s="57"/>
+      <c r="AA52" s="57"/>
+      <c r="AB52" s="57"/>
+      <c r="AC52" s="57"/>
+      <c r="AD52" s="57"/>
+      <c r="AE52" s="57"/>
+      <c r="AF52" s="57"/>
+      <c r="AG52" s="57"/>
+      <c r="AH52" s="57"/>
+      <c r="AI52" s="57"/>
+      <c r="AJ52" s="57"/>
+      <c r="AK52" s="57"/>
+      <c r="AL52" s="57"/>
+      <c r="AM52" s="57"/>
+      <c r="AN52" s="57"/>
+      <c r="AO52" s="57"/>
+      <c r="AP52" s="57"/>
+      <c r="AQ52" s="57"/>
+      <c r="AR52" s="57"/>
+      <c r="AS52" s="57"/>
+      <c r="AT52" s="57"/>
+      <c r="AU52" s="57"/>
+      <c r="AV52" s="57"/>
+      <c r="AW52" s="57"/>
+      <c r="AX52" s="57"/>
+      <c r="AY52" s="57"/>
+      <c r="AZ52" s="57"/>
+      <c r="BA52" s="57"/>
+      <c r="BB52" s="57"/>
+      <c r="BC52" s="57"/>
+      <c r="BD52" s="57"/>
+      <c r="BE52" s="57"/>
+      <c r="BF52" s="57"/>
+      <c r="BG52" s="57"/>
+      <c r="BH52" s="57"/>
+      <c r="BI52" s="57"/>
+      <c r="BJ52" s="57"/>
+      <c r="BK52" s="57"/>
+      <c r="BL52" s="57"/>
+      <c r="BM52" s="57"/>
+      <c r="BN52" s="57"/>
+      <c r="BO52" s="57"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="60" t="s">
+      <c r="D53" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="60"/>
-      <c r="F53" s="60"/>
+      <c r="E53" s="71"/>
+      <c r="F53" s="71"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="61" t="s">
+      <c r="H53" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="59"/>
-      <c r="J53" s="59"/>
-      <c r="K53" s="61" t="s">
+      <c r="I53" s="73"/>
+      <c r="J53" s="73"/>
+      <c r="K53" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L53" s="59"/>
-      <c r="M53" s="59"/>
-      <c r="N53" s="61" t="s">
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="61" t="s">
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
+      <c r="Q53" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R53" s="59"/>
-      <c r="S53" s="59"/>
-      <c r="T53" s="61" t="s">
+      <c r="R53" s="73"/>
+      <c r="S53" s="73"/>
+      <c r="T53" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U53" s="59"/>
-      <c r="V53" s="59"/>
-      <c r="W53" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="59"/>
-      <c r="Y53" s="59"/>
+      <c r="U53" s="73"/>
+      <c r="V53" s="73"/>
+      <c r="W53" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="73"/>
+      <c r="Y53" s="73"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14497,34 +14497,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="69" t="s">
+      <c r="AX53" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY53" s="70"/>
-      <c r="AZ53" s="71"/>
-      <c r="BA53" s="69" t="s">
+      <c r="AY53" s="59"/>
+      <c r="AZ53" s="60"/>
+      <c r="BA53" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB53" s="70"/>
-      <c r="BC53" s="71"/>
-      <c r="BD53" s="69" t="s">
+      <c r="BB53" s="59"/>
+      <c r="BC53" s="60"/>
+      <c r="BD53" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE53" s="70"/>
-      <c r="BF53" s="70"/>
-      <c r="BG53" s="70"/>
-      <c r="BH53" s="70"/>
-      <c r="BI53" s="71"/>
-      <c r="BJ53" s="69" t="s">
+      <c r="BE53" s="59"/>
+      <c r="BF53" s="59"/>
+      <c r="BG53" s="59"/>
+      <c r="BH53" s="59"/>
+      <c r="BI53" s="60"/>
+      <c r="BJ53" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="70"/>
-      <c r="BL53" s="71"/>
-      <c r="BM53" s="69" t="s">
+      <c r="BK53" s="59"/>
+      <c r="BL53" s="60"/>
+      <c r="BM53" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN53" s="70"/>
-      <c r="BO53" s="71"/>
+      <c r="BN53" s="59"/>
+      <c r="BO53" s="60"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15785,116 +15785,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="76" t="s">
+      <c r="B60" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="76"/>
-      <c r="D60" s="76"/>
-      <c r="E60" s="76"/>
-      <c r="F60" s="76"/>
-      <c r="G60" s="76"/>
-      <c r="H60" s="76"/>
-      <c r="I60" s="76"/>
-      <c r="J60" s="76"/>
-      <c r="K60" s="76"/>
-      <c r="L60" s="76"/>
-      <c r="M60" s="76"/>
-      <c r="N60" s="76"/>
-      <c r="O60" s="76"/>
-      <c r="P60" s="76"/>
-      <c r="Q60" s="76"/>
-      <c r="R60" s="76"/>
-      <c r="S60" s="76"/>
-      <c r="T60" s="76"/>
-      <c r="U60" s="76"/>
-      <c r="V60" s="76"/>
-      <c r="W60" s="76"/>
-      <c r="X60" s="76"/>
-      <c r="Y60" s="76"/>
-      <c r="Z60" s="76"/>
-      <c r="AA60" s="76"/>
-      <c r="AB60" s="76"/>
-      <c r="AC60" s="76"/>
-      <c r="AD60" s="76"/>
-      <c r="AE60" s="76"/>
-      <c r="AF60" s="76"/>
-      <c r="AG60" s="76"/>
-      <c r="AH60" s="76"/>
-      <c r="AI60" s="76"/>
-      <c r="AJ60" s="76"/>
-      <c r="AK60" s="76"/>
-      <c r="AL60" s="76"/>
-      <c r="AM60" s="76"/>
-      <c r="AN60" s="76"/>
-      <c r="AO60" s="76"/>
-      <c r="AP60" s="76"/>
-      <c r="AQ60" s="76"/>
-      <c r="AR60" s="76"/>
-      <c r="AS60" s="76"/>
-      <c r="AT60" s="76"/>
-      <c r="AU60" s="76"/>
-      <c r="AV60" s="76"/>
-      <c r="AW60" s="76"/>
-      <c r="AX60" s="76"/>
-      <c r="AY60" s="76"/>
-      <c r="AZ60" s="76"/>
-      <c r="BA60" s="76"/>
-      <c r="BB60" s="76"/>
-      <c r="BC60" s="76"/>
-      <c r="BD60" s="76"/>
-      <c r="BE60" s="76"/>
-      <c r="BF60" s="76"/>
-      <c r="BG60" s="76"/>
-      <c r="BH60" s="76"/>
-      <c r="BI60" s="76"/>
-      <c r="BJ60" s="76"/>
-      <c r="BK60" s="76"/>
-      <c r="BL60" s="76"/>
-      <c r="BM60" s="76"/>
-      <c r="BN60" s="76"/>
-      <c r="BO60" s="76"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
+      <c r="E60" s="57"/>
+      <c r="F60" s="57"/>
+      <c r="G60" s="57"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="57"/>
+      <c r="K60" s="57"/>
+      <c r="L60" s="57"/>
+      <c r="M60" s="57"/>
+      <c r="N60" s="57"/>
+      <c r="O60" s="57"/>
+      <c r="P60" s="57"/>
+      <c r="Q60" s="57"/>
+      <c r="R60" s="57"/>
+      <c r="S60" s="57"/>
+      <c r="T60" s="57"/>
+      <c r="U60" s="57"/>
+      <c r="V60" s="57"/>
+      <c r="W60" s="57"/>
+      <c r="X60" s="57"/>
+      <c r="Y60" s="57"/>
+      <c r="Z60" s="57"/>
+      <c r="AA60" s="57"/>
+      <c r="AB60" s="57"/>
+      <c r="AC60" s="57"/>
+      <c r="AD60" s="57"/>
+      <c r="AE60" s="57"/>
+      <c r="AF60" s="57"/>
+      <c r="AG60" s="57"/>
+      <c r="AH60" s="57"/>
+      <c r="AI60" s="57"/>
+      <c r="AJ60" s="57"/>
+      <c r="AK60" s="57"/>
+      <c r="AL60" s="57"/>
+      <c r="AM60" s="57"/>
+      <c r="AN60" s="57"/>
+      <c r="AO60" s="57"/>
+      <c r="AP60" s="57"/>
+      <c r="AQ60" s="57"/>
+      <c r="AR60" s="57"/>
+      <c r="AS60" s="57"/>
+      <c r="AT60" s="57"/>
+      <c r="AU60" s="57"/>
+      <c r="AV60" s="57"/>
+      <c r="AW60" s="57"/>
+      <c r="AX60" s="57"/>
+      <c r="AY60" s="57"/>
+      <c r="AZ60" s="57"/>
+      <c r="BA60" s="57"/>
+      <c r="BB60" s="57"/>
+      <c r="BC60" s="57"/>
+      <c r="BD60" s="57"/>
+      <c r="BE60" s="57"/>
+      <c r="BF60" s="57"/>
+      <c r="BG60" s="57"/>
+      <c r="BH60" s="57"/>
+      <c r="BI60" s="57"/>
+      <c r="BJ60" s="57"/>
+      <c r="BK60" s="57"/>
+      <c r="BL60" s="57"/>
+      <c r="BM60" s="57"/>
+      <c r="BN60" s="57"/>
+      <c r="BO60" s="57"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="60" t="s">
+      <c r="D61" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="60"/>
-      <c r="F61" s="60"/>
+      <c r="E61" s="71"/>
+      <c r="F61" s="71"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="61" t="s">
+      <c r="H61" s="72" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="59"/>
-      <c r="J61" s="59"/>
-      <c r="K61" s="61" t="s">
+      <c r="I61" s="73"/>
+      <c r="J61" s="73"/>
+      <c r="K61" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="59"/>
-      <c r="M61" s="59"/>
-      <c r="N61" s="61" t="s">
+      <c r="L61" s="73"/>
+      <c r="M61" s="73"/>
+      <c r="N61" s="72" t="s">
         <v>90</v>
       </c>
-      <c r="O61" s="59"/>
-      <c r="P61" s="59"/>
-      <c r="Q61" s="61" t="s">
+      <c r="O61" s="73"/>
+      <c r="P61" s="73"/>
+      <c r="Q61" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="R61" s="59"/>
-      <c r="S61" s="59"/>
-      <c r="T61" s="61" t="s">
+      <c r="R61" s="73"/>
+      <c r="S61" s="73"/>
+      <c r="T61" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="U61" s="59"/>
-      <c r="V61" s="59"/>
-      <c r="W61" s="59" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="59"/>
-      <c r="Y61" s="59"/>
+      <c r="U61" s="73"/>
+      <c r="V61" s="73"/>
+      <c r="W61" s="73" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="73"/>
+      <c r="Y61" s="73"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15952,34 +15952,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="69" t="s">
+      <c r="AX61" s="58" t="s">
         <v>93</v>
       </c>
-      <c r="AY61" s="70"/>
-      <c r="AZ61" s="71"/>
-      <c r="BA61" s="69" t="s">
+      <c r="AY61" s="59"/>
+      <c r="AZ61" s="60"/>
+      <c r="BA61" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="BB61" s="70"/>
-      <c r="BC61" s="71"/>
-      <c r="BD61" s="69" t="s">
+      <c r="BB61" s="59"/>
+      <c r="BC61" s="60"/>
+      <c r="BD61" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="BE61" s="70"/>
-      <c r="BF61" s="70"/>
-      <c r="BG61" s="70"/>
-      <c r="BH61" s="70"/>
-      <c r="BI61" s="71"/>
-      <c r="BJ61" s="69" t="s">
+      <c r="BE61" s="59"/>
+      <c r="BF61" s="59"/>
+      <c r="BG61" s="59"/>
+      <c r="BH61" s="59"/>
+      <c r="BI61" s="60"/>
+      <c r="BJ61" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="70"/>
-      <c r="BL61" s="71"/>
-      <c r="BM61" s="69" t="s">
+      <c r="BK61" s="59"/>
+      <c r="BL61" s="60"/>
+      <c r="BM61" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="BN61" s="70"/>
-      <c r="BO61" s="71"/>
+      <c r="BN61" s="59"/>
+      <c r="BO61" s="60"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -17238,6 +17238,93 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17262,93 +17349,6 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="472">
@@ -17687,7 +17687,7 @@
   <dimension ref="B1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17756,55 +17756,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="56" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="75"/>
-      <c r="I2" s="75"/>
-      <c r="J2" s="75"/>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="75"/>
-      <c r="R2" s="75"/>
-      <c r="S2" s="75"/>
-      <c r="T2" s="75"/>
-      <c r="U2" s="75"/>
-      <c r="V2" s="75"/>
-      <c r="W2" s="75"/>
-      <c r="X2" s="75"/>
-      <c r="Y2" s="75"/>
-      <c r="Z2" s="75"/>
-      <c r="AA2" s="75"/>
-      <c r="AB2" s="75"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="75"/>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="75"/>
-      <c r="AG2" s="75"/>
-      <c r="AH2" s="75"/>
-      <c r="AI2" s="75"/>
-      <c r="AJ2" s="75"/>
-      <c r="AK2" s="75"/>
-      <c r="AL2" s="75"/>
-      <c r="AM2" s="75"/>
-      <c r="AN2" s="75"/>
-      <c r="AO2" s="75"/>
-      <c r="AP2" s="75"/>
-      <c r="AQ2" s="75"/>
-      <c r="AR2" s="75"/>
-      <c r="AS2" s="75"/>
-      <c r="AT2" s="75"/>
-      <c r="AU2" s="75"/>
-      <c r="AV2" s="75"/>
+      <c r="C2" s="56"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
+      <c r="P2" s="56"/>
+      <c r="Q2" s="56"/>
+      <c r="R2" s="56"/>
+      <c r="S2" s="56"/>
+      <c r="T2" s="56"/>
+      <c r="U2" s="56"/>
+      <c r="V2" s="56"/>
+      <c r="W2" s="56"/>
+      <c r="X2" s="56"/>
+      <c r="Y2" s="56"/>
+      <c r="Z2" s="56"/>
+      <c r="AA2" s="56"/>
+      <c r="AB2" s="56"/>
+      <c r="AC2" s="56"/>
+      <c r="AD2" s="56"/>
+      <c r="AE2" s="56"/>
+      <c r="AF2" s="56"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="56"/>
+      <c r="AO2" s="56"/>
+      <c r="AP2" s="56"/>
+      <c r="AQ2" s="56"/>
+      <c r="AR2" s="56"/>
+      <c r="AS2" s="56"/>
+      <c r="AT2" s="56"/>
+      <c r="AU2" s="56"/>
+      <c r="AV2" s="56"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17858,42 +17858,42 @@
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="58" t="s">
+      <c r="D5" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="56"/>
-      <c r="J5" s="56"/>
-      <c r="K5" s="57" t="s">
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="56"/>
-      <c r="M5" s="56"/>
-      <c r="N5" s="57" t="s">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="56"/>
-      <c r="P5" s="56"/>
-      <c r="Q5" s="57" t="s">
+      <c r="O5" s="74"/>
+      <c r="P5" s="74"/>
+      <c r="Q5" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="56"/>
-      <c r="S5" s="56"/>
-      <c r="T5" s="57" t="s">
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="56"/>
-      <c r="V5" s="56"/>
-      <c r="W5" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="56"/>
-      <c r="Y5" s="56"/>
+      <c r="U5" s="74"/>
+      <c r="V5" s="74"/>
+      <c r="W5" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -18261,30 +18261,46 @@
         <f>IF(Preliminary!BA15&lt;3,"Winner of Pool B",Preliminary!AY15)</f>
         <v> Italy</v>
       </c>
-      <c r="D8" s="48"/>
+      <c r="D8" s="48">
+        <v>3</v>
+      </c>
       <c r="E8" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="47"/>
+      <c r="F8" s="47">
+        <v>0</v>
+      </c>
       <c r="G8" s="25" t="str">
         <f>IF(Preliminary!BA56&lt;3,"Runners-up of Pool G",Preliminary!AY56)</f>
         <v> Germany</v>
       </c>
-      <c r="H8" s="28"/>
+      <c r="H8" s="28">
+        <v>25</v>
+      </c>
       <c r="I8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="28"/>
+      <c r="J8" s="30">
+        <v>22</v>
+      </c>
+      <c r="K8" s="28">
+        <v>25</v>
+      </c>
       <c r="L8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M8" s="30"/>
-      <c r="N8" s="28"/>
+      <c r="M8" s="30">
+        <v>18</v>
+      </c>
+      <c r="N8" s="28">
+        <v>25</v>
+      </c>
       <c r="O8" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="30"/>
+      <c r="P8" s="30">
+        <v>11</v>
+      </c>
       <c r="Q8" s="28"/>
       <c r="R8" s="29" t="s">
         <v>0</v>
@@ -18297,30 +18313,30 @@
       <c r="V8" s="30"/>
       <c r="W8" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X8" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y8" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AA8" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB8" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB8" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v> Italy</v>
       </c>
       <c r="AC8" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE8" s="12">
         <f t="shared" si="6"/>
@@ -18328,7 +18344,7 @@
       </c>
       <c r="AF8" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8" s="12">
         <f t="shared" si="8"/>
@@ -18340,19 +18356,19 @@
       </c>
       <c r="AI8" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ8" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL8" s="12">
+        <v>51</v>
+      </c>
+      <c r="AL8" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v> Germany</v>
       </c>
       <c r="AM8" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8" s="12">
         <f t="shared" si="14"/>
@@ -18360,7 +18376,7 @@
       </c>
       <c r="AO8" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP8" s="12">
         <f t="shared" si="16"/>
@@ -18372,15 +18388,15 @@
       </c>
       <c r="AR8" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="AT8" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="2:67" x14ac:dyDescent="0.25">
@@ -18391,70 +18407,94 @@
         <f>IF(Preliminary!BA55&lt;3,"Winner of Pool G",Preliminary!AY55)</f>
         <v> Poland</v>
       </c>
-      <c r="D9" s="48"/>
+      <c r="D9" s="48">
+        <v>3</v>
+      </c>
       <c r="E9" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F9" s="47"/>
+      <c r="F9" s="47">
+        <v>2</v>
+      </c>
       <c r="G9" s="25" t="str">
         <f>IF(Preliminary!BA16&lt;3,"Runners-up of Pool B",Preliminary!AY16)</f>
         <v> Belgium</v>
       </c>
-      <c r="H9" s="28"/>
+      <c r="H9" s="28">
+        <v>25</v>
+      </c>
       <c r="I9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="28"/>
+      <c r="J9" s="30">
+        <v>27</v>
+      </c>
+      <c r="K9" s="28">
+        <v>25</v>
+      </c>
       <c r="L9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M9" s="30"/>
-      <c r="N9" s="28"/>
+      <c r="M9" s="30">
+        <v>20</v>
+      </c>
+      <c r="N9" s="28">
+        <v>25</v>
+      </c>
       <c r="O9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="28"/>
+      <c r="P9" s="30">
+        <v>17</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>22</v>
+      </c>
       <c r="R9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S9" s="30"/>
-      <c r="T9" s="28"/>
+      <c r="S9" s="30">
+        <v>25</v>
+      </c>
+      <c r="T9" s="28">
+        <v>15</v>
+      </c>
       <c r="U9" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V9" s="30"/>
+      <c r="V9" s="30">
+        <v>10</v>
+      </c>
       <c r="W9" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="X9" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y9" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA9" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB9" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB9" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v> Poland</v>
       </c>
       <c r="AC9" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE9" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF9" s="12">
         <f t="shared" si="7"/>
@@ -18466,35 +18506,35 @@
       </c>
       <c r="AH9" s="12">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI9" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="AJ9" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL9" s="12">
+        <v>99</v>
+      </c>
+      <c r="AL9" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v> Belgium</v>
       </c>
       <c r="AM9" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO9" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP9" s="12">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9" s="12">
         <f t="shared" si="17"/>
@@ -18506,11 +18546,11 @@
       </c>
       <c r="AS9" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AT9" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:67" x14ac:dyDescent="0.25">
@@ -18521,35 +18561,55 @@
         <f>IF(Preliminary!BA23&lt;3,"Winner of Pool C",Preliminary!AY23)</f>
         <v> Brazil</v>
       </c>
-      <c r="D10" s="48"/>
+      <c r="D10" s="48">
+        <v>3</v>
+      </c>
       <c r="E10" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F10" s="47"/>
+      <c r="F10" s="47">
+        <v>1</v>
+      </c>
       <c r="G10" s="25" t="str">
         <f>IF(Preliminary!BA48&lt;3,"Runners-up of Pool F",Preliminary!AY48)</f>
         <v> Dominican Republic</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="28">
+        <v>18</v>
+      </c>
       <c r="I10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="28"/>
+      <c r="J10" s="30">
+        <v>25</v>
+      </c>
+      <c r="K10" s="28">
+        <v>25</v>
+      </c>
       <c r="L10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M10" s="30"/>
-      <c r="N10" s="28"/>
+      <c r="M10" s="30">
+        <v>12</v>
+      </c>
+      <c r="N10" s="28">
+        <v>25</v>
+      </c>
       <c r="O10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="28"/>
+      <c r="P10" s="30">
+        <v>20</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>25</v>
+      </c>
       <c r="R10" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S10" s="30"/>
+      <c r="S10" s="30">
+        <v>12</v>
+      </c>
       <c r="T10" s="28"/>
       <c r="U10" s="29" t="s">
         <v>0</v>
@@ -18557,34 +18617,34 @@
       <c r="V10" s="30"/>
       <c r="W10" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="X10" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y10" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AA10" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB10" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB10" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v> Brazil</v>
       </c>
       <c r="AC10" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE10" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" s="12">
         <f t="shared" si="7"/>
@@ -18592,7 +18652,7 @@
       </c>
       <c r="AG10" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10" s="12">
         <f t="shared" si="9"/>
@@ -18600,27 +18660,27 @@
       </c>
       <c r="AI10" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="AJ10" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL10" s="12">
+        <v>69</v>
+      </c>
+      <c r="AL10" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v> Dominican Republic</v>
       </c>
       <c r="AM10" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10" s="12">
         <f t="shared" si="16"/>
@@ -18628,7 +18688,7 @@
       </c>
       <c r="AQ10" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10" s="12">
         <f t="shared" si="18"/>
@@ -18636,11 +18696,11 @@
       </c>
       <c r="AS10" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="AT10" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -18651,35 +18711,55 @@
         <f>IF(Preliminary!BA47&lt;3,"Winner of Pool F",Preliminary!AY47)</f>
         <v> China</v>
       </c>
-      <c r="D11" s="48"/>
+      <c r="D11" s="48">
+        <v>1</v>
+      </c>
       <c r="E11" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F11" s="47"/>
+      <c r="F11" s="47">
+        <v>3</v>
+      </c>
       <c r="G11" s="25" t="str">
         <f>IF(Preliminary!BA24&lt;3,"Runners-up of Pool C",Preliminary!AY24)</f>
         <v> France</v>
       </c>
-      <c r="H11" s="28"/>
+      <c r="H11" s="28">
+        <v>20</v>
+      </c>
       <c r="I11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J11" s="30"/>
-      <c r="K11" s="28"/>
+      <c r="J11" s="30">
+        <v>25</v>
+      </c>
+      <c r="K11" s="28">
+        <v>25</v>
+      </c>
       <c r="L11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="30"/>
-      <c r="N11" s="28"/>
+      <c r="M11" s="30">
+        <v>27</v>
+      </c>
+      <c r="N11" s="28">
+        <v>25</v>
+      </c>
       <c r="O11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="28"/>
+      <c r="P11" s="30">
+        <v>22</v>
+      </c>
+      <c r="Q11" s="28">
+        <v>20</v>
+      </c>
       <c r="R11" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S11" s="30"/>
+      <c r="S11" s="30">
+        <v>25</v>
+      </c>
       <c r="T11" s="28"/>
       <c r="U11" s="29" t="s">
         <v>0</v>
@@ -18687,34 +18767,34 @@
       <c r="V11" s="30"/>
       <c r="W11" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="X11" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y11" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AA11" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB11" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB11" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v> France</v>
       </c>
       <c r="AC11" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE11" s="12">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11" s="12">
         <f t="shared" si="7"/>
@@ -18722,7 +18802,7 @@
       </c>
       <c r="AG11" s="12">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11" s="12">
         <f t="shared" si="9"/>
@@ -18730,27 +18810,27 @@
       </c>
       <c r="AI11" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AJ11" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL11" s="12">
+        <v>90</v>
+      </c>
+      <c r="AL11" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v> China</v>
       </c>
       <c r="AM11" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11" s="12">
         <f t="shared" si="14"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP11" s="12">
         <f t="shared" si="16"/>
@@ -18758,7 +18838,7 @@
       </c>
       <c r="AQ11" s="12">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11" s="12">
         <f t="shared" si="18"/>
@@ -18766,11 +18846,11 @@
       </c>
       <c r="AS11" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AT11" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="AW11" s="38"/>
       <c r="AX11" s="38"/>
@@ -18797,30 +18877,46 @@
         <f>IF(Preliminary!BA31&lt;3,"Winner of Pool D",Preliminary!AY31)</f>
         <v> United States</v>
       </c>
-      <c r="D12" s="48"/>
+      <c r="D12" s="48">
+        <v>3</v>
+      </c>
       <c r="E12" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F12" s="47"/>
+      <c r="F12" s="47">
+        <v>0</v>
+      </c>
       <c r="G12" s="25" t="str">
         <f>IF(Preliminary!BA40&lt;3,"Runners-up of Pool E",Preliminary!AY40)</f>
         <v> Canada</v>
       </c>
-      <c r="H12" s="28"/>
+      <c r="H12" s="28">
+        <v>25</v>
+      </c>
       <c r="I12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J12" s="30"/>
-      <c r="K12" s="28"/>
+      <c r="J12" s="30">
+        <v>18</v>
+      </c>
+      <c r="K12" s="28">
+        <v>25</v>
+      </c>
       <c r="L12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M12" s="30"/>
-      <c r="N12" s="28"/>
+      <c r="M12" s="30">
+        <v>21</v>
+      </c>
+      <c r="N12" s="28">
+        <v>25</v>
+      </c>
       <c r="O12" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="30"/>
+      <c r="P12" s="30">
+        <v>21</v>
+      </c>
       <c r="Q12" s="28"/>
       <c r="R12" s="29" t="s">
         <v>0</v>
@@ -18833,30 +18929,30 @@
       <c r="V12" s="30"/>
       <c r="W12" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X12" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y12" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AA12" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB12" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB12" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v> United States</v>
       </c>
       <c r="AC12" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD12" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE12" s="12">
         <f t="shared" si="6"/>
@@ -18864,7 +18960,7 @@
       </c>
       <c r="AF12" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="12">
         <f t="shared" si="8"/>
@@ -18876,19 +18972,19 @@
       </c>
       <c r="AI12" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ12" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL12" s="12">
+        <v>60</v>
+      </c>
+      <c r="AL12" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v> Canada</v>
       </c>
       <c r="AM12" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12" s="12">
         <f t="shared" si="14"/>
@@ -18896,7 +18992,7 @@
       </c>
       <c r="AO12" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12" s="12">
         <f t="shared" si="16"/>
@@ -18908,15 +19004,15 @@
       </c>
       <c r="AR12" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT12" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AW12" s="39"/>
       <c r="AX12" s="39"/>
@@ -18943,30 +19039,46 @@
         <f>IF(Preliminary!BA39&lt;3,"Winner of Pool E",Preliminary!AY39)</f>
         <v> Turkey</v>
       </c>
-      <c r="D13" s="48"/>
+      <c r="D13" s="48">
+        <v>3</v>
+      </c>
       <c r="E13" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F13" s="47"/>
+      <c r="F13" s="47">
+        <v>0</v>
+      </c>
       <c r="G13" s="25" t="str">
         <f>IF(Preliminary!BA32&lt;3,"Runners-up of Pool D",Preliminary!AY32)</f>
         <v> Slovenia</v>
       </c>
-      <c r="H13" s="28"/>
+      <c r="H13" s="28">
+        <v>30</v>
+      </c>
       <c r="I13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J13" s="30"/>
-      <c r="K13" s="28"/>
+      <c r="J13" s="30">
+        <v>28</v>
+      </c>
+      <c r="K13" s="28">
+        <v>25</v>
+      </c>
       <c r="L13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M13" s="30"/>
-      <c r="N13" s="28"/>
+      <c r="M13" s="30">
+        <v>13</v>
+      </c>
+      <c r="N13" s="28">
+        <v>29</v>
+      </c>
       <c r="O13" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P13" s="30"/>
+      <c r="P13" s="30">
+        <v>27</v>
+      </c>
       <c r="Q13" s="28"/>
       <c r="R13" s="29" t="s">
         <v>0</v>
@@ -18979,30 +19091,30 @@
       <c r="V13" s="30"/>
       <c r="W13" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="X13" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y13" s="32">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AA13" s="12">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AB13" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB13" s="12" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v> Turkey</v>
       </c>
       <c r="AC13" s="12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" s="12">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE13" s="12">
         <f t="shared" si="6"/>
@@ -19010,7 +19122,7 @@
       </c>
       <c r="AF13" s="12">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" s="12">
         <f t="shared" si="8"/>
@@ -19022,19 +19134,19 @@
       </c>
       <c r="AI13" s="12">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AJ13" s="12">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AL13" s="12">
+        <v>68</v>
+      </c>
+      <c r="AL13" s="12" t="str">
         <f t="shared" si="12"/>
-        <v>0</v>
+        <v> Slovenia</v>
       </c>
       <c r="AM13" s="12">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13" s="12">
         <f t="shared" si="14"/>
@@ -19042,7 +19154,7 @@
       </c>
       <c r="AO13" s="12">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13" s="12">
         <f t="shared" si="16"/>
@@ -19054,15 +19166,15 @@
       </c>
       <c r="AR13" s="12">
         <f t="shared" si="18"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13" s="12">
         <f t="shared" si="19"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AT13" s="12">
         <f t="shared" si="20"/>
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="AW13" s="39"/>
       <c r="AX13" s="39"/>
@@ -19126,52 +19238,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="62" t="s">
+      <c r="AU15" s="64" t="s">
         <v>103</v>
       </c>
-      <c r="AV15" s="62"/>
+      <c r="AV15" s="64"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="58" t="s">
+      <c r="D16" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
+      <c r="E16" s="76"/>
+      <c r="F16" s="76"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="56"/>
-      <c r="J16" s="56"/>
-      <c r="K16" s="57" t="s">
+      <c r="I16" s="74"/>
+      <c r="J16" s="74"/>
+      <c r="K16" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="56"/>
-      <c r="N16" s="57" t="s">
+      <c r="L16" s="74"/>
+      <c r="M16" s="74"/>
+      <c r="N16" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="56"/>
-      <c r="P16" s="56"/>
-      <c r="Q16" s="57" t="s">
+      <c r="O16" s="74"/>
+      <c r="P16" s="74"/>
+      <c r="Q16" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="56"/>
-      <c r="S16" s="56"/>
-      <c r="T16" s="57" t="s">
+      <c r="R16" s="74"/>
+      <c r="S16" s="74"/>
+      <c r="T16" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="56"/>
-      <c r="V16" s="56"/>
-      <c r="W16" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="56"/>
-      <c r="Y16" s="56"/>
+      <c r="U16" s="74"/>
+      <c r="V16" s="74"/>
+      <c r="W16" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="74"/>
+      <c r="Y16" s="74"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19229,10 +19341,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="63" t="s">
+      <c r="AU16" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="64"/>
+      <c r="AV16" s="66"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19363,10 +19475,10 @@
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
         <v>0</v>
       </c>
-      <c r="AU17" s="65" t="s">
+      <c r="AU17" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="66"/>
+      <c r="AV17" s="68"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19374,7 +19486,7 @@
       </c>
       <c r="C18" s="24" t="str">
         <f>IF(AB8=0,"Winner R3",AB8)</f>
-        <v>Winner R3</v>
+        <v> Italy</v>
       </c>
       <c r="D18" s="48"/>
       <c r="E18" s="49" t="s">
@@ -19383,7 +19495,7 @@
       <c r="F18" s="47"/>
       <c r="G18" s="25" t="str">
         <f>IF(AB9=0,"Winner R4",AB9)</f>
-        <v>Winner R4</v>
+        <v> Poland</v>
       </c>
       <c r="H18" s="28"/>
       <c r="I18" s="29" t="s">
@@ -19497,10 +19609,10 @@
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
         <v>0</v>
       </c>
-      <c r="AU18" s="65" t="s">
+      <c r="AU18" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="66"/>
+      <c r="AV18" s="68"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19508,7 +19620,7 @@
       </c>
       <c r="C19" s="24" t="str">
         <f>IF(AB10=0,"Winner R5",AB10)</f>
-        <v>Winner R5</v>
+        <v> Brazil</v>
       </c>
       <c r="D19" s="48"/>
       <c r="E19" s="49" t="s">
@@ -19517,7 +19629,7 @@
       <c r="F19" s="47"/>
       <c r="G19" s="25" t="str">
         <f>IF(AB11=0,"Winner R6",AB11)</f>
-        <v>Winner R6</v>
+        <v> France</v>
       </c>
       <c r="H19" s="28"/>
       <c r="I19" s="29" t="s">
@@ -19631,10 +19743,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="65" t="s">
+      <c r="AU19" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="66"/>
+      <c r="AV19" s="68"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19642,7 +19754,7 @@
       </c>
       <c r="C20" s="24" t="str">
         <f>IF(AB12=0,"Winner R7",AB12)</f>
-        <v>Winner R7</v>
+        <v> United States</v>
       </c>
       <c r="D20" s="48"/>
       <c r="E20" s="49" t="s">
@@ -19651,7 +19763,7 @@
       <c r="F20" s="47"/>
       <c r="G20" s="25" t="str">
         <f>IF(AB13=0,"Winner R8",AB13)</f>
-        <v>Winner R8</v>
+        <v> Turkey</v>
       </c>
       <c r="H20" s="28"/>
       <c r="I20" s="29" t="s">
@@ -19765,10 +19877,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="67" t="s">
+      <c r="AU20" s="69" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="68"/>
+      <c r="AV20" s="70"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19804,42 +19916,42 @@
         <v>86</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="58" t="s">
+      <c r="D23" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="57" t="s">
+      <c r="H23" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="56"/>
-      <c r="J23" s="56"/>
-      <c r="K23" s="57" t="s">
+      <c r="I23" s="74"/>
+      <c r="J23" s="74"/>
+      <c r="K23" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="56"/>
-      <c r="M23" s="56"/>
-      <c r="N23" s="57" t="s">
+      <c r="L23" s="74"/>
+      <c r="M23" s="74"/>
+      <c r="N23" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O23" s="56"/>
-      <c r="P23" s="56"/>
-      <c r="Q23" s="57" t="s">
+      <c r="O23" s="74"/>
+      <c r="P23" s="74"/>
+      <c r="Q23" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="56"/>
-      <c r="S23" s="56"/>
-      <c r="T23" s="57" t="s">
+      <c r="R23" s="74"/>
+      <c r="S23" s="74"/>
+      <c r="T23" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
+      <c r="U23" s="74"/>
+      <c r="V23" s="74"/>
+      <c r="W23" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="74"/>
+      <c r="Y23" s="74"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -20211,42 +20323,42 @@
         <v>86</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="58" t="s">
+      <c r="D29" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="57" t="s">
+      <c r="H29" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="56"/>
-      <c r="J29" s="56"/>
-      <c r="K29" s="57" t="s">
+      <c r="I29" s="74"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="56"/>
-      <c r="M29" s="56"/>
-      <c r="N29" s="57" t="s">
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="56"/>
-      <c r="P29" s="56"/>
-      <c r="Q29" s="57" t="s">
+      <c r="O29" s="74"/>
+      <c r="P29" s="74"/>
+      <c r="Q29" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="56"/>
-      <c r="S29" s="56"/>
-      <c r="T29" s="57" t="s">
+      <c r="R29" s="74"/>
+      <c r="S29" s="74"/>
+      <c r="T29" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
+      <c r="U29" s="74"/>
+      <c r="V29" s="74"/>
+      <c r="W29" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="74"/>
+      <c r="Y29" s="74"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20508,42 +20620,42 @@
         <v>86</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="58" t="s">
+      <c r="D34" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="58"/>
-      <c r="F34" s="58"/>
+      <c r="E34" s="76"/>
+      <c r="F34" s="76"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="57" t="s">
+      <c r="H34" s="75" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="56"/>
-      <c r="J34" s="56"/>
-      <c r="K34" s="57" t="s">
+      <c r="I34" s="74"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="56"/>
-      <c r="M34" s="56"/>
-      <c r="N34" s="57" t="s">
+      <c r="L34" s="74"/>
+      <c r="M34" s="74"/>
+      <c r="N34" s="75" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="56"/>
-      <c r="P34" s="56"/>
-      <c r="Q34" s="57" t="s">
+      <c r="O34" s="74"/>
+      <c r="P34" s="74"/>
+      <c r="Q34" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="56"/>
-      <c r="S34" s="56"/>
-      <c r="T34" s="57" t="s">
+      <c r="R34" s="74"/>
+      <c r="S34" s="74"/>
+      <c r="T34" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="U34" s="56"/>
-      <c r="V34" s="56"/>
-      <c r="W34" s="56" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="56"/>
-      <c r="Y34" s="56"/>
+      <c r="U34" s="74"/>
+      <c r="V34" s="74"/>
+      <c r="W34" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="74"/>
+      <c r="Y34" s="74"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20861,22 +20973,22 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="48">
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B2:AV2"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="B22:Y22"/>
+    <mergeCell ref="B28:Y28"/>
+    <mergeCell ref="B15:Y15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T23:V23"/>
+    <mergeCell ref="W23:Y23"/>
+    <mergeCell ref="AU18:AV18"/>
+    <mergeCell ref="AU19:AV19"/>
+    <mergeCell ref="AU20:AV20"/>
     <mergeCell ref="B33:Y33"/>
     <mergeCell ref="AU15:AV15"/>
     <mergeCell ref="T29:V29"/>
@@ -20893,22 +21005,22 @@
     <mergeCell ref="Q29:S29"/>
     <mergeCell ref="AU16:AV16"/>
     <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="B2:AV2"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B22:Y22"/>
-    <mergeCell ref="B28:Y28"/>
-    <mergeCell ref="B15:Y15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T23:V23"/>
-    <mergeCell ref="W23:Y23"/>
-    <mergeCell ref="AU18:AV18"/>
-    <mergeCell ref="AU19:AV19"/>
-    <mergeCell ref="AU20:AV20"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 B4:XFD4 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -21083,6 +21195,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21315,24 +21444,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21349,29 +21486,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/2025 FIVB Women's Volleyball World Championship.xlsx
+++ b/2025 FIVB Women's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D3FDF2D4-9AB6-4FA5-A737-AA5296B46BA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74E7559-C176-49CE-8522-E8DF5FE8FBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -863,28 +863,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -912,22 +906,28 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5393,11 +5393,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="H1:M1"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:S1"/>
-    <mergeCell ref="T1:X1"/>
     <mergeCell ref="A23:A26"/>
     <mergeCell ref="A27:A30"/>
     <mergeCell ref="A31:A34"/>
@@ -5406,6 +5401,11 @@
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A15:A18"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="H1:M1"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="T1:X1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -5478,74 +5478,74 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
-      <c r="AW2" s="56"/>
-      <c r="AX2" s="56"/>
-      <c r="AY2" s="56"/>
-      <c r="AZ2" s="56"/>
-      <c r="BA2" s="56"/>
-      <c r="BB2" s="56"/>
-      <c r="BC2" s="56"/>
-      <c r="BD2" s="56"/>
-      <c r="BE2" s="56"/>
-      <c r="BF2" s="56"/>
-      <c r="BG2" s="56"/>
-      <c r="BH2" s="56"/>
-      <c r="BI2" s="56"/>
-      <c r="BJ2" s="56"/>
-      <c r="BK2" s="56"/>
-      <c r="BL2" s="56"/>
-      <c r="BM2" s="56"/>
-      <c r="BN2" s="56"/>
-      <c r="BO2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
+      <c r="AW2" s="75"/>
+      <c r="AX2" s="75"/>
+      <c r="AY2" s="75"/>
+      <c r="AZ2" s="75"/>
+      <c r="BA2" s="75"/>
+      <c r="BB2" s="75"/>
+      <c r="BC2" s="75"/>
+      <c r="BD2" s="75"/>
+      <c r="BE2" s="75"/>
+      <c r="BF2" s="75"/>
+      <c r="BG2" s="75"/>
+      <c r="BH2" s="75"/>
+      <c r="BI2" s="75"/>
+      <c r="BJ2" s="75"/>
+      <c r="BK2" s="75"/>
+      <c r="BL2" s="75"/>
+      <c r="BM2" s="75"/>
+      <c r="BN2" s="75"/>
+      <c r="BO2" s="75"/>
     </row>
     <row r="3" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="AX3" s="33"/>
@@ -5568,116 +5568,116 @@
       <c r="BO3" s="33"/>
     </row>
     <row r="4" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
-      <c r="S4" s="57"/>
-      <c r="T4" s="57"/>
-      <c r="U4" s="57"/>
-      <c r="V4" s="57"/>
-      <c r="W4" s="57"/>
-      <c r="X4" s="57"/>
-      <c r="Y4" s="57"/>
-      <c r="Z4" s="57"/>
-      <c r="AA4" s="57"/>
-      <c r="AB4" s="57"/>
-      <c r="AC4" s="57"/>
-      <c r="AD4" s="57"/>
-      <c r="AE4" s="57"/>
-      <c r="AF4" s="57"/>
-      <c r="AG4" s="57"/>
-      <c r="AH4" s="57"/>
-      <c r="AI4" s="57"/>
-      <c r="AJ4" s="57"/>
-      <c r="AK4" s="57"/>
-      <c r="AL4" s="57"/>
-      <c r="AM4" s="57"/>
-      <c r="AN4" s="57"/>
-      <c r="AO4" s="57"/>
-      <c r="AP4" s="57"/>
-      <c r="AQ4" s="57"/>
-      <c r="AR4" s="57"/>
-      <c r="AS4" s="57"/>
-      <c r="AT4" s="57"/>
-      <c r="AU4" s="57"/>
-      <c r="AV4" s="57"/>
-      <c r="AW4" s="57"/>
-      <c r="AX4" s="57"/>
-      <c r="AY4" s="57"/>
-      <c r="AZ4" s="57"/>
-      <c r="BA4" s="57"/>
-      <c r="BB4" s="57"/>
-      <c r="BC4" s="57"/>
-      <c r="BD4" s="57"/>
-      <c r="BE4" s="57"/>
-      <c r="BF4" s="57"/>
-      <c r="BG4" s="57"/>
-      <c r="BH4" s="57"/>
-      <c r="BI4" s="57"/>
-      <c r="BJ4" s="57"/>
-      <c r="BK4" s="57"/>
-      <c r="BL4" s="57"/>
-      <c r="BM4" s="57"/>
-      <c r="BN4" s="57"/>
-      <c r="BO4" s="57"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="76"/>
+      <c r="Q4" s="76"/>
+      <c r="R4" s="76"/>
+      <c r="S4" s="76"/>
+      <c r="T4" s="76"/>
+      <c r="U4" s="76"/>
+      <c r="V4" s="76"/>
+      <c r="W4" s="76"/>
+      <c r="X4" s="76"/>
+      <c r="Y4" s="76"/>
+      <c r="Z4" s="76"/>
+      <c r="AA4" s="76"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="76"/>
+      <c r="AD4" s="76"/>
+      <c r="AE4" s="76"/>
+      <c r="AF4" s="76"/>
+      <c r="AG4" s="76"/>
+      <c r="AH4" s="76"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="76"/>
+      <c r="AK4" s="76"/>
+      <c r="AL4" s="76"/>
+      <c r="AM4" s="76"/>
+      <c r="AN4" s="76"/>
+      <c r="AO4" s="76"/>
+      <c r="AP4" s="76"/>
+      <c r="AQ4" s="76"/>
+      <c r="AR4" s="76"/>
+      <c r="AS4" s="76"/>
+      <c r="AT4" s="76"/>
+      <c r="AU4" s="76"/>
+      <c r="AV4" s="76"/>
+      <c r="AW4" s="76"/>
+      <c r="AX4" s="76"/>
+      <c r="AY4" s="76"/>
+      <c r="AZ4" s="76"/>
+      <c r="BA4" s="76"/>
+      <c r="BB4" s="76"/>
+      <c r="BC4" s="76"/>
+      <c r="BD4" s="76"/>
+      <c r="BE4" s="76"/>
+      <c r="BF4" s="76"/>
+      <c r="BG4" s="76"/>
+      <c r="BH4" s="76"/>
+      <c r="BI4" s="76"/>
+      <c r="BJ4" s="76"/>
+      <c r="BK4" s="76"/>
+      <c r="BL4" s="76"/>
+      <c r="BM4" s="76"/>
+      <c r="BN4" s="76"/>
+      <c r="BO4" s="76"/>
     </row>
     <row r="5" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B5" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AD5" s="12" t="s">
         <v>23</v>
       </c>
@@ -5735,34 +5735,34 @@
       <c r="AW5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX5" s="61" t="s">
+      <c r="AX5" s="72" t="s">
         <v>93</v>
       </c>
-      <c r="AY5" s="62"/>
-      <c r="AZ5" s="63"/>
-      <c r="BA5" s="61" t="s">
+      <c r="AY5" s="73"/>
+      <c r="AZ5" s="74"/>
+      <c r="BA5" s="72" t="s">
         <v>94</v>
       </c>
-      <c r="BB5" s="62"/>
-      <c r="BC5" s="63"/>
-      <c r="BD5" s="61" t="s">
+      <c r="BB5" s="73"/>
+      <c r="BC5" s="74"/>
+      <c r="BD5" s="72" t="s">
         <v>95</v>
       </c>
-      <c r="BE5" s="62"/>
-      <c r="BF5" s="62"/>
-      <c r="BG5" s="62"/>
-      <c r="BH5" s="62"/>
-      <c r="BI5" s="63"/>
-      <c r="BJ5" s="61" t="s">
+      <c r="BE5" s="73"/>
+      <c r="BF5" s="73"/>
+      <c r="BG5" s="73"/>
+      <c r="BH5" s="73"/>
+      <c r="BI5" s="74"/>
+      <c r="BJ5" s="72" t="s">
         <v>30</v>
       </c>
-      <c r="BK5" s="62"/>
-      <c r="BL5" s="63"/>
-      <c r="BM5" s="61" t="s">
+      <c r="BK5" s="73"/>
+      <c r="BL5" s="74"/>
+      <c r="BM5" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="BN5" s="62"/>
-      <c r="BO5" s="63"/>
+      <c r="BN5" s="73"/>
+      <c r="BO5" s="74"/>
     </row>
     <row r="6" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B6" s="23">
@@ -7031,116 +7031,116 @@
       </c>
     </row>
     <row r="12" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="57"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="57"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="57"/>
-      <c r="N12" s="57"/>
-      <c r="O12" s="57"/>
-      <c r="P12" s="57"/>
-      <c r="Q12" s="57"/>
-      <c r="R12" s="57"/>
-      <c r="S12" s="57"/>
-      <c r="T12" s="57"/>
-      <c r="U12" s="57"/>
-      <c r="V12" s="57"/>
-      <c r="W12" s="57"/>
-      <c r="X12" s="57"/>
-      <c r="Y12" s="57"/>
-      <c r="Z12" s="57"/>
-      <c r="AA12" s="57"/>
-      <c r="AB12" s="57"/>
-      <c r="AC12" s="57"/>
-      <c r="AD12" s="57"/>
-      <c r="AE12" s="57"/>
-      <c r="AF12" s="57"/>
-      <c r="AG12" s="57"/>
-      <c r="AH12" s="57"/>
-      <c r="AI12" s="57"/>
-      <c r="AJ12" s="57"/>
-      <c r="AK12" s="57"/>
-      <c r="AL12" s="57"/>
-      <c r="AM12" s="57"/>
-      <c r="AN12" s="57"/>
-      <c r="AO12" s="57"/>
-      <c r="AP12" s="57"/>
-      <c r="AQ12" s="57"/>
-      <c r="AR12" s="57"/>
-      <c r="AS12" s="57"/>
-      <c r="AT12" s="57"/>
-      <c r="AU12" s="57"/>
-      <c r="AV12" s="57"/>
-      <c r="AW12" s="57"/>
-      <c r="AX12" s="57"/>
-      <c r="AY12" s="57"/>
-      <c r="AZ12" s="57"/>
-      <c r="BA12" s="57"/>
-      <c r="BB12" s="57"/>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="76"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="76"/>
+      <c r="I12" s="76"/>
+      <c r="J12" s="76"/>
+      <c r="K12" s="76"/>
+      <c r="L12" s="76"/>
+      <c r="M12" s="76"/>
+      <c r="N12" s="76"/>
+      <c r="O12" s="76"/>
+      <c r="P12" s="76"/>
+      <c r="Q12" s="76"/>
+      <c r="R12" s="76"/>
+      <c r="S12" s="76"/>
+      <c r="T12" s="76"/>
+      <c r="U12" s="76"/>
+      <c r="V12" s="76"/>
+      <c r="W12" s="76"/>
+      <c r="X12" s="76"/>
+      <c r="Y12" s="76"/>
+      <c r="Z12" s="76"/>
+      <c r="AA12" s="76"/>
+      <c r="AB12" s="76"/>
+      <c r="AC12" s="76"/>
+      <c r="AD12" s="76"/>
+      <c r="AE12" s="76"/>
+      <c r="AF12" s="76"/>
+      <c r="AG12" s="76"/>
+      <c r="AH12" s="76"/>
+      <c r="AI12" s="76"/>
+      <c r="AJ12" s="76"/>
+      <c r="AK12" s="76"/>
+      <c r="AL12" s="76"/>
+      <c r="AM12" s="76"/>
+      <c r="AN12" s="76"/>
+      <c r="AO12" s="76"/>
+      <c r="AP12" s="76"/>
+      <c r="AQ12" s="76"/>
+      <c r="AR12" s="76"/>
+      <c r="AS12" s="76"/>
+      <c r="AT12" s="76"/>
+      <c r="AU12" s="76"/>
+      <c r="AV12" s="76"/>
+      <c r="AW12" s="76"/>
+      <c r="AX12" s="76"/>
+      <c r="AY12" s="76"/>
+      <c r="AZ12" s="76"/>
+      <c r="BA12" s="76"/>
+      <c r="BB12" s="76"/>
+      <c r="BC12" s="76"/>
+      <c r="BD12" s="76"/>
+      <c r="BE12" s="76"/>
+      <c r="BF12" s="76"/>
+      <c r="BG12" s="76"/>
+      <c r="BH12" s="76"/>
+      <c r="BI12" s="76"/>
+      <c r="BJ12" s="76"/>
+      <c r="BK12" s="76"/>
+      <c r="BL12" s="76"/>
+      <c r="BM12" s="76"/>
+      <c r="BN12" s="76"/>
+      <c r="BO12" s="76"/>
     </row>
     <row r="13" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C13" s="21"/>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
       <c r="G13" s="22"/>
-      <c r="H13" s="72" t="s">
+      <c r="H13" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I13" s="73"/>
-      <c r="J13" s="73"/>
-      <c r="K13" s="72" t="s">
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L13" s="73"/>
-      <c r="M13" s="73"/>
-      <c r="N13" s="72" t="s">
+      <c r="L13" s="59"/>
+      <c r="M13" s="59"/>
+      <c r="N13" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O13" s="73"/>
-      <c r="P13" s="73"/>
-      <c r="Q13" s="72" t="s">
+      <c r="O13" s="59"/>
+      <c r="P13" s="59"/>
+      <c r="Q13" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R13" s="73"/>
-      <c r="S13" s="73"/>
-      <c r="T13" s="72" t="s">
+      <c r="R13" s="59"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U13" s="73"/>
-      <c r="V13" s="73"/>
-      <c r="W13" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
+      <c r="U13" s="59"/>
+      <c r="V13" s="59"/>
+      <c r="W13" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X13" s="59"/>
+      <c r="Y13" s="59"/>
       <c r="AD13" s="12" t="s">
         <v>23</v>
       </c>
@@ -7198,34 +7198,34 @@
       <c r="AW13" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX13" s="58" t="s">
+      <c r="AX13" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY13" s="59"/>
-      <c r="AZ13" s="60"/>
-      <c r="BA13" s="58" t="s">
+      <c r="AY13" s="70"/>
+      <c r="AZ13" s="71"/>
+      <c r="BA13" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB13" s="59"/>
-      <c r="BC13" s="60"/>
-      <c r="BD13" s="58" t="s">
+      <c r="BB13" s="70"/>
+      <c r="BC13" s="71"/>
+      <c r="BD13" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE13" s="59"/>
-      <c r="BF13" s="59"/>
-      <c r="BG13" s="59"/>
-      <c r="BH13" s="59"/>
-      <c r="BI13" s="60"/>
-      <c r="BJ13" s="58" t="s">
+      <c r="BE13" s="70"/>
+      <c r="BF13" s="70"/>
+      <c r="BG13" s="70"/>
+      <c r="BH13" s="70"/>
+      <c r="BI13" s="71"/>
+      <c r="BJ13" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK13" s="59"/>
-      <c r="BL13" s="60"/>
-      <c r="BM13" s="58" t="s">
+      <c r="BK13" s="70"/>
+      <c r="BL13" s="71"/>
+      <c r="BM13" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN13" s="59"/>
-      <c r="BO13" s="60"/>
+      <c r="BN13" s="70"/>
+      <c r="BO13" s="71"/>
     </row>
     <row r="14" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
@@ -8478,116 +8478,116 @@
       </c>
     </row>
     <row r="20" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="57"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-      <c r="K20" s="57"/>
-      <c r="L20" s="57"/>
-      <c r="M20" s="57"/>
-      <c r="N20" s="57"/>
-      <c r="O20" s="57"/>
-      <c r="P20" s="57"/>
-      <c r="Q20" s="57"/>
-      <c r="R20" s="57"/>
-      <c r="S20" s="57"/>
-      <c r="T20" s="57"/>
-      <c r="U20" s="57"/>
-      <c r="V20" s="57"/>
-      <c r="W20" s="57"/>
-      <c r="X20" s="57"/>
-      <c r="Y20" s="57"/>
-      <c r="Z20" s="57"/>
-      <c r="AA20" s="57"/>
-      <c r="AB20" s="57"/>
-      <c r="AC20" s="57"/>
-      <c r="AD20" s="57"/>
-      <c r="AE20" s="57"/>
-      <c r="AF20" s="57"/>
-      <c r="AG20" s="57"/>
-      <c r="AH20" s="57"/>
-      <c r="AI20" s="57"/>
-      <c r="AJ20" s="57"/>
-      <c r="AK20" s="57"/>
-      <c r="AL20" s="57"/>
-      <c r="AM20" s="57"/>
-      <c r="AN20" s="57"/>
-      <c r="AO20" s="57"/>
-      <c r="AP20" s="57"/>
-      <c r="AQ20" s="57"/>
-      <c r="AR20" s="57"/>
-      <c r="AS20" s="57"/>
-      <c r="AT20" s="57"/>
-      <c r="AU20" s="57"/>
-      <c r="AV20" s="57"/>
-      <c r="AW20" s="57"/>
-      <c r="AX20" s="57"/>
-      <c r="AY20" s="57"/>
-      <c r="AZ20" s="57"/>
-      <c r="BA20" s="57"/>
-      <c r="BB20" s="57"/>
-      <c r="BC20" s="57"/>
-      <c r="BD20" s="57"/>
-      <c r="BE20" s="57"/>
-      <c r="BF20" s="57"/>
-      <c r="BG20" s="57"/>
-      <c r="BH20" s="57"/>
-      <c r="BI20" s="57"/>
-      <c r="BJ20" s="57"/>
-      <c r="BK20" s="57"/>
-      <c r="BL20" s="57"/>
-      <c r="BM20" s="57"/>
-      <c r="BN20" s="57"/>
-      <c r="BO20" s="57"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="76"/>
+      <c r="K20" s="76"/>
+      <c r="L20" s="76"/>
+      <c r="M20" s="76"/>
+      <c r="N20" s="76"/>
+      <c r="O20" s="76"/>
+      <c r="P20" s="76"/>
+      <c r="Q20" s="76"/>
+      <c r="R20" s="76"/>
+      <c r="S20" s="76"/>
+      <c r="T20" s="76"/>
+      <c r="U20" s="76"/>
+      <c r="V20" s="76"/>
+      <c r="W20" s="76"/>
+      <c r="X20" s="76"/>
+      <c r="Y20" s="76"/>
+      <c r="Z20" s="76"/>
+      <c r="AA20" s="76"/>
+      <c r="AB20" s="76"/>
+      <c r="AC20" s="76"/>
+      <c r="AD20" s="76"/>
+      <c r="AE20" s="76"/>
+      <c r="AF20" s="76"/>
+      <c r="AG20" s="76"/>
+      <c r="AH20" s="76"/>
+      <c r="AI20" s="76"/>
+      <c r="AJ20" s="76"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="76"/>
+      <c r="AP20" s="76"/>
+      <c r="AQ20" s="76"/>
+      <c r="AR20" s="76"/>
+      <c r="AS20" s="76"/>
+      <c r="AT20" s="76"/>
+      <c r="AU20" s="76"/>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="76"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="76"/>
+      <c r="BO20" s="76"/>
     </row>
     <row r="21" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B21" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C21" s="21"/>
-      <c r="D21" s="71" t="s">
+      <c r="D21" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E21" s="71"/>
-      <c r="F21" s="71"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
       <c r="G21" s="22"/>
-      <c r="H21" s="72" t="s">
+      <c r="H21" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I21" s="73"/>
-      <c r="J21" s="73"/>
-      <c r="K21" s="72" t="s">
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="73"/>
-      <c r="M21" s="73"/>
-      <c r="N21" s="72" t="s">
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O21" s="73"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="72" t="s">
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R21" s="73"/>
-      <c r="S21" s="73"/>
-      <c r="T21" s="72" t="s">
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U21" s="73"/>
-      <c r="V21" s="73"/>
-      <c r="W21" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
       <c r="AD21" s="12" t="s">
         <v>23</v>
       </c>
@@ -8645,34 +8645,34 @@
       <c r="AW21" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX21" s="58" t="s">
+      <c r="AX21" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="60"/>
-      <c r="BA21" s="58" t="s">
+      <c r="AY21" s="70"/>
+      <c r="AZ21" s="71"/>
+      <c r="BA21" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB21" s="59"/>
-      <c r="BC21" s="60"/>
-      <c r="BD21" s="58" t="s">
+      <c r="BB21" s="70"/>
+      <c r="BC21" s="71"/>
+      <c r="BD21" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="58" t="s">
+      <c r="BE21" s="70"/>
+      <c r="BF21" s="70"/>
+      <c r="BG21" s="70"/>
+      <c r="BH21" s="70"/>
+      <c r="BI21" s="71"/>
+      <c r="BJ21" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="60"/>
-      <c r="BM21" s="58" t="s">
+      <c r="BK21" s="70"/>
+      <c r="BL21" s="71"/>
+      <c r="BM21" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="60"/>
+      <c r="BN21" s="70"/>
+      <c r="BO21" s="71"/>
     </row>
     <row r="22" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B22" s="23">
@@ -9937,116 +9937,116 @@
       </c>
     </row>
     <row r="28" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="57" t="s">
+      <c r="B28" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-      <c r="K28" s="57"/>
-      <c r="L28" s="57"/>
-      <c r="M28" s="57"/>
-      <c r="N28" s="57"/>
-      <c r="O28" s="57"/>
-      <c r="P28" s="57"/>
-      <c r="Q28" s="57"/>
-      <c r="R28" s="57"/>
-      <c r="S28" s="57"/>
-      <c r="T28" s="57"/>
-      <c r="U28" s="57"/>
-      <c r="V28" s="57"/>
-      <c r="W28" s="57"/>
-      <c r="X28" s="57"/>
-      <c r="Y28" s="57"/>
-      <c r="Z28" s="57"/>
-      <c r="AA28" s="57"/>
-      <c r="AB28" s="57"/>
-      <c r="AC28" s="57"/>
-      <c r="AD28" s="57"/>
-      <c r="AE28" s="57"/>
-      <c r="AF28" s="57"/>
-      <c r="AG28" s="57"/>
-      <c r="AH28" s="57"/>
-      <c r="AI28" s="57"/>
-      <c r="AJ28" s="57"/>
-      <c r="AK28" s="57"/>
-      <c r="AL28" s="57"/>
-      <c r="AM28" s="57"/>
-      <c r="AN28" s="57"/>
-      <c r="AO28" s="57"/>
-      <c r="AP28" s="57"/>
-      <c r="AQ28" s="57"/>
-      <c r="AR28" s="57"/>
-      <c r="AS28" s="57"/>
-      <c r="AT28" s="57"/>
-      <c r="AU28" s="57"/>
-      <c r="AV28" s="57"/>
-      <c r="AW28" s="57"/>
-      <c r="AX28" s="57"/>
-      <c r="AY28" s="57"/>
-      <c r="AZ28" s="57"/>
-      <c r="BA28" s="57"/>
-      <c r="BB28" s="57"/>
-      <c r="BC28" s="57"/>
-      <c r="BD28" s="57"/>
-      <c r="BE28" s="57"/>
-      <c r="BF28" s="57"/>
-      <c r="BG28" s="57"/>
-      <c r="BH28" s="57"/>
-      <c r="BI28" s="57"/>
-      <c r="BJ28" s="57"/>
-      <c r="BK28" s="57"/>
-      <c r="BL28" s="57"/>
-      <c r="BM28" s="57"/>
-      <c r="BN28" s="57"/>
-      <c r="BO28" s="57"/>
+      <c r="C28" s="76"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="76"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
+      <c r="P28" s="76"/>
+      <c r="Q28" s="76"/>
+      <c r="R28" s="76"/>
+      <c r="S28" s="76"/>
+      <c r="T28" s="76"/>
+      <c r="U28" s="76"/>
+      <c r="V28" s="76"/>
+      <c r="W28" s="76"/>
+      <c r="X28" s="76"/>
+      <c r="Y28" s="76"/>
+      <c r="Z28" s="76"/>
+      <c r="AA28" s="76"/>
+      <c r="AB28" s="76"/>
+      <c r="AC28" s="76"/>
+      <c r="AD28" s="76"/>
+      <c r="AE28" s="76"/>
+      <c r="AF28" s="76"/>
+      <c r="AG28" s="76"/>
+      <c r="AH28" s="76"/>
+      <c r="AI28" s="76"/>
+      <c r="AJ28" s="76"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="76"/>
+      <c r="AP28" s="76"/>
+      <c r="AQ28" s="76"/>
+      <c r="AR28" s="76"/>
+      <c r="AS28" s="76"/>
+      <c r="AT28" s="76"/>
+      <c r="AU28" s="76"/>
+      <c r="AV28" s="76"/>
+      <c r="AW28" s="76"/>
+      <c r="AX28" s="76"/>
+      <c r="AY28" s="76"/>
+      <c r="AZ28" s="76"/>
+      <c r="BA28" s="76"/>
+      <c r="BB28" s="76"/>
+      <c r="BC28" s="76"/>
+      <c r="BD28" s="76"/>
+      <c r="BE28" s="76"/>
+      <c r="BF28" s="76"/>
+      <c r="BG28" s="76"/>
+      <c r="BH28" s="76"/>
+      <c r="BI28" s="76"/>
+      <c r="BJ28" s="76"/>
+      <c r="BK28" s="76"/>
+      <c r="BL28" s="76"/>
+      <c r="BM28" s="76"/>
+      <c r="BN28" s="76"/>
+      <c r="BO28" s="76"/>
     </row>
     <row r="29" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B29" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C29" s="21"/>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="72" t="s">
+      <c r="H29" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="73"/>
-      <c r="J29" s="73"/>
-      <c r="K29" s="72" t="s">
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="73"/>
-      <c r="M29" s="73"/>
-      <c r="N29" s="72" t="s">
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="73"/>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="72" t="s">
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="73"/>
-      <c r="S29" s="73"/>
-      <c r="T29" s="72" t="s">
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="73"/>
-      <c r="V29" s="73"/>
-      <c r="W29" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
       <c r="AD29" s="12" t="s">
         <v>23</v>
       </c>
@@ -10104,34 +10104,34 @@
       <c r="AW29" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX29" s="58" t="s">
+      <c r="AX29" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY29" s="59"/>
-      <c r="AZ29" s="60"/>
-      <c r="BA29" s="58" t="s">
+      <c r="AY29" s="70"/>
+      <c r="AZ29" s="71"/>
+      <c r="BA29" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB29" s="59"/>
-      <c r="BC29" s="60"/>
-      <c r="BD29" s="58" t="s">
+      <c r="BB29" s="70"/>
+      <c r="BC29" s="71"/>
+      <c r="BD29" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE29" s="59"/>
-      <c r="BF29" s="59"/>
-      <c r="BG29" s="59"/>
-      <c r="BH29" s="59"/>
-      <c r="BI29" s="60"/>
-      <c r="BJ29" s="58" t="s">
+      <c r="BE29" s="70"/>
+      <c r="BF29" s="70"/>
+      <c r="BG29" s="70"/>
+      <c r="BH29" s="70"/>
+      <c r="BI29" s="71"/>
+      <c r="BJ29" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK29" s="59"/>
-      <c r="BL29" s="60"/>
-      <c r="BM29" s="58" t="s">
+      <c r="BK29" s="70"/>
+      <c r="BL29" s="71"/>
+      <c r="BM29" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN29" s="59"/>
-      <c r="BO29" s="60"/>
+      <c r="BN29" s="70"/>
+      <c r="BO29" s="71"/>
     </row>
     <row r="30" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
@@ -11396,120 +11396,120 @@
       </c>
     </row>
     <row r="36" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="76" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="57"/>
-      <c r="F36" s="57"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-      <c r="K36" s="57"/>
-      <c r="L36" s="57"/>
-      <c r="M36" s="57"/>
-      <c r="N36" s="57"/>
-      <c r="O36" s="57"/>
-      <c r="P36" s="57"/>
-      <c r="Q36" s="57"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="57"/>
-      <c r="T36" s="57"/>
-      <c r="U36" s="57"/>
-      <c r="V36" s="57"/>
-      <c r="W36" s="57"/>
-      <c r="X36" s="57"/>
-      <c r="Y36" s="57"/>
-      <c r="Z36" s="57"/>
-      <c r="AA36" s="57"/>
-      <c r="AB36" s="57"/>
-      <c r="AC36" s="57"/>
-      <c r="AD36" s="57"/>
-      <c r="AE36" s="57"/>
-      <c r="AF36" s="57"/>
-      <c r="AG36" s="57"/>
-      <c r="AH36" s="57"/>
-      <c r="AI36" s="57"/>
-      <c r="AJ36" s="57"/>
-      <c r="AK36" s="57"/>
-      <c r="AL36" s="57"/>
-      <c r="AM36" s="57"/>
-      <c r="AN36" s="57"/>
-      <c r="AO36" s="57"/>
-      <c r="AP36" s="57"/>
-      <c r="AQ36" s="57"/>
-      <c r="AR36" s="57"/>
-      <c r="AS36" s="57"/>
-      <c r="AT36" s="57"/>
-      <c r="AU36" s="57"/>
-      <c r="AV36" s="57"/>
-      <c r="AW36" s="57"/>
-      <c r="AX36" s="57"/>
-      <c r="AY36" s="57"/>
-      <c r="AZ36" s="57"/>
-      <c r="BA36" s="57"/>
-      <c r="BB36" s="57"/>
-      <c r="BC36" s="57"/>
-      <c r="BD36" s="57"/>
-      <c r="BE36" s="57"/>
-      <c r="BF36" s="57"/>
-      <c r="BG36" s="57"/>
-      <c r="BH36" s="57"/>
-      <c r="BI36" s="57"/>
-      <c r="BJ36" s="57"/>
-      <c r="BK36" s="57"/>
-      <c r="BL36" s="57"/>
-      <c r="BM36" s="57"/>
-      <c r="BN36" s="57"/>
-      <c r="BO36" s="57"/>
-      <c r="BQ36" s="64" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="76"/>
+      <c r="J36" s="76"/>
+      <c r="K36" s="76"/>
+      <c r="L36" s="76"/>
+      <c r="M36" s="76"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="76"/>
+      <c r="P36" s="76"/>
+      <c r="Q36" s="76"/>
+      <c r="R36" s="76"/>
+      <c r="S36" s="76"/>
+      <c r="T36" s="76"/>
+      <c r="U36" s="76"/>
+      <c r="V36" s="76"/>
+      <c r="W36" s="76"/>
+      <c r="X36" s="76"/>
+      <c r="Y36" s="76"/>
+      <c r="Z36" s="76"/>
+      <c r="AA36" s="76"/>
+      <c r="AB36" s="76"/>
+      <c r="AC36" s="76"/>
+      <c r="AD36" s="76"/>
+      <c r="AE36" s="76"/>
+      <c r="AF36" s="76"/>
+      <c r="AG36" s="76"/>
+      <c r="AH36" s="76"/>
+      <c r="AI36" s="76"/>
+      <c r="AJ36" s="76"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="76"/>
+      <c r="AP36" s="76"/>
+      <c r="AQ36" s="76"/>
+      <c r="AR36" s="76"/>
+      <c r="AS36" s="76"/>
+      <c r="AT36" s="76"/>
+      <c r="AU36" s="76"/>
+      <c r="AV36" s="76"/>
+      <c r="AW36" s="76"/>
+      <c r="AX36" s="76"/>
+      <c r="AY36" s="76"/>
+      <c r="AZ36" s="76"/>
+      <c r="BA36" s="76"/>
+      <c r="BB36" s="76"/>
+      <c r="BC36" s="76"/>
+      <c r="BD36" s="76"/>
+      <c r="BE36" s="76"/>
+      <c r="BF36" s="76"/>
+      <c r="BG36" s="76"/>
+      <c r="BH36" s="76"/>
+      <c r="BI36" s="76"/>
+      <c r="BJ36" s="76"/>
+      <c r="BK36" s="76"/>
+      <c r="BL36" s="76"/>
+      <c r="BM36" s="76"/>
+      <c r="BN36" s="76"/>
+      <c r="BO36" s="76"/>
+      <c r="BQ36" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="BR36" s="64"/>
+      <c r="BR36" s="62"/>
     </row>
     <row r="37" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B37" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C37" s="21"/>
-      <c r="D37" s="71" t="s">
+      <c r="D37" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="22"/>
-      <c r="H37" s="72" t="s">
+      <c r="H37" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I37" s="73"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="72" t="s">
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L37" s="73"/>
-      <c r="M37" s="73"/>
-      <c r="N37" s="72" t="s">
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O37" s="73"/>
-      <c r="P37" s="73"/>
-      <c r="Q37" s="72" t="s">
+      <c r="O37" s="59"/>
+      <c r="P37" s="59"/>
+      <c r="Q37" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R37" s="73"/>
-      <c r="S37" s="73"/>
-      <c r="T37" s="72" t="s">
+      <c r="R37" s="59"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U37" s="73"/>
-      <c r="V37" s="73"/>
-      <c r="W37" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
       <c r="AD37" s="12" t="s">
         <v>23</v>
       </c>
@@ -11567,38 +11567,38 @@
       <c r="AW37" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX37" s="58" t="s">
+      <c r="AX37" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY37" s="59"/>
-      <c r="AZ37" s="60"/>
-      <c r="BA37" s="58" t="s">
+      <c r="AY37" s="70"/>
+      <c r="AZ37" s="71"/>
+      <c r="BA37" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB37" s="59"/>
-      <c r="BC37" s="60"/>
-      <c r="BD37" s="58" t="s">
+      <c r="BB37" s="70"/>
+      <c r="BC37" s="71"/>
+      <c r="BD37" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE37" s="59"/>
-      <c r="BF37" s="59"/>
-      <c r="BG37" s="59"/>
-      <c r="BH37" s="59"/>
-      <c r="BI37" s="60"/>
-      <c r="BJ37" s="58" t="s">
+      <c r="BE37" s="70"/>
+      <c r="BF37" s="70"/>
+      <c r="BG37" s="70"/>
+      <c r="BH37" s="70"/>
+      <c r="BI37" s="71"/>
+      <c r="BJ37" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK37" s="59"/>
-      <c r="BL37" s="60"/>
-      <c r="BM37" s="58" t="s">
+      <c r="BK37" s="70"/>
+      <c r="BL37" s="71"/>
+      <c r="BM37" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN37" s="59"/>
-      <c r="BO37" s="60"/>
-      <c r="BQ37" s="65" t="s">
+      <c r="BN37" s="70"/>
+      <c r="BO37" s="71"/>
+      <c r="BQ37" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="BR37" s="66"/>
+      <c r="BR37" s="64"/>
     </row>
     <row r="38" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B38" s="23">
@@ -11809,10 +11809,10 @@
       <c r="BO38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="BQ38" s="67" t="s">
+      <c r="BQ38" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="BR38" s="68"/>
+      <c r="BR38" s="66"/>
     </row>
     <row r="39" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B39" s="23">
@@ -12036,10 +12036,10 @@
         <f>VLOOKUP($AX39,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1297.1428571428571</v>
       </c>
-      <c r="BQ39" s="67" t="s">
+      <c r="BQ39" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="BR39" s="68"/>
+      <c r="BR39" s="66"/>
     </row>
     <row r="40" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B40" s="23">
@@ -12271,10 +12271,10 @@
         <f>VLOOKUP($AX40,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>1026.5151515151515</v>
       </c>
-      <c r="BQ40" s="67" t="s">
+      <c r="BQ40" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="BR40" s="68"/>
+      <c r="BR40" s="66"/>
     </row>
     <row r="41" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B41" s="23">
@@ -12498,10 +12498,10 @@
         <f>VLOOKUP($AX41,Dummy!$B$19:$S$22,18,FALSE)</f>
         <v>973.88059701492534</v>
       </c>
-      <c r="BQ41" s="69" t="s">
+      <c r="BQ41" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="BR41" s="70"/>
+      <c r="BR41" s="68"/>
     </row>
     <row r="42" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B42" s="23">
@@ -12875,116 +12875,116 @@
       </c>
     </row>
     <row r="44" spans="2:70" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B44" s="57" t="s">
+      <c r="B44" s="76" t="s">
         <v>79</v>
       </c>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="57"/>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
-      <c r="J44" s="57"/>
-      <c r="K44" s="57"/>
-      <c r="L44" s="57"/>
-      <c r="M44" s="57"/>
-      <c r="N44" s="57"/>
-      <c r="O44" s="57"/>
-      <c r="P44" s="57"/>
-      <c r="Q44" s="57"/>
-      <c r="R44" s="57"/>
-      <c r="S44" s="57"/>
-      <c r="T44" s="57"/>
-      <c r="U44" s="57"/>
-      <c r="V44" s="57"/>
-      <c r="W44" s="57"/>
-      <c r="X44" s="57"/>
-      <c r="Y44" s="57"/>
-      <c r="Z44" s="57"/>
-      <c r="AA44" s="57"/>
-      <c r="AB44" s="57"/>
-      <c r="AC44" s="57"/>
-      <c r="AD44" s="57"/>
-      <c r="AE44" s="57"/>
-      <c r="AF44" s="57"/>
-      <c r="AG44" s="57"/>
-      <c r="AH44" s="57"/>
-      <c r="AI44" s="57"/>
-      <c r="AJ44" s="57"/>
-      <c r="AK44" s="57"/>
-      <c r="AL44" s="57"/>
-      <c r="AM44" s="57"/>
-      <c r="AN44" s="57"/>
-      <c r="AO44" s="57"/>
-      <c r="AP44" s="57"/>
-      <c r="AQ44" s="57"/>
-      <c r="AR44" s="57"/>
-      <c r="AS44" s="57"/>
-      <c r="AT44" s="57"/>
-      <c r="AU44" s="57"/>
-      <c r="AV44" s="57"/>
-      <c r="AW44" s="57"/>
-      <c r="AX44" s="57"/>
-      <c r="AY44" s="57"/>
-      <c r="AZ44" s="57"/>
-      <c r="BA44" s="57"/>
-      <c r="BB44" s="57"/>
-      <c r="BC44" s="57"/>
-      <c r="BD44" s="57"/>
-      <c r="BE44" s="57"/>
-      <c r="BF44" s="57"/>
-      <c r="BG44" s="57"/>
-      <c r="BH44" s="57"/>
-      <c r="BI44" s="57"/>
-      <c r="BJ44" s="57"/>
-      <c r="BK44" s="57"/>
-      <c r="BL44" s="57"/>
-      <c r="BM44" s="57"/>
-      <c r="BN44" s="57"/>
-      <c r="BO44" s="57"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="76"/>
+      <c r="T44" s="76"/>
+      <c r="U44" s="76"/>
+      <c r="V44" s="76"/>
+      <c r="W44" s="76"/>
+      <c r="X44" s="76"/>
+      <c r="Y44" s="76"/>
+      <c r="Z44" s="76"/>
+      <c r="AA44" s="76"/>
+      <c r="AB44" s="76"/>
+      <c r="AC44" s="76"/>
+      <c r="AD44" s="76"/>
+      <c r="AE44" s="76"/>
+      <c r="AF44" s="76"/>
+      <c r="AG44" s="76"/>
+      <c r="AH44" s="76"/>
+      <c r="AI44" s="76"/>
+      <c r="AJ44" s="76"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="76"/>
+      <c r="AP44" s="76"/>
+      <c r="AQ44" s="76"/>
+      <c r="AR44" s="76"/>
+      <c r="AS44" s="76"/>
+      <c r="AT44" s="76"/>
+      <c r="AU44" s="76"/>
+      <c r="AV44" s="76"/>
+      <c r="AW44" s="76"/>
+      <c r="AX44" s="76"/>
+      <c r="AY44" s="76"/>
+      <c r="AZ44" s="76"/>
+      <c r="BA44" s="76"/>
+      <c r="BB44" s="76"/>
+      <c r="BC44" s="76"/>
+      <c r="BD44" s="76"/>
+      <c r="BE44" s="76"/>
+      <c r="BF44" s="76"/>
+      <c r="BG44" s="76"/>
+      <c r="BH44" s="76"/>
+      <c r="BI44" s="76"/>
+      <c r="BJ44" s="76"/>
+      <c r="BK44" s="76"/>
+      <c r="BL44" s="76"/>
+      <c r="BM44" s="76"/>
+      <c r="BN44" s="76"/>
+      <c r="BO44" s="76"/>
     </row>
     <row r="45" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B45" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C45" s="21"/>
-      <c r="D45" s="71" t="s">
+      <c r="D45" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="60"/>
       <c r="G45" s="22"/>
-      <c r="H45" s="72" t="s">
+      <c r="H45" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I45" s="73"/>
-      <c r="J45" s="73"/>
-      <c r="K45" s="72" t="s">
+      <c r="I45" s="59"/>
+      <c r="J45" s="59"/>
+      <c r="K45" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L45" s="73"/>
-      <c r="M45" s="73"/>
-      <c r="N45" s="72" t="s">
+      <c r="L45" s="59"/>
+      <c r="M45" s="59"/>
+      <c r="N45" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O45" s="73"/>
-      <c r="P45" s="73"/>
-      <c r="Q45" s="72" t="s">
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
+      <c r="Q45" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R45" s="73"/>
-      <c r="S45" s="73"/>
-      <c r="T45" s="72" t="s">
+      <c r="R45" s="59"/>
+      <c r="S45" s="59"/>
+      <c r="T45" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U45" s="73"/>
-      <c r="V45" s="73"/>
-      <c r="W45" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
+      <c r="U45" s="59"/>
+      <c r="V45" s="59"/>
+      <c r="W45" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X45" s="59"/>
+      <c r="Y45" s="59"/>
       <c r="AD45" s="12" t="s">
         <v>23</v>
       </c>
@@ -13042,34 +13042,34 @@
       <c r="AW45" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX45" s="58" t="s">
+      <c r="AX45" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY45" s="59"/>
-      <c r="AZ45" s="60"/>
-      <c r="BA45" s="58" t="s">
+      <c r="AY45" s="70"/>
+      <c r="AZ45" s="71"/>
+      <c r="BA45" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB45" s="59"/>
-      <c r="BC45" s="60"/>
-      <c r="BD45" s="58" t="s">
+      <c r="BB45" s="70"/>
+      <c r="BC45" s="71"/>
+      <c r="BD45" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE45" s="59"/>
-      <c r="BF45" s="59"/>
-      <c r="BG45" s="59"/>
-      <c r="BH45" s="59"/>
-      <c r="BI45" s="60"/>
-      <c r="BJ45" s="58" t="s">
+      <c r="BE45" s="70"/>
+      <c r="BF45" s="70"/>
+      <c r="BG45" s="70"/>
+      <c r="BH45" s="70"/>
+      <c r="BI45" s="71"/>
+      <c r="BJ45" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK45" s="59"/>
-      <c r="BL45" s="60"/>
-      <c r="BM45" s="58" t="s">
+      <c r="BK45" s="70"/>
+      <c r="BL45" s="71"/>
+      <c r="BM45" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN45" s="59"/>
-      <c r="BO45" s="60"/>
+      <c r="BN45" s="70"/>
+      <c r="BO45" s="71"/>
     </row>
     <row r="46" spans="2:70" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
@@ -14330,116 +14330,116 @@
       </c>
     </row>
     <row r="52" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="76" t="s">
         <v>80</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="57"/>
-      <c r="G52" s="57"/>
-      <c r="H52" s="57"/>
-      <c r="I52" s="57"/>
-      <c r="J52" s="57"/>
-      <c r="K52" s="57"/>
-      <c r="L52" s="57"/>
-      <c r="M52" s="57"/>
-      <c r="N52" s="57"/>
-      <c r="O52" s="57"/>
-      <c r="P52" s="57"/>
-      <c r="Q52" s="57"/>
-      <c r="R52" s="57"/>
-      <c r="S52" s="57"/>
-      <c r="T52" s="57"/>
-      <c r="U52" s="57"/>
-      <c r="V52" s="57"/>
-      <c r="W52" s="57"/>
-      <c r="X52" s="57"/>
-      <c r="Y52" s="57"/>
-      <c r="Z52" s="57"/>
-      <c r="AA52" s="57"/>
-      <c r="AB52" s="57"/>
-      <c r="AC52" s="57"/>
-      <c r="AD52" s="57"/>
-      <c r="AE52" s="57"/>
-      <c r="AF52" s="57"/>
-      <c r="AG52" s="57"/>
-      <c r="AH52" s="57"/>
-      <c r="AI52" s="57"/>
-      <c r="AJ52" s="57"/>
-      <c r="AK52" s="57"/>
-      <c r="AL52" s="57"/>
-      <c r="AM52" s="57"/>
-      <c r="AN52" s="57"/>
-      <c r="AO52" s="57"/>
-      <c r="AP52" s="57"/>
-      <c r="AQ52" s="57"/>
-      <c r="AR52" s="57"/>
-      <c r="AS52" s="57"/>
-      <c r="AT52" s="57"/>
-      <c r="AU52" s="57"/>
-      <c r="AV52" s="57"/>
-      <c r="AW52" s="57"/>
-      <c r="AX52" s="57"/>
-      <c r="AY52" s="57"/>
-      <c r="AZ52" s="57"/>
-      <c r="BA52" s="57"/>
-      <c r="BB52" s="57"/>
-      <c r="BC52" s="57"/>
-      <c r="BD52" s="57"/>
-      <c r="BE52" s="57"/>
-      <c r="BF52" s="57"/>
-      <c r="BG52" s="57"/>
-      <c r="BH52" s="57"/>
-      <c r="BI52" s="57"/>
-      <c r="BJ52" s="57"/>
-      <c r="BK52" s="57"/>
-      <c r="BL52" s="57"/>
-      <c r="BM52" s="57"/>
-      <c r="BN52" s="57"/>
-      <c r="BO52" s="57"/>
+      <c r="C52" s="76"/>
+      <c r="D52" s="76"/>
+      <c r="E52" s="76"/>
+      <c r="F52" s="76"/>
+      <c r="G52" s="76"/>
+      <c r="H52" s="76"/>
+      <c r="I52" s="76"/>
+      <c r="J52" s="76"/>
+      <c r="K52" s="76"/>
+      <c r="L52" s="76"/>
+      <c r="M52" s="76"/>
+      <c r="N52" s="76"/>
+      <c r="O52" s="76"/>
+      <c r="P52" s="76"/>
+      <c r="Q52" s="76"/>
+      <c r="R52" s="76"/>
+      <c r="S52" s="76"/>
+      <c r="T52" s="76"/>
+      <c r="U52" s="76"/>
+      <c r="V52" s="76"/>
+      <c r="W52" s="76"/>
+      <c r="X52" s="76"/>
+      <c r="Y52" s="76"/>
+      <c r="Z52" s="76"/>
+      <c r="AA52" s="76"/>
+      <c r="AB52" s="76"/>
+      <c r="AC52" s="76"/>
+      <c r="AD52" s="76"/>
+      <c r="AE52" s="76"/>
+      <c r="AF52" s="76"/>
+      <c r="AG52" s="76"/>
+      <c r="AH52" s="76"/>
+      <c r="AI52" s="76"/>
+      <c r="AJ52" s="76"/>
+      <c r="AK52" s="76"/>
+      <c r="AL52" s="76"/>
+      <c r="AM52" s="76"/>
+      <c r="AN52" s="76"/>
+      <c r="AO52" s="76"/>
+      <c r="AP52" s="76"/>
+      <c r="AQ52" s="76"/>
+      <c r="AR52" s="76"/>
+      <c r="AS52" s="76"/>
+      <c r="AT52" s="76"/>
+      <c r="AU52" s="76"/>
+      <c r="AV52" s="76"/>
+      <c r="AW52" s="76"/>
+      <c r="AX52" s="76"/>
+      <c r="AY52" s="76"/>
+      <c r="AZ52" s="76"/>
+      <c r="BA52" s="76"/>
+      <c r="BB52" s="76"/>
+      <c r="BC52" s="76"/>
+      <c r="BD52" s="76"/>
+      <c r="BE52" s="76"/>
+      <c r="BF52" s="76"/>
+      <c r="BG52" s="76"/>
+      <c r="BH52" s="76"/>
+      <c r="BI52" s="76"/>
+      <c r="BJ52" s="76"/>
+      <c r="BK52" s="76"/>
+      <c r="BL52" s="76"/>
+      <c r="BM52" s="76"/>
+      <c r="BN52" s="76"/>
+      <c r="BO52" s="76"/>
     </row>
     <row r="53" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B53" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C53" s="21"/>
-      <c r="D53" s="71" t="s">
+      <c r="D53" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E53" s="71"/>
-      <c r="F53" s="71"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="60"/>
       <c r="G53" s="22"/>
-      <c r="H53" s="72" t="s">
+      <c r="H53" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I53" s="73"/>
-      <c r="J53" s="73"/>
-      <c r="K53" s="72" t="s">
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L53" s="73"/>
-      <c r="M53" s="73"/>
-      <c r="N53" s="72" t="s">
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O53" s="73"/>
-      <c r="P53" s="73"/>
-      <c r="Q53" s="72" t="s">
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R53" s="73"/>
-      <c r="S53" s="73"/>
-      <c r="T53" s="72" t="s">
+      <c r="R53" s="59"/>
+      <c r="S53" s="59"/>
+      <c r="T53" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U53" s="73"/>
-      <c r="V53" s="73"/>
-      <c r="W53" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X53" s="73"/>
-      <c r="Y53" s="73"/>
+      <c r="U53" s="59"/>
+      <c r="V53" s="59"/>
+      <c r="W53" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X53" s="59"/>
+      <c r="Y53" s="59"/>
       <c r="AD53" s="12" t="s">
         <v>23</v>
       </c>
@@ -14497,34 +14497,34 @@
       <c r="AW53" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX53" s="58" t="s">
+      <c r="AX53" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY53" s="59"/>
-      <c r="AZ53" s="60"/>
-      <c r="BA53" s="58" t="s">
+      <c r="AY53" s="70"/>
+      <c r="AZ53" s="71"/>
+      <c r="BA53" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB53" s="59"/>
-      <c r="BC53" s="60"/>
-      <c r="BD53" s="58" t="s">
+      <c r="BB53" s="70"/>
+      <c r="BC53" s="71"/>
+      <c r="BD53" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE53" s="59"/>
-      <c r="BF53" s="59"/>
-      <c r="BG53" s="59"/>
-      <c r="BH53" s="59"/>
-      <c r="BI53" s="60"/>
-      <c r="BJ53" s="58" t="s">
+      <c r="BE53" s="70"/>
+      <c r="BF53" s="70"/>
+      <c r="BG53" s="70"/>
+      <c r="BH53" s="70"/>
+      <c r="BI53" s="71"/>
+      <c r="BJ53" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK53" s="59"/>
-      <c r="BL53" s="60"/>
-      <c r="BM53" s="58" t="s">
+      <c r="BK53" s="70"/>
+      <c r="BL53" s="71"/>
+      <c r="BM53" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN53" s="59"/>
-      <c r="BO53" s="60"/>
+      <c r="BN53" s="70"/>
+      <c r="BO53" s="71"/>
     </row>
     <row r="54" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B54" s="23">
@@ -15785,116 +15785,116 @@
       </c>
     </row>
     <row r="60" spans="2:67" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="57" t="s">
+      <c r="B60" s="76" t="s">
         <v>81</v>
       </c>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
-      <c r="E60" s="57"/>
-      <c r="F60" s="57"/>
-      <c r="G60" s="57"/>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
-      <c r="J60" s="57"/>
-      <c r="K60" s="57"/>
-      <c r="L60" s="57"/>
-      <c r="M60" s="57"/>
-      <c r="N60" s="57"/>
-      <c r="O60" s="57"/>
-      <c r="P60" s="57"/>
-      <c r="Q60" s="57"/>
-      <c r="R60" s="57"/>
-      <c r="S60" s="57"/>
-      <c r="T60" s="57"/>
-      <c r="U60" s="57"/>
-      <c r="V60" s="57"/>
-      <c r="W60" s="57"/>
-      <c r="X60" s="57"/>
-      <c r="Y60" s="57"/>
-      <c r="Z60" s="57"/>
-      <c r="AA60" s="57"/>
-      <c r="AB60" s="57"/>
-      <c r="AC60" s="57"/>
-      <c r="AD60" s="57"/>
-      <c r="AE60" s="57"/>
-      <c r="AF60" s="57"/>
-      <c r="AG60" s="57"/>
-      <c r="AH60" s="57"/>
-      <c r="AI60" s="57"/>
-      <c r="AJ60" s="57"/>
-      <c r="AK60" s="57"/>
-      <c r="AL60" s="57"/>
-      <c r="AM60" s="57"/>
-      <c r="AN60" s="57"/>
-      <c r="AO60" s="57"/>
-      <c r="AP60" s="57"/>
-      <c r="AQ60" s="57"/>
-      <c r="AR60" s="57"/>
-      <c r="AS60" s="57"/>
-      <c r="AT60" s="57"/>
-      <c r="AU60" s="57"/>
-      <c r="AV60" s="57"/>
-      <c r="AW60" s="57"/>
-      <c r="AX60" s="57"/>
-      <c r="AY60" s="57"/>
-      <c r="AZ60" s="57"/>
-      <c r="BA60" s="57"/>
-      <c r="BB60" s="57"/>
-      <c r="BC60" s="57"/>
-      <c r="BD60" s="57"/>
-      <c r="BE60" s="57"/>
-      <c r="BF60" s="57"/>
-      <c r="BG60" s="57"/>
-      <c r="BH60" s="57"/>
-      <c r="BI60" s="57"/>
-      <c r="BJ60" s="57"/>
-      <c r="BK60" s="57"/>
-      <c r="BL60" s="57"/>
-      <c r="BM60" s="57"/>
-      <c r="BN60" s="57"/>
-      <c r="BO60" s="57"/>
+      <c r="C60" s="76"/>
+      <c r="D60" s="76"/>
+      <c r="E60" s="76"/>
+      <c r="F60" s="76"/>
+      <c r="G60" s="76"/>
+      <c r="H60" s="76"/>
+      <c r="I60" s="76"/>
+      <c r="J60" s="76"/>
+      <c r="K60" s="76"/>
+      <c r="L60" s="76"/>
+      <c r="M60" s="76"/>
+      <c r="N60" s="76"/>
+      <c r="O60" s="76"/>
+      <c r="P60" s="76"/>
+      <c r="Q60" s="76"/>
+      <c r="R60" s="76"/>
+      <c r="S60" s="76"/>
+      <c r="T60" s="76"/>
+      <c r="U60" s="76"/>
+      <c r="V60" s="76"/>
+      <c r="W60" s="76"/>
+      <c r="X60" s="76"/>
+      <c r="Y60" s="76"/>
+      <c r="Z60" s="76"/>
+      <c r="AA60" s="76"/>
+      <c r="AB60" s="76"/>
+      <c r="AC60" s="76"/>
+      <c r="AD60" s="76"/>
+      <c r="AE60" s="76"/>
+      <c r="AF60" s="76"/>
+      <c r="AG60" s="76"/>
+      <c r="AH60" s="76"/>
+      <c r="AI60" s="76"/>
+      <c r="AJ60" s="76"/>
+      <c r="AK60" s="76"/>
+      <c r="AL60" s="76"/>
+      <c r="AM60" s="76"/>
+      <c r="AN60" s="76"/>
+      <c r="AO60" s="76"/>
+      <c r="AP60" s="76"/>
+      <c r="AQ60" s="76"/>
+      <c r="AR60" s="76"/>
+      <c r="AS60" s="76"/>
+      <c r="AT60" s="76"/>
+      <c r="AU60" s="76"/>
+      <c r="AV60" s="76"/>
+      <c r="AW60" s="76"/>
+      <c r="AX60" s="76"/>
+      <c r="AY60" s="76"/>
+      <c r="AZ60" s="76"/>
+      <c r="BA60" s="76"/>
+      <c r="BB60" s="76"/>
+      <c r="BC60" s="76"/>
+      <c r="BD60" s="76"/>
+      <c r="BE60" s="76"/>
+      <c r="BF60" s="76"/>
+      <c r="BG60" s="76"/>
+      <c r="BH60" s="76"/>
+      <c r="BI60" s="76"/>
+      <c r="BJ60" s="76"/>
+      <c r="BK60" s="76"/>
+      <c r="BL60" s="76"/>
+      <c r="BM60" s="76"/>
+      <c r="BN60" s="76"/>
+      <c r="BO60" s="76"/>
     </row>
     <row r="61" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B61" s="20" t="s">
         <v>86</v>
       </c>
       <c r="C61" s="21"/>
-      <c r="D61" s="71" t="s">
+      <c r="D61" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="E61" s="71"/>
-      <c r="F61" s="71"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="60"/>
       <c r="G61" s="22"/>
-      <c r="H61" s="72" t="s">
+      <c r="H61" s="61" t="s">
         <v>88</v>
       </c>
-      <c r="I61" s="73"/>
-      <c r="J61" s="73"/>
-      <c r="K61" s="72" t="s">
+      <c r="I61" s="59"/>
+      <c r="J61" s="59"/>
+      <c r="K61" s="61" t="s">
         <v>89</v>
       </c>
-      <c r="L61" s="73"/>
-      <c r="M61" s="73"/>
-      <c r="N61" s="72" t="s">
+      <c r="L61" s="59"/>
+      <c r="M61" s="59"/>
+      <c r="N61" s="61" t="s">
         <v>90</v>
       </c>
-      <c r="O61" s="73"/>
-      <c r="P61" s="73"/>
-      <c r="Q61" s="72" t="s">
+      <c r="O61" s="59"/>
+      <c r="P61" s="59"/>
+      <c r="Q61" s="61" t="s">
         <v>91</v>
       </c>
-      <c r="R61" s="73"/>
-      <c r="S61" s="73"/>
-      <c r="T61" s="72" t="s">
+      <c r="R61" s="59"/>
+      <c r="S61" s="59"/>
+      <c r="T61" s="61" t="s">
         <v>92</v>
       </c>
-      <c r="U61" s="73"/>
-      <c r="V61" s="73"/>
-      <c r="W61" s="73" t="s">
-        <v>1</v>
-      </c>
-      <c r="X61" s="73"/>
-      <c r="Y61" s="73"/>
+      <c r="U61" s="59"/>
+      <c r="V61" s="59"/>
+      <c r="W61" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="X61" s="59"/>
+      <c r="Y61" s="59"/>
       <c r="AD61" s="12" t="s">
         <v>23</v>
       </c>
@@ -15952,34 +15952,34 @@
       <c r="AW61" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AX61" s="58" t="s">
+      <c r="AX61" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="AY61" s="59"/>
-      <c r="AZ61" s="60"/>
-      <c r="BA61" s="58" t="s">
+      <c r="AY61" s="70"/>
+      <c r="AZ61" s="71"/>
+      <c r="BA61" s="69" t="s">
         <v>94</v>
       </c>
-      <c r="BB61" s="59"/>
-      <c r="BC61" s="60"/>
-      <c r="BD61" s="58" t="s">
+      <c r="BB61" s="70"/>
+      <c r="BC61" s="71"/>
+      <c r="BD61" s="69" t="s">
         <v>95</v>
       </c>
-      <c r="BE61" s="59"/>
-      <c r="BF61" s="59"/>
-      <c r="BG61" s="59"/>
-      <c r="BH61" s="59"/>
-      <c r="BI61" s="60"/>
-      <c r="BJ61" s="58" t="s">
+      <c r="BE61" s="70"/>
+      <c r="BF61" s="70"/>
+      <c r="BG61" s="70"/>
+      <c r="BH61" s="70"/>
+      <c r="BI61" s="71"/>
+      <c r="BJ61" s="69" t="s">
         <v>30</v>
       </c>
-      <c r="BK61" s="59"/>
-      <c r="BL61" s="60"/>
-      <c r="BM61" s="58" t="s">
+      <c r="BK61" s="70"/>
+      <c r="BL61" s="71"/>
+      <c r="BM61" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="BN61" s="59"/>
-      <c r="BO61" s="60"/>
+      <c r="BN61" s="70"/>
+      <c r="BO61" s="71"/>
     </row>
     <row r="62" spans="2:67" x14ac:dyDescent="0.25">
       <c r="B62" s="11">
@@ -17238,93 +17238,6 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="111">
-    <mergeCell ref="W5:Y5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W13:Y13"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:M21"/>
-    <mergeCell ref="N21:P21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="T21:V21"/>
-    <mergeCell ref="W21:Y21"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="K13:M13"/>
-    <mergeCell ref="N13:P13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="T13:V13"/>
-    <mergeCell ref="Q37:S37"/>
-    <mergeCell ref="T37:V37"/>
-    <mergeCell ref="W37:Y37"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="K37:M37"/>
-    <mergeCell ref="N37:P37"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="K61:M61"/>
-    <mergeCell ref="N61:P61"/>
-    <mergeCell ref="Q61:S61"/>
-    <mergeCell ref="T61:V61"/>
-    <mergeCell ref="W61:Y61"/>
-    <mergeCell ref="W45:Y45"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="K53:M53"/>
-    <mergeCell ref="N53:P53"/>
-    <mergeCell ref="Q53:S53"/>
-    <mergeCell ref="T53:V53"/>
-    <mergeCell ref="W53:Y53"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="K45:M45"/>
-    <mergeCell ref="N45:P45"/>
-    <mergeCell ref="Q45:S45"/>
-    <mergeCell ref="T45:V45"/>
-    <mergeCell ref="BQ36:BR36"/>
-    <mergeCell ref="BQ37:BR37"/>
-    <mergeCell ref="BQ38:BR38"/>
-    <mergeCell ref="BQ39:BR39"/>
-    <mergeCell ref="BQ40:BR40"/>
-    <mergeCell ref="BQ41:BR41"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BA29:BC29"/>
-    <mergeCell ref="BD29:BI29"/>
-    <mergeCell ref="BJ29:BL29"/>
-    <mergeCell ref="BM29:BO29"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BA37:BC37"/>
-    <mergeCell ref="BD37:BI37"/>
-    <mergeCell ref="BJ37:BL37"/>
-    <mergeCell ref="BM37:BO37"/>
-    <mergeCell ref="BJ21:BL21"/>
-    <mergeCell ref="BM21:BO21"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BA61:BC61"/>
-    <mergeCell ref="BD61:BI61"/>
-    <mergeCell ref="BJ61:BL61"/>
-    <mergeCell ref="BM61:BO61"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BA5:BC5"/>
-    <mergeCell ref="BD5:BI5"/>
-    <mergeCell ref="BJ5:BL5"/>
-    <mergeCell ref="BM5:BO5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BA13:BC13"/>
-    <mergeCell ref="BD13:BI13"/>
     <mergeCell ref="B2:BO2"/>
     <mergeCell ref="B4:BO4"/>
     <mergeCell ref="B12:BO12"/>
@@ -17349,6 +17262,93 @@
     <mergeCell ref="AX21:AZ21"/>
     <mergeCell ref="BA21:BC21"/>
     <mergeCell ref="BD21:BI21"/>
+    <mergeCell ref="BJ21:BL21"/>
+    <mergeCell ref="BM21:BO21"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BA61:BC61"/>
+    <mergeCell ref="BD61:BI61"/>
+    <mergeCell ref="BJ61:BL61"/>
+    <mergeCell ref="BM61:BO61"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BA5:BC5"/>
+    <mergeCell ref="BD5:BI5"/>
+    <mergeCell ref="BJ5:BL5"/>
+    <mergeCell ref="BM5:BO5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BA13:BC13"/>
+    <mergeCell ref="BD13:BI13"/>
+    <mergeCell ref="BQ36:BR36"/>
+    <mergeCell ref="BQ37:BR37"/>
+    <mergeCell ref="BQ38:BR38"/>
+    <mergeCell ref="BQ39:BR39"/>
+    <mergeCell ref="BQ40:BR40"/>
+    <mergeCell ref="BQ41:BR41"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BA29:BC29"/>
+    <mergeCell ref="BD29:BI29"/>
+    <mergeCell ref="BJ29:BL29"/>
+    <mergeCell ref="BM29:BO29"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BA37:BC37"/>
+    <mergeCell ref="BD37:BI37"/>
+    <mergeCell ref="BJ37:BL37"/>
+    <mergeCell ref="BM37:BO37"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="K61:M61"/>
+    <mergeCell ref="N61:P61"/>
+    <mergeCell ref="Q61:S61"/>
+    <mergeCell ref="T61:V61"/>
+    <mergeCell ref="W61:Y61"/>
+    <mergeCell ref="W45:Y45"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="K53:M53"/>
+    <mergeCell ref="N53:P53"/>
+    <mergeCell ref="Q53:S53"/>
+    <mergeCell ref="T53:V53"/>
+    <mergeCell ref="W53:Y53"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="K45:M45"/>
+    <mergeCell ref="N45:P45"/>
+    <mergeCell ref="Q45:S45"/>
+    <mergeCell ref="T45:V45"/>
+    <mergeCell ref="Q37:S37"/>
+    <mergeCell ref="T37:V37"/>
+    <mergeCell ref="W37:Y37"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="K37:M37"/>
+    <mergeCell ref="N37:P37"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W13:Y13"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:M21"/>
+    <mergeCell ref="N21:P21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="T21:V21"/>
+    <mergeCell ref="W21:Y21"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="N13:P13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="T13:V13"/>
   </mergeCells>
   <conditionalFormatting sqref="T6:V11 T22:V27 T54:V59">
     <cfRule type="expression" dxfId="95" priority="472">
@@ -17687,7 +17687,7 @@
   <dimension ref="B1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17756,55 +17756,55 @@
       <c r="Y1" s="18"/>
     </row>
     <row r="2" spans="2:67" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
-      <c r="R2" s="56"/>
-      <c r="S2" s="56"/>
-      <c r="T2" s="56"/>
-      <c r="U2" s="56"/>
-      <c r="V2" s="56"/>
-      <c r="W2" s="56"/>
-      <c r="X2" s="56"/>
-      <c r="Y2" s="56"/>
-      <c r="Z2" s="56"/>
-      <c r="AA2" s="56"/>
-      <c r="AB2" s="56"/>
-      <c r="AC2" s="56"/>
-      <c r="AD2" s="56"/>
-      <c r="AE2" s="56"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="56"/>
-      <c r="AO2" s="56"/>
-      <c r="AP2" s="56"/>
-      <c r="AQ2" s="56"/>
-      <c r="AR2" s="56"/>
-      <c r="AS2" s="56"/>
-      <c r="AT2" s="56"/>
-      <c r="AU2" s="56"/>
-      <c r="AV2" s="56"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="75"/>
+      <c r="AD2" s="75"/>
+      <c r="AE2" s="75"/>
+      <c r="AF2" s="75"/>
+      <c r="AG2" s="75"/>
+      <c r="AH2" s="75"/>
+      <c r="AI2" s="75"/>
+      <c r="AJ2" s="75"/>
+      <c r="AK2" s="75"/>
+      <c r="AL2" s="75"/>
+      <c r="AM2" s="75"/>
+      <c r="AN2" s="75"/>
+      <c r="AO2" s="75"/>
+      <c r="AP2" s="75"/>
+      <c r="AQ2" s="75"/>
+      <c r="AR2" s="75"/>
+      <c r="AS2" s="75"/>
+      <c r="AT2" s="75"/>
+      <c r="AU2" s="75"/>
+      <c r="AV2" s="75"/>
       <c r="AW2" s="46"/>
       <c r="AX2" s="46"/>
       <c r="AY2" s="46"/>
@@ -17858,42 +17858,42 @@
         <v>86</v>
       </c>
       <c r="C5" s="35"/>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E5" s="76"/>
-      <c r="F5" s="76"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="36"/>
-      <c r="H5" s="75" t="s">
+      <c r="H5" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="75" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="75" t="s">
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O5" s="74"/>
-      <c r="P5" s="74"/>
-      <c r="Q5" s="75" t="s">
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R5" s="74"/>
-      <c r="S5" s="74"/>
-      <c r="T5" s="75" t="s">
+      <c r="R5" s="56"/>
+      <c r="S5" s="56"/>
+      <c r="T5" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U5" s="74"/>
-      <c r="V5" s="74"/>
-      <c r="W5" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X5" s="74"/>
-      <c r="Y5" s="74"/>
+      <c r="U5" s="56"/>
+      <c r="V5" s="56"/>
+      <c r="W5" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" s="56"/>
+      <c r="Y5" s="56"/>
       <c r="AA5" s="12" t="s">
         <v>23</v>
       </c>
@@ -19238,52 +19238,52 @@
       <c r="W15" s="77"/>
       <c r="X15" s="77"/>
       <c r="Y15" s="77"/>
-      <c r="AU15" s="64" t="s">
+      <c r="AU15" s="62" t="s">
         <v>103</v>
       </c>
-      <c r="AV15" s="64"/>
+      <c r="AV15" s="62"/>
     </row>
     <row r="16" spans="2:67" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34" t="s">
         <v>86</v>
       </c>
       <c r="C16" s="35"/>
-      <c r="D16" s="76" t="s">
+      <c r="D16" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
       <c r="G16" s="36"/>
-      <c r="H16" s="75" t="s">
+      <c r="H16" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I16" s="74"/>
-      <c r="J16" s="74"/>
-      <c r="K16" s="75" t="s">
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+      <c r="K16" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L16" s="74"/>
-      <c r="M16" s="74"/>
-      <c r="N16" s="75" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56"/>
+      <c r="N16" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O16" s="74"/>
-      <c r="P16" s="74"/>
-      <c r="Q16" s="75" t="s">
+      <c r="O16" s="56"/>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R16" s="74"/>
-      <c r="S16" s="74"/>
-      <c r="T16" s="75" t="s">
+      <c r="R16" s="56"/>
+      <c r="S16" s="56"/>
+      <c r="T16" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U16" s="74"/>
-      <c r="V16" s="74"/>
-      <c r="W16" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X16" s="74"/>
-      <c r="Y16" s="74"/>
+      <c r="U16" s="56"/>
+      <c r="V16" s="56"/>
+      <c r="W16" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X16" s="56"/>
+      <c r="Y16" s="56"/>
       <c r="AA16" s="12" t="s">
         <v>23</v>
       </c>
@@ -19341,10 +19341,10 @@
       <c r="AT16" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="AU16" s="65" t="s">
+      <c r="AU16" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AV16" s="66"/>
+      <c r="AV16" s="64"/>
     </row>
     <row r="17" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="23">
@@ -19354,70 +19354,94 @@
         <f>IF(AB6=0,"Winner R1",AB6)</f>
         <v> Netherlands</v>
       </c>
-      <c r="D17" s="48"/>
+      <c r="D17" s="48">
+        <v>2</v>
+      </c>
       <c r="E17" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F17" s="47"/>
+      <c r="F17" s="47">
+        <v>3</v>
+      </c>
       <c r="G17" s="25" t="str">
         <f>IF(AB7=0,"Winner R2",AB7)</f>
         <v> Japan</v>
       </c>
-      <c r="H17" s="28"/>
+      <c r="H17" s="28">
+        <v>25</v>
+      </c>
       <c r="I17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J17" s="30"/>
-      <c r="K17" s="28"/>
+      <c r="J17" s="30">
+        <v>20</v>
+      </c>
+      <c r="K17" s="28">
+        <v>20</v>
+      </c>
       <c r="L17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M17" s="30"/>
-      <c r="N17" s="28"/>
+      <c r="M17" s="30">
+        <v>25</v>
+      </c>
+      <c r="N17" s="28">
+        <v>25</v>
+      </c>
       <c r="O17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="30"/>
-      <c r="Q17" s="28"/>
+      <c r="P17" s="30">
+        <v>22</v>
+      </c>
+      <c r="Q17" s="28">
+        <v>22</v>
+      </c>
       <c r="R17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S17" s="30"/>
-      <c r="T17" s="28"/>
+      <c r="S17" s="30">
+        <v>25</v>
+      </c>
+      <c r="T17" s="28">
+        <v>12</v>
+      </c>
       <c r="U17" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="V17" s="30"/>
+      <c r="V17" s="30">
+        <v>15</v>
+      </c>
       <c r="W17" s="31">
         <f>SUM(H17,K17,N17,Q17,T17)</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="X17" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y17" s="32">
         <f>SUM(J17,M17,P17,S17,V17)</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AA17" s="12">
         <f>AD17+AE17</f>
-        <v>0</v>
-      </c>
-      <c r="AB17" s="12">
+        <v>5</v>
+      </c>
+      <c r="AB17" s="12" t="str">
         <f>IF(OR(D17="",F17=""),0,IF(D17&gt;F17,C17,G17))</f>
-        <v>0</v>
+        <v> Japan</v>
       </c>
       <c r="AC17" s="12">
         <f>IF(OR(D17="",F17=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&gt;F17,D17,F17))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&gt;F17,F17,D17))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AF17" s="12">
         <f>IF(AND(AD17=3,AE17=0),1,0)</f>
@@ -19429,35 +19453,35 @@
       </c>
       <c r="AH17" s="12">
         <f>IF(AND(AD17=3,AE17=2),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI17" s="12">
         <f>IF(D17&gt;F17,SUM(H17,K17,N17,Q17,T17,),SUM(J17,M17,P17,S17,V17))</f>
-        <v>0</v>
+        <v>107</v>
       </c>
       <c r="AJ17" s="12">
         <f>IF(D17&gt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
-        <v>0</v>
-      </c>
-      <c r="AL17" s="12">
+        <v>104</v>
+      </c>
+      <c r="AL17" s="12" t="str">
         <f>IF(OR(D17="",F17=""),0,IF(D17&lt;F17,C17,G17))</f>
-        <v>0</v>
+        <v> Netherlands</v>
       </c>
       <c r="AM17" s="12">
         <f>IF(OR(D17="",F17=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&lt;F17,D17,F17))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AO17" s="12">
         <f>IF(OR(D17="",F17=""),0,IF(D17&lt;F17,F17,D17))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP17" s="12">
         <f>IF(AND(AN17=2,AO17=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ17" s="12">
         <f>IF(AND(AN17=1,AO17=3),1,0)</f>
@@ -19469,16 +19493,16 @@
       </c>
       <c r="AS17" s="12">
         <f>IF(D17&lt;F17,SUM(H17,K17,N17,Q17,T17,),SUM(J17,M17,P17,S17,V17))</f>
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="AT17" s="12">
         <f>IF(D17&lt;F17,SUM(J17,M17,P17,S17,V17),SUM(H17,K17,N17,Q17,T17))</f>
-        <v>0</v>
-      </c>
-      <c r="AU17" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="AU17" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="AV17" s="68"/>
+      <c r="AV17" s="66"/>
     </row>
     <row r="18" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="23">
@@ -19488,30 +19512,46 @@
         <f>IF(AB8=0,"Winner R3",AB8)</f>
         <v> Italy</v>
       </c>
-      <c r="D18" s="48"/>
+      <c r="D18" s="48">
+        <v>3</v>
+      </c>
       <c r="E18" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F18" s="47"/>
+      <c r="F18" s="47">
+        <v>0</v>
+      </c>
       <c r="G18" s="25" t="str">
         <f>IF(AB9=0,"Winner R4",AB9)</f>
         <v> Poland</v>
       </c>
-      <c r="H18" s="28"/>
+      <c r="H18" s="28">
+        <v>25</v>
+      </c>
       <c r="I18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J18" s="30"/>
-      <c r="K18" s="28"/>
+      <c r="J18" s="30">
+        <v>17</v>
+      </c>
+      <c r="K18" s="28">
+        <v>25</v>
+      </c>
       <c r="L18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M18" s="30"/>
-      <c r="N18" s="28"/>
+      <c r="M18" s="30">
+        <v>21</v>
+      </c>
+      <c r="N18" s="28">
+        <v>25</v>
+      </c>
       <c r="O18" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="30"/>
+      <c r="P18" s="30">
+        <v>18</v>
+      </c>
       <c r="Q18" s="28"/>
       <c r="R18" s="29" t="s">
         <v>0</v>
@@ -19524,30 +19564,30 @@
       <c r="V18" s="30"/>
       <c r="W18" s="31">
         <f>SUM(H18,K18,N18,Q18,T18)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="X18" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y18" s="32">
         <f>SUM(J18,M18,P18,S18,V18)</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AA18" s="12">
         <f t="shared" ref="AA18:AA20" si="21">AD18+AE18</f>
-        <v>0</v>
-      </c>
-      <c r="AB18" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB18" s="12" t="str">
         <f t="shared" ref="AB18:AB20" si="22">IF(OR(D18="",F18=""),0,IF(D18&gt;F18,C18,G18))</f>
-        <v>0</v>
+        <v> Italy</v>
       </c>
       <c r="AC18" s="12">
         <f t="shared" ref="AC18:AC20" si="23">IF(OR(D18="",F18=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="12">
         <f t="shared" ref="AD18:AD20" si="24">IF(OR(D18="",F18=""),0,IF(D18&gt;F18,D18,F18))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE18" s="12">
         <f t="shared" ref="AE18:AE20" si="25">IF(OR(D18="",F18=""),0,IF(D18&gt;F18,F18,D18))</f>
@@ -19555,7 +19595,7 @@
       </c>
       <c r="AF18" s="12">
         <f t="shared" ref="AF18:AF20" si="26">IF(AND(AD18=3,AE18=0),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG18" s="12">
         <f t="shared" ref="AG18:AG20" si="27">IF(AND(AD18=3,AE18=1),1,0)</f>
@@ -19567,19 +19607,19 @@
       </c>
       <c r="AI18" s="12">
         <f t="shared" ref="AI18:AI20" si="29">IF(D18&gt;F18,SUM(H18,K18,N18,Q18,T18,),SUM(J18,M18,P18,S18,V18))</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AJ18" s="12">
         <f t="shared" ref="AJ18:AJ20" si="30">IF(D18&gt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
-        <v>0</v>
-      </c>
-      <c r="AL18" s="12">
+        <v>56</v>
+      </c>
+      <c r="AL18" s="12" t="str">
         <f t="shared" ref="AL18:AL20" si="31">IF(OR(D18="",F18=""),0,IF(D18&lt;F18,C18,G18))</f>
-        <v>0</v>
+        <v> Poland</v>
       </c>
       <c r="AM18" s="12">
         <f t="shared" ref="AM18:AM20" si="32">IF(OR(D18="",F18=""),0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN18" s="12">
         <f t="shared" ref="AN18:AN20" si="33">IF(OR(D18="",F18=""),0,IF(D18&lt;F18,D18,F18))</f>
@@ -19587,7 +19627,7 @@
       </c>
       <c r="AO18" s="12">
         <f t="shared" ref="AO18:AO20" si="34">IF(OR(D18="",F18=""),0,IF(D18&lt;F18,F18,D18))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP18" s="12">
         <f t="shared" ref="AP18:AP20" si="35">IF(AND(AN18=2,AO18=3),1,0)</f>
@@ -19599,20 +19639,20 @@
       </c>
       <c r="AR18" s="12">
         <f t="shared" ref="AR18:AR20" si="37">IF(AND(AN18=0,AO18=3),1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS18" s="12">
         <f t="shared" ref="AS18:AS20" si="38">IF(D18&lt;F18,SUM(H18,K18,N18,Q18,T18,),SUM(J18,M18,P18,S18,V18))</f>
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="AT18" s="12">
         <f t="shared" ref="AT18:AT20" si="39">IF(D18&lt;F18,SUM(J18,M18,P18,S18,V18),SUM(H18,K18,N18,Q18,T18))</f>
-        <v>0</v>
-      </c>
-      <c r="AU18" s="67" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU18" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="AV18" s="68"/>
+      <c r="AV18" s="66"/>
     </row>
     <row r="19" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="23">
@@ -19743,10 +19783,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU19" s="67" t="s">
+      <c r="AU19" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="AV19" s="68"/>
+      <c r="AV19" s="66"/>
     </row>
     <row r="20" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="23">
@@ -19877,10 +19917,10 @@
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="AU20" s="69" t="s">
+      <c r="AU20" s="67" t="s">
         <v>45</v>
       </c>
-      <c r="AV20" s="70"/>
+      <c r="AV20" s="68"/>
     </row>
     <row r="21" spans="2:64" ht="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19916,42 +19956,42 @@
         <v>86</v>
       </c>
       <c r="C23" s="35"/>
-      <c r="D23" s="76" t="s">
+      <c r="D23" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="36"/>
-      <c r="H23" s="75" t="s">
+      <c r="H23" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I23" s="74"/>
-      <c r="J23" s="74"/>
-      <c r="K23" s="75" t="s">
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+      <c r="K23" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L23" s="74"/>
-      <c r="M23" s="74"/>
-      <c r="N23" s="75" t="s">
+      <c r="L23" s="56"/>
+      <c r="M23" s="56"/>
+      <c r="N23" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O23" s="74"/>
-      <c r="P23" s="74"/>
-      <c r="Q23" s="75" t="s">
+      <c r="O23" s="56"/>
+      <c r="P23" s="56"/>
+      <c r="Q23" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R23" s="74"/>
-      <c r="S23" s="74"/>
-      <c r="T23" s="75" t="s">
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U23" s="74"/>
-      <c r="V23" s="74"/>
-      <c r="W23" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X23" s="74"/>
-      <c r="Y23" s="74"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
       <c r="AA23" s="12" t="s">
         <v>23</v>
       </c>
@@ -20016,7 +20056,7 @@
       </c>
       <c r="C24" s="24" t="str">
         <f>IF(AB17=0,"Winner Q1",AB17)</f>
-        <v>Winner Q1</v>
+        <v> Japan</v>
       </c>
       <c r="D24" s="48"/>
       <c r="E24" s="49" t="s">
@@ -20146,7 +20186,7 @@
       </c>
       <c r="C25" s="24" t="str">
         <f>IF(AB18=0,"Winner Q2",AB18)</f>
-        <v>Winner Q2</v>
+        <v> Italy</v>
       </c>
       <c r="D25" s="48"/>
       <c r="E25" s="49" t="s">
@@ -20323,42 +20363,42 @@
         <v>86</v>
       </c>
       <c r="C29" s="35"/>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="36"/>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I29" s="74"/>
-      <c r="J29" s="74"/>
-      <c r="K29" s="75" t="s">
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+      <c r="K29" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="75" t="s">
+      <c r="L29" s="56"/>
+      <c r="M29" s="56"/>
+      <c r="N29" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O29" s="74"/>
-      <c r="P29" s="74"/>
-      <c r="Q29" s="75" t="s">
+      <c r="O29" s="56"/>
+      <c r="P29" s="56"/>
+      <c r="Q29" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R29" s="74"/>
-      <c r="S29" s="74"/>
-      <c r="T29" s="75" t="s">
+      <c r="R29" s="56"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U29" s="74"/>
-      <c r="V29" s="74"/>
-      <c r="W29" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X29" s="74"/>
-      <c r="Y29" s="74"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
       <c r="AA29" s="12" t="s">
         <v>23</v>
       </c>
@@ -20620,42 +20660,42 @@
         <v>86</v>
       </c>
       <c r="C34" s="35"/>
-      <c r="D34" s="76" t="s">
+      <c r="D34" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="58"/>
       <c r="G34" s="36"/>
-      <c r="H34" s="75" t="s">
+      <c r="H34" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="I34" s="74"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="75" t="s">
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+      <c r="K34" s="57" t="s">
         <v>89</v>
       </c>
-      <c r="L34" s="74"/>
-      <c r="M34" s="74"/>
-      <c r="N34" s="75" t="s">
+      <c r="L34" s="56"/>
+      <c r="M34" s="56"/>
+      <c r="N34" s="57" t="s">
         <v>90</v>
       </c>
-      <c r="O34" s="74"/>
-      <c r="P34" s="74"/>
-      <c r="Q34" s="75" t="s">
+      <c r="O34" s="56"/>
+      <c r="P34" s="56"/>
+      <c r="Q34" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="R34" s="74"/>
-      <c r="S34" s="74"/>
-      <c r="T34" s="75" t="s">
+      <c r="R34" s="56"/>
+      <c r="S34" s="56"/>
+      <c r="T34" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="U34" s="74"/>
-      <c r="V34" s="74"/>
-      <c r="W34" s="74" t="s">
-        <v>1</v>
-      </c>
-      <c r="X34" s="74"/>
-      <c r="Y34" s="74"/>
+      <c r="U34" s="56"/>
+      <c r="V34" s="56"/>
+      <c r="W34" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="X34" s="56"/>
+      <c r="Y34" s="56"/>
       <c r="AA34" s="12" t="s">
         <v>23</v>
       </c>
@@ -20973,6 +21013,38 @@
   </sheetData>
   <sheetProtection password="CC01" sheet="1" selectLockedCells="1"/>
   <mergeCells count="48">
+    <mergeCell ref="B4:Y4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="K5:M5"/>
+    <mergeCell ref="N5:P5"/>
+    <mergeCell ref="Q5:S5"/>
+    <mergeCell ref="T5:V5"/>
+    <mergeCell ref="W5:Y5"/>
+    <mergeCell ref="W34:Y34"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="K34:M34"/>
+    <mergeCell ref="N34:P34"/>
+    <mergeCell ref="Q34:S34"/>
+    <mergeCell ref="T34:V34"/>
+    <mergeCell ref="B33:Y33"/>
+    <mergeCell ref="AU15:AV15"/>
+    <mergeCell ref="T29:V29"/>
+    <mergeCell ref="W29:Y29"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="K23:M23"/>
+    <mergeCell ref="N23:P23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="K29:M29"/>
+    <mergeCell ref="N29:P29"/>
+    <mergeCell ref="Q29:S29"/>
+    <mergeCell ref="AU16:AV16"/>
+    <mergeCell ref="AU17:AV17"/>
     <mergeCell ref="B2:AV2"/>
     <mergeCell ref="T16:V16"/>
     <mergeCell ref="W16:Y16"/>
@@ -20989,38 +21061,6 @@
     <mergeCell ref="AU18:AV18"/>
     <mergeCell ref="AU19:AV19"/>
     <mergeCell ref="AU20:AV20"/>
-    <mergeCell ref="B33:Y33"/>
-    <mergeCell ref="AU15:AV15"/>
-    <mergeCell ref="T29:V29"/>
-    <mergeCell ref="W29:Y29"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="K23:M23"/>
-    <mergeCell ref="N23:P23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="K29:M29"/>
-    <mergeCell ref="N29:P29"/>
-    <mergeCell ref="Q29:S29"/>
-    <mergeCell ref="AU16:AV16"/>
-    <mergeCell ref="AU17:AV17"/>
-    <mergeCell ref="W34:Y34"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="K34:M34"/>
-    <mergeCell ref="N34:P34"/>
-    <mergeCell ref="Q34:S34"/>
-    <mergeCell ref="T34:V34"/>
-    <mergeCell ref="B4:Y4"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="K5:M5"/>
-    <mergeCell ref="N5:P5"/>
-    <mergeCell ref="Q5:S5"/>
-    <mergeCell ref="T5:V5"/>
-    <mergeCell ref="W5:Y5"/>
   </mergeCells>
   <conditionalFormatting sqref="BM18:XFD18 BM22:XFD23 BM20:XFD20 A18:A20 Z18:Z20 A41:A1048576 B53:Y1048576 B38:Y47 B37 D37:Y37 Z41:AT1048576 BM41:XFD1048576 A3:XFD3 BM6:XFD15 A4:A15 B4:XFD4 Z22:AT22 AA5:AT13 Z26:AT28 Z23:Z25 Z29:Z30 B36:AT36 Z34:Z35 BM25:XFD36 A22:A36 Z31:AT33 Z5:XFD5 B14:AT15 B21:Y22 B28:Y28 B33:Y33 Z6:Z13 AW24:BL1048576 AU21:AV1048576">
     <cfRule type="cellIs" dxfId="31" priority="79" operator="equal">
@@ -21195,23 +21235,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100DBF2846C41E31A469E3CED25F2422E48" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d0c08e4af4d80db6585ac36ba965bb3a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="2c8c20e6-817c-474f-b9c2-eb2b1ac24837" xmlns:ns4="dc8c2798-6aba-4af7-93a4-b89253b03650" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4e7db2db65f9cb533b4933096bc9b657" ns3:_="" ns4:_="">
     <xsd:import namespace="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
@@ -21444,32 +21467,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="dc8c2798-6aba-4af7-93a4-b89253b03650" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1A4F3B6-8EF3-43FC-AA6E-56F4B11E76F9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -21486,4 +21501,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5079BA11-B2F9-4F45-9320-B0ECAAE97A1E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/2025 FIVB Women's Volleyball World Championship.xlsx
+++ b/2025 FIVB Women's Volleyball World Championship.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mjunior\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C74E7559-C176-49CE-8522-E8DF5FE8FBC4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76048C2A-EA21-45D2-A56C-C624D1894FA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookPassword="CC01" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12105" firstSheet="1" activeTab="2" xr2:uid="{701403F6-3112-456D-B33A-FC5595D41656}"/>
@@ -17687,7 +17687,7 @@
   <dimension ref="B1:BO48"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
@@ -17715,21 +17715,19 @@
     <col min="25" max="25" width="4.7109375" style="12" customWidth="1"/>
     <col min="26" max="26" width="9.140625" style="12" customWidth="1"/>
     <col min="27" max="27" width="6.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="16.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="29" max="29" width="2.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="30" max="30" width="5.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="31" max="31" width="5.42578125" style="12" hidden="1" customWidth="1"/>
     <col min="32" max="34" width="4.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="3.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="3.42578125" style="12" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="2.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="38" max="38" width="21.140625" style="12" hidden="1" customWidth="1"/>
+    <col min="35" max="36" width="4.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="37" max="37" width="3.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="38" max="38" width="2.85546875" style="12" hidden="1" customWidth="1"/>
     <col min="39" max="39" width="2.28515625" style="12" hidden="1" customWidth="1"/>
     <col min="40" max="40" width="5.5703125" style="12" hidden="1" customWidth="1"/>
     <col min="41" max="41" width="5.42578125" style="12" hidden="1" customWidth="1"/>
     <col min="42" max="44" width="4.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="45" max="45" width="3.28515625" style="12" hidden="1" customWidth="1"/>
-    <col min="46" max="46" width="3.42578125" style="12" hidden="1" customWidth="1"/>
+    <col min="45" max="46" width="4.42578125" style="12" hidden="1" customWidth="1"/>
     <col min="47" max="47" width="4.7109375" style="12" customWidth="1"/>
     <col min="48" max="48" width="22.7109375" style="12" customWidth="1"/>
     <col min="49" max="49" width="4.7109375" style="12" customWidth="1"/>
@@ -19662,30 +19660,46 @@
         <f>IF(AB10=0,"Winner R5",AB10)</f>
         <v> Brazil</v>
       </c>
-      <c r="D19" s="48"/>
+      <c r="D19" s="48">
+        <v>3</v>
+      </c>
       <c r="E19" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F19" s="47"/>
+      <c r="F19" s="47">
+        <v>0</v>
+      </c>
       <c r="G19" s="25" t="str">
         <f>IF(AB11=0,"Winner R6",AB11)</f>
         <v> France</v>
       </c>
-      <c r="H19" s="28"/>
+      <c r="H19" s="28">
+        <v>27</v>
+      </c>
       <c r="I19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J19" s="30"/>
-      <c r="K19" s="28"/>
+      <c r="J19" s="30">
+        <v>25</v>
+      </c>
+      <c r="K19" s="28">
+        <v>33</v>
+      </c>
       <c r="L19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M19" s="30"/>
-      <c r="N19" s="28"/>
+      <c r="M19" s="30">
+        <v>31</v>
+      </c>
+      <c r="N19" s="28">
+        <v>25</v>
+      </c>
       <c r="O19" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="30"/>
+      <c r="P19" s="30">
+        <v>19</v>
+      </c>
       <c r="Q19" s="28"/>
       <c r="R19" s="29" t="s">
         <v>0</v>
@@ -19698,30 +19712,30 @@
       <c r="V19" s="30"/>
       <c r="W19" s="31">
         <f>SUM(H19,K19,N19,Q19,T19)</f>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="X19" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y19" s="32">
         <f>SUM(J19,M19,P19,S19,V19)</f>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AA19" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB19" s="12">
+        <v>3</v>
+      </c>
+      <c r="AB19" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v> Brazil</v>
       </c>
       <c r="AC19" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE19" s="12">
         <f t="shared" si="25"/>
@@ -19729,7 +19743,7 @@
       </c>
       <c r="AF19" s="12">
         <f t="shared" si="26"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG19" s="12">
         <f t="shared" si="27"/>
@@ -19741,19 +19755,19 @@
       </c>
       <c r="AI19" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AJ19" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL19" s="12">
+        <v>75</v>
+      </c>
+      <c r="AL19" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v> France</v>
       </c>
       <c r="AM19" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN19" s="12">
         <f t="shared" si="33"/>
@@ -19761,7 +19775,7 @@
       </c>
       <c r="AO19" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP19" s="12">
         <f t="shared" si="35"/>
@@ -19773,15 +19787,15 @@
       </c>
       <c r="AR19" s="12">
         <f t="shared" si="37"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS19" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="AT19" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AU19" s="65" t="s">
         <v>44</v>
@@ -19796,35 +19810,55 @@
         <f>IF(AB12=0,"Winner R7",AB12)</f>
         <v> United States</v>
       </c>
-      <c r="D20" s="48"/>
+      <c r="D20" s="48">
+        <v>1</v>
+      </c>
       <c r="E20" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="F20" s="47"/>
+      <c r="F20" s="47">
+        <v>3</v>
+      </c>
       <c r="G20" s="25" t="str">
         <f>IF(AB13=0,"Winner R8",AB13)</f>
         <v> Turkey</v>
       </c>
-      <c r="H20" s="28"/>
+      <c r="H20" s="28">
+        <v>14</v>
+      </c>
       <c r="I20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="J20" s="30"/>
-      <c r="K20" s="28"/>
+      <c r="J20" s="30">
+        <v>25</v>
+      </c>
+      <c r="K20" s="28">
+        <v>25</v>
+      </c>
       <c r="L20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="M20" s="30"/>
-      <c r="N20" s="28"/>
+      <c r="M20" s="30">
+        <v>22</v>
+      </c>
+      <c r="N20" s="28">
+        <v>14</v>
+      </c>
       <c r="O20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="P20" s="30"/>
-      <c r="Q20" s="28"/>
+      <c r="P20" s="30">
+        <v>25</v>
+      </c>
+      <c r="Q20" s="28">
+        <v>23</v>
+      </c>
       <c r="R20" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="S20" s="30"/>
+      <c r="S20" s="30">
+        <v>25</v>
+      </c>
       <c r="T20" s="28"/>
       <c r="U20" s="29" t="s">
         <v>0</v>
@@ -19832,34 +19866,34 @@
       <c r="V20" s="30"/>
       <c r="W20" s="31">
         <f>SUM(H20,K20,N20,Q20,T20)</f>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="X20" s="29" t="s">
         <v>0</v>
       </c>
       <c r="Y20" s="32">
         <f>SUM(J20,M20,P20,S20,V20)</f>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AA20" s="12">
         <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="AB20" s="12">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="12" t="str">
         <f t="shared" si="22"/>
-        <v>0</v>
+        <v> Turkey</v>
       </c>
       <c r="AC20" s="12">
         <f t="shared" si="23"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="12">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AE20" s="12">
         <f t="shared" si="25"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF20" s="12">
         <f t="shared" si="26"/>
@@ -19867,7 +19901,7 @@
       </c>
       <c r="AG20" s="12">
         <f t="shared" si="27"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH20" s="12">
         <f t="shared" si="28"/>
@@ -19875,27 +19909,27 @@
       </c>
       <c r="AI20" s="12">
         <f t="shared" si="29"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AJ20" s="12">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="AL20" s="12">
+        <v>76</v>
+      </c>
+      <c r="AL20" s="12" t="str">
         <f t="shared" si="31"/>
-        <v>0</v>
+        <v> United States</v>
       </c>
       <c r="AM20" s="12">
         <f t="shared" si="32"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN20" s="12">
         <f t="shared" si="33"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO20" s="12">
         <f t="shared" si="34"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP20" s="12">
         <f t="shared" si="35"/>
@@ -19903,7 +19937,7 @@
       </c>
       <c r="AQ20" s="12">
         <f t="shared" si="36"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR20" s="12">
         <f t="shared" si="37"/>
@@ -19911,11 +19945,11 @@
       </c>
       <c r="AS20" s="12">
         <f t="shared" si="38"/>
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AT20" s="12">
         <f t="shared" si="39"/>
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="AU20" s="67" t="s">
         <v>45</v>
@@ -20065,7 +20099,7 @@
       <c r="F24" s="47"/>
       <c r="G24" s="25" t="str">
         <f>IF(AB20=0,"Winner Q4",AB20)</f>
-        <v>Winner Q4</v>
+        <v> Turkey</v>
       </c>
       <c r="H24" s="28"/>
       <c r="I24" s="29" t="s">
@@ -20195,7 +20229,7 @@
       <c r="F25" s="47"/>
       <c r="G25" s="25" t="str">
         <f>IF(AB19=0,"Winner Q3",AB19)</f>
-        <v>Winner Q3</v>
+        <v> Brazil</v>
       </c>
       <c r="H25" s="28"/>
       <c r="I25" s="29" t="s">
@@ -20917,7 +20951,7 @@
         <v>38</v>
       </c>
       <c r="C38" s="53" t="str">
-        <f>IF(AB25=0,"Champion",AB25)</f>
+        <f>IF(AB35=0,"Champion",AB35)</f>
         <v>Champion</v>
       </c>
       <c r="D38" s="43"/>
@@ -20948,7 +20982,7 @@
         <v>39</v>
       </c>
       <c r="C39" s="54" t="str">
-        <f>IF(AL25=0,"Runner Up",AL25)</f>
+        <f>IF(AL35=0,"Runner Up",AL35)</f>
         <v>Runner Up</v>
       </c>
       <c r="D39" s="43"/>
@@ -20979,7 +21013,7 @@
         <v>40</v>
       </c>
       <c r="C40" s="54" t="str">
-        <f>IF(AB20=0,"3rd",AB20)</f>
+        <f>IF(AB30=0,"3rd",AB30)</f>
         <v>3rd</v>
       </c>
       <c r="D40" s="43"/>
@@ -21514,16 +21548,16 @@
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1C0F6A83-8A20-4128-AC08-526BDD0F4F5D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="2c8c20e6-817c-474f-b9c2-eb2b1ac24837"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="dc8c2798-6aba-4af7-93a4-b89253b03650"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>